--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="632">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -805,16 +805,1033 @@
     <t xml:space="preserve">sndmasssubl</t>
   </si>
   <si>
-    <t xml:space="preserve">Lmon</t>
+    <t xml:space="preserve">longitude latitude plev19 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This TM5  variable name equals the cmor name. Postprocessing in ece2cmor3 has to be added.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommi Bergman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevhalf time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure on Model Half-Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol extinction coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfno2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO2 volume mixing ratio in lowest model layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O3 volume mixing ratio in lowest model layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfpm25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM2.5 mass mixing ratio in lowest model layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abs550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient aerosol absorption optical thickness at 550 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airmass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertically integrated mass content of air in layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bldep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary Layer Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2h6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2H6 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3h6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3H6  volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3h8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3H8  volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch3coch3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH3COCH3  volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheaqpso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqueous-phase production rate of SO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chegpso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas-phase production rate of SO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chepsoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemical production of dry aerosol secondary organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMS volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drybc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of black carbon aerosol mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drydust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drynh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of nh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drynh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of nh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drynoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of noy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of o3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of dry aerosol total organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryso2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of so2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of so4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry deposition rate of seasalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emibc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emission rate of black carbon aerosol mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emidms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of dms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emidust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emiisop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of isoprene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emilnox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layer-integrated lightning production of NOx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eminh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of nh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eminox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of nox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emioa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary emission and chemical production of dry aerosol organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emiso2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of so2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emiso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total direct emission rate of so4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of seasalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hno3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNO3 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoprene volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jno2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photolysis rate of NO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmraerh2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol water mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental carbon mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrdust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dust aerosol mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrnh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH4 mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrno3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO3 aerosol mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmroa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total organic aerosol mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrpm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM1.0 mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrpm10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM10 mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrpm2p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM2.5 mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol sulfate mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrsoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary organic aerosol mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmrss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea Salt mass mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nh50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial tracer with 50 day lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO2 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od440aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient aerosol optical thickness at 440 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient aerosol optical thickness at 550 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550aerh2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerosol water aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black carbon aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550csaer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dust aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550lt1aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient fine mode aerosol optical thickness at 550 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550no3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nitrate aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550oa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total organic aerosol aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550so4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulfate aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550soa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soa aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od550ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea salt aod@550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od870aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient aerosol optical thickness at 870 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevhalf time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ptp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropopause Air Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tatp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropopause Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Ozone Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropospheric ozone column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of black carbon aerosol mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetdust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetnh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of nh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetnh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of nh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetnoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition of noy incl aerosol nitrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of dry aerosol total organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetso2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of so2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of so4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wetss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet deposition rate of seasalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ztp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropopause Altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxpblz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum PBL height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minpblz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum PBL height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfo3max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily maximum O3 volume mixing ratio in lowest model layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Column Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alevhalf site time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude plev39 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HO2 volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total reactive nitrogen volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emibvoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of biogenic nmvoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emivoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total emission rate of nmvoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the AOGCM, but will be added by Tommi  in the ESM in TM5 with its cmor name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2fos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Fossil Fuel Emissions of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the prescribed anthropogenic CO2 flux from fossil fuel use, including cement production, and flaring (but not from land-use changes, agricultural burning, forest regrowth, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude plev19 time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Atmospheric Mass of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total atmospheric mass of Carbon Dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2massClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Mean Mole Fraction of CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4globalClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2oClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of N2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2oglobal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Mean Mole Fraction of N2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global mean Nitrous Oxide (N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2oglobalClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, will be cmorized by Peter Anthoni &amp; Lars Nieradzik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warlind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrsol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cSoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fCLandToOcean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fFireNat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fProductDecomp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fAnthDisturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDeforestToProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fHarvestToProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nLitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nLand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMineral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNfert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNdep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fBNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNnetmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNVegLitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNLandToOcean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNLitterSoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNAnthDisturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeFracNdlDcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeFracBdlEvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeFracBdlDcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grassFracC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grassFracC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pastureFracC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pastureFracC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cStem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cLitterCwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cLitterSurf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cLitterSubSurf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fVegFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fLitterFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fFireAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raRoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raStem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raLeaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhLitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhSoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gppTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gppGrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nppTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nppGrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raGrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fHarvestToAtmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDeforestToAtmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nLeaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nStem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nRoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nLitterCwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nLitterSurf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nLitterSubSurf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMineralNH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMineralNO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNleach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNgasNonFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNgasFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fLuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cWood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gppLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nppLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cTotFireLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">necbLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nwdFracLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laiLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrsosLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrroLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrsoLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irrLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fProductDecompLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fLulccProductLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fLulccResidueLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fLulccAtmLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fracLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegFrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeFracNdlEvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cropFracC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cropFracC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cLand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegHeightTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nVeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nSoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fNgas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fracOutLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fracInLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrsos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prveg</t>
   </si>
   <si>
     <t xml:space="preserve">evspsblveg</t>
   </si>
   <si>
-    <t xml:space="preserve">Available in LPJ-GUESS, will be cmorized by Peter Anthoni &amp; Lars Nieradzik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Warlind</t>
+    <t xml:space="preserve">evspsblsoi</t>
   </si>
   <si>
     <t xml:space="preserve">tran</t>
@@ -826,6 +1843,12 @@
     <t xml:space="preserve">grassFrac</t>
   </si>
   <si>
+    <t xml:space="preserve">shrubFrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, will be cmorized by Peter Anthoni &amp; Lars Nieradzik. Included for future use</t>
+  </si>
+  <si>
     <t xml:space="preserve">cropFrac</t>
   </si>
   <si>
@@ -838,9 +1861,6 @@
     <t xml:space="preserve">residualFrac</t>
   </si>
   <si>
-    <t xml:space="preserve">burntFractionAll</t>
-  </si>
-  <si>
     <t xml:space="preserve">cVeg</t>
   </si>
   <si>
@@ -850,9 +1870,6 @@
     <t xml:space="preserve">cProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">lai</t>
-  </si>
-  <si>
     <t xml:space="preserve">gpp</t>
   </si>
   <si>
@@ -865,15 +1882,9 @@
     <t xml:space="preserve">rh</t>
   </si>
   <si>
-    <t xml:space="preserve">fFire</t>
-  </si>
-  <si>
     <t xml:space="preserve">fGrazing</t>
   </si>
   <si>
-    <t xml:space="preserve">fHarvest</t>
-  </si>
-  <si>
     <t xml:space="preserve">nbp</t>
   </si>
   <si>
@@ -883,784 +1894,28 @@
     <t xml:space="preserve">fLitterSoil</t>
   </si>
   <si>
-    <t xml:space="preserve">fVegSoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cSoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass in Soil Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon mass in the full depth of the soil model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude sdepth time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrsol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total water content of soil layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in each soil layer, the mass of water in all phases, including ice.  Reported as 'missing' for grid cells occupied entirely by 'sea'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Carbon Mass Flux out of Atmophere due to Net Ecosystem Productivity on Land.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural flux of CO2 (expressed as a mass flux of carbon) from the atmosphere to the land calculated as the difference between uptake associated will photosynthesis and the release of CO2 from the sum of plant and soil respiration and fire.  Positive flux is into the land.  emissions from natural fires and human ignition fires as calculated by the fire module of the dynamic vegetation model, but excluding any CO2 flux from fire included in fLuc (CO2 Flux to Atmosphere from Land Use Change).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fLuc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Carbon Mass Flux into Atmosphere due to Land Use Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon mass flux per unit area into atmosphere due to human changes to land (excluding forest regrowth) accounting possibly for different time-scales related to fate of the wood, for example.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude plev19 time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mole Fraction of O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TM5  variable name equals the cmor name. Postprocessing in ece2cmor3 has to be added.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tommi Bergman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mole Fraction of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mole Fraction of CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevhalf time2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure on Model Half-Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6hrLev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ec550aer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol extinction coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfno2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO2 volume mixing ratio in lowest model layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfo3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O3 volume mixing ratio in lowest model layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfpm25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM2.5 mass mixing ratio in lowest model layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abs550aer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambient aerosol absorption optical thickness at 550 nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">airmass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertically integrated mass content of air in layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bldep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundary Layer Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c2h6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2H6 volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3h6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H6  volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3h8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H8  volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch3coch3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH3COCH3  volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4 volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cheaqpso4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqueous-phase production rate of SO4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chegpso4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas-phase production rate of SO4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chepsoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemical production of dry aerosol secondary organic matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMS volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drybc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of black carbon aerosol mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drydust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drynh3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of nh3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drynh4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of nh4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drynoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of noy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dryo3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dryoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of dry aerosol total organic matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dryso2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of so2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dryso4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of so4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dryss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry deposition rate of seasalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emibc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emission rate of black carbon aerosol mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emidms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of dms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emidust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emiisop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of isoprene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emilnox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">layer-integrated lightning production of NOx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eminh3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of nh3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eminox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of nox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emioa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary emission and chemical production of dry aerosol organic matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emiso2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of so2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emiso4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total direct emission rate of so4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emiss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of seasalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hno3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNO3 volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoprene volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jno2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photolysis rate of NO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmraerh2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol water mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental carbon mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrdust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dust aerosol mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrnh4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH4 mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrno3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO3 aerosol mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmroa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total organic aerosol mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrpm1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM1.0 mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrpm10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM10 mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrpm2p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM2.5 mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrso4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol sulfate mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrsoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary organic aerosol mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmrss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea Salt mass mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nh50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial tracer with 50 day lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO2 volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozone volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od440aer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambient aerosol optical thickness at 440 nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550aer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambient aerosol optical thickness at 550 nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550aerh2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerosol water aod@550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black carbon aod@550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550csaer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dust aod@550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550lt1aer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambient fine mode aerosol optical thickness at 550 nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550no3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nitrate aod@550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550oa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total organic aerosol aod@550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550so4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sulfate aod@550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550soa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soa aod@550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od550ss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea salt aod@550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od870aer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambient aerosol optical thickness at 870 nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OH volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevhalf time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ptp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropopause Air Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO2 volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tatp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropopause Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Ozone Column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropospheric ozone column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wetbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet deposition rate of black carbon aerosol mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wetdust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet deposition rate of dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wetnh3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet deposition rate of nh3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wetnh4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet deposition rate of nh4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wetnoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet deposition of noy incl aerosol nitrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wetoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet deposition rate of dry aerosol total organic matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wetso2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet deposition rate of so2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wetso4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet deposition rate of so4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wetss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wet deposition rate of seasalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ztp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropopause Altitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxpblz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum PBL height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minpblz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum PBL height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfo3max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daily maximum O3 volume mixing ratio in lowest model layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Column Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFsubhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alevhalf site time1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERmonZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude plev39 time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ho2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HO2 volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total reactive nitrogen volume mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emibvoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of biogenic nmvoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emivoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of nmvoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in the AOGCM, but will be added by Tommi  in the ESM in TM5 with its cmor name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2fos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Fossil Fuel Emissions of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the prescribed anthropogenic CO2 flux from fossil fuel use, including cement production, and flaring (but not from land-use changes, agricultural burning, forest regrowth, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude plev19 time2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Atmospheric Mass of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total atmospheric mass of Carbon Dioxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2massClim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch4Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch4global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Mean Mole Fraction of CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch4globalClim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n2oClim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mole Fraction of N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n2oglobal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Mean Mole Fraction of N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global mean Nitrous Oxide (N2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n2oglobalClim</t>
+    <t xml:space="preserve">cLeaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cRoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cLitterAbove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cLitterBelow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cSoilFast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cSoilMedium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cSoilSlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landCoverFrac</t>
   </si>
 </sst>
 </file>
@@ -1744,17 +1999,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1780,8 +2031,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A424" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A261" activeCellId="0" sqref="261:430"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A242" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A260" activeCellId="0" sqref="A260:A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1789,7 +2040,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="80.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
@@ -4597,2930 +4849,3776 @@
         <v>8</v>
       </c>
     </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="B261" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E269" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F272" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F278" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F298" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F299" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F300" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B301" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F301" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F302" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B304" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F305" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F306" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B308" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F308" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F309" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F310" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F311" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F312" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F313" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F314" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F315" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B316" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F316" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F318" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B319" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B320" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E320" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F320" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B321" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F321" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F323" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F325" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C326" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E261" s="0" t="s">
+      <c r="D326" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F326" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F328" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F329" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F330" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B331" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F331" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F332" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F333" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F334" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F335" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B336" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F336" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F339" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F341" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F342" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B343" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F343" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F344" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F345" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F348" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F349" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F350" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F351" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F352" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F353" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F354" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F355" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F356" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E357" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F357" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E359" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F359" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E360" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F360" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E361" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F361" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="E362" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F362" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E363" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F363" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F365" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E367" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F367" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E368" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F368" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E369" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F369" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E370" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F370" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F371" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F372" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E373" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F373" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E375" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F375" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E376" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F376" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="E378" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F378" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H378" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E379" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F379" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H379" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E380" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F380" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H380" s="0" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D381" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F261" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F262" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F263" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C264" s="2" t="s">
+      <c r="E381" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F381" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D382" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E264" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F264" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="2"/>
-      <c r="E265" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F265" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E266" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F266" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C267" s="2" t="s">
+      <c r="E382" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F382" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D383" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E383" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F383" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H383" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E384" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F384" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H384" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D385" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="E267" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F267" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E268" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F268" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E269" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F269" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E270" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F270" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E271" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F271" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E272" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F272" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E273" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F273" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E274" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F274" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E275" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F275" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E276" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F276" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E277" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F277" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E278" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F278" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E279" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F279" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E280" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F280" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E281" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F281" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E282" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F282" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E283" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F283" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E284" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F284" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E285" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F285" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C287" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D287" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="E287" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F287" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="H287" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="C288" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D288" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="E288" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F288" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="H288" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C289" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D289" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="E289" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F289" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="H289" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C290" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="D290" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="E290" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F290" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="H290" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="C300" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D300" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="E300" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F300" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="E301" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="E302" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="C303" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D303" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="E303" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="C305" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E305" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F305" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C307" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="E307" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F307" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C308" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="D308" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="E308" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F308" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E309" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F309" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C311" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="D311" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="E311" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F311" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B312" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C312" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F312" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C313" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="D313" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E313" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F313" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C314" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="D314" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="E314" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F314" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C315" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="D315" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="E315" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F315" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C316" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="D316" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="E316" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F316" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B317" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C317" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D317" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E317" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F317" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B318" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C318" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="D318" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="E318" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F318" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C319" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="D319" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="E319" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F319" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C320" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="D320" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="E320" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F320" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C321" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="D321" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="E321" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F321" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="D322" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="E322" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F322" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C323" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D323" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="E323" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F323" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C324" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D324" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E324" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F324" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B325" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C325" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="D325" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E325" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F325" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C326" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="E326" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F326" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="D327" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="E327" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F327" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B328" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C328" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="D328" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="E328" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F328" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="D329" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="E329" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F329" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C330" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="D330" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="E330" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F330" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="D331" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="E331" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F331" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C332" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D332" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E332" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F332" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B333" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C333" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D333" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="E333" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F333" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="D334" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="E334" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F334" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B335" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C335" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="D335" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="E335" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F335" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C336" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="D336" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="E336" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F336" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C337" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="D337" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="E337" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F337" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C338" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D338" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="E338" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F338" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C339" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="D339" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="E339" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F339" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C340" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="D340" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="E340" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F340" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C341" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="D341" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="E341" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F341" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C342" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="D342" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="E342" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F342" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C343" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="D343" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="E343" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F343" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C344" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="D344" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="E344" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F344" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B345" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C345" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="D345" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="E345" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F345" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C346" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D346" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="E346" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F346" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C347" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="D347" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="E347" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F347" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C348" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="D348" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="E348" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F348" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C349" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="D349" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="E349" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F349" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C350" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="D350" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="E350" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F350" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C351" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="D351" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="E351" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F351" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B352" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C352" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="D352" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E352" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F352" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C353" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="D353" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="E353" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F353" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C354" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="D354" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="E354" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F354" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C355" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="D355" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="E355" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F355" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C356" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="D356" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E356" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F356" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C357" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="D357" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="E357" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F357" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C358" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="D358" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="E358" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F358" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C359" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="D359" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="E359" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F359" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C360" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="D360" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="E360" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F360" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C361" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="D361" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="E361" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F361" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C362" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="D362" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="E362" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F362" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C363" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="D363" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="E363" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F363" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C364" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="D364" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="E364" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F364" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C365" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="D365" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="E365" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F365" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B366" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C366" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D366" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="E366" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F366" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C367" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="D367" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="E367" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F367" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B368" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C368" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="D368" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="E368" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F368" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B369" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C369" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="D369" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="E369" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F369" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C370" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="D370" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="E370" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F370" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C371" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="D371" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="E371" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F371" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C372" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="D372" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="E372" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F372" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C373" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="D373" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="E373" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F373" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C374" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="D374" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="E374" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F374" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B375" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C375" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D375" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="E375" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F375" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B376" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C376" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="D376" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="E376" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F376" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B377" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C377" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="D377" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="E377" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F377" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C378" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="D378" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="E378" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F378" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C379" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="D379" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="E379" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F379" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C380" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="D380" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="E380" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F380" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C381" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D381" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E381" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F381" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C382" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D382" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="E382" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F382" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C383" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="D383" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="E383" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F383" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C384" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="D384" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="E384" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F384" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C385" s="0" t="s">
+      <c r="E385" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="D385" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="E385" s="0" t="s">
-        <v>307</v>
-      </c>
       <c r="F385" s="0" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="B386" s="0" t="s">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>307</v>
+        <v>472</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>308</v>
+        <v>265</v>
+      </c>
+      <c r="H386" s="0" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="B387" s="0" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>307</v>
+        <v>472</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>308</v>
+        <v>265</v>
+      </c>
+      <c r="H387" s="0" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="B388" s="0" t="s">
-        <v>289</v>
+        <v>480</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>307</v>
+        <v>472</v>
       </c>
       <c r="F388" s="0" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="B389" s="0" t="s">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>307</v>
+        <v>472</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>308</v>
+        <v>265</v>
+      </c>
+      <c r="H389" s="0" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="B390" s="0" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D390" s="0" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="E390" s="0" t="s">
-        <v>307</v>
+        <v>472</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C391" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="D391" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="E391" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F391" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C392" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="D392" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="E392" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F392" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C393" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="D393" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="E393" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F393" s="0" t="s">
-        <v>308</v>
+        <v>265</v>
+      </c>
+      <c r="H390" s="0" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C394" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="D394" s="0" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E394" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C395" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="D395" s="0" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C396" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="D396" s="0" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F396" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C397" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="D397" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="E397" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F397" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C398" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="E398" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F398" s="0" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C399" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="D399" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C400" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="D400" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C401" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="D401" s="0" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F401" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C402" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="D402" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F402" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C403" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="D403" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F403" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C404" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E404" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F404" s="0" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>507</v>
-      </c>
       <c r="C405" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D405" s="0" t="s">
-        <v>315</v>
+        <v>510</v>
       </c>
       <c r="E405" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F405" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C406" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E406" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F406" s="0" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="C407" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="D407" s="0" t="s">
-        <v>343</v>
+        <v>512</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F407" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="C408" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="D408" s="0" t="s">
-        <v>400</v>
+        <v>513</v>
       </c>
       <c r="E408" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="C409" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="D409" s="0" t="s">
-        <v>402</v>
+        <v>514</v>
       </c>
       <c r="E409" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F409" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="C410" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="D410" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F410" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="C411" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="D411" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E411" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="C412" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D412" s="0" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F412" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="C413" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="D413" s="0" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F413" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C414" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F414" s="0" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C415" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="D415" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F415" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C416" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="D416" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="F416" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C417" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F417" s="0" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C418" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="D418" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H418" s="0" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C419" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="D419" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="F419" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H419" s="0" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C420" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="D420" s="0" t="s">
+      <c r="E420" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F420" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C421" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="E420" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F420" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H420" s="0" t="s">
+      <c r="E421" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F421" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C422" s="0" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B421" s="0" t="s">
+      <c r="E422" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F422" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C423" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="C421" s="0" t="s">
+      <c r="E423" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F423" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C424" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="D421" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="E421" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F421" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="C422" s="0" t="s">
+      <c r="E424" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F424" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C425" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="D422" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="E422" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F422" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B423" s="0" t="s">
+      <c r="E425" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F425" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C426" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C423" s="0" t="s">
+      <c r="E426" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F426" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C427" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="D423" s="0" t="s">
+      <c r="E427" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F427" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C428" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="E423" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F423" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H423" s="0" t="s">
+      <c r="E428" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F428" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C429" s="0" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B424" s="0" t="s">
+      <c r="E429" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F429" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C430" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="C424" s="0" t="s">
+      <c r="E430" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F430" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C431" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="D424" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="E424" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F424" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H424" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B425" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="C425" s="0" t="s">
+      <c r="E431" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F431" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C432" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="D425" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="E425" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F425" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C426" s="0" t="s">
+      <c r="E432" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F432" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C433" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="D426" s="0" t="s">
+      <c r="E433" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F433" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C434" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="E426" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F426" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H426" s="0" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B427" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="C427" s="0" t="s">
+      <c r="E434" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F434" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C435" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="D427" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="E427" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F427" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H427" s="0" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B428" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="C428" s="0" t="s">
+      <c r="E435" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F435" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C436" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="D428" s="0" t="s">
+      <c r="E436" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F436" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C437" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="E428" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F428" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B429" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C429" s="0" t="s">
+      <c r="E437" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F437" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C438" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="D429" s="0" t="s">
+      <c r="E438" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F438" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C439" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="E429" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F429" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H429" s="0" t="s">
+      <c r="E439" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F439" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C440" s="0" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B430" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="C430" s="0" t="s">
+      <c r="E440" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F440" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C441" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="D430" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="E430" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F430" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="H430" s="0" t="s">
-        <v>545</v>
-      </c>
-    </row>
+      <c r="E441" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F441" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C442" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E442" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F442" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C443" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E443" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F443" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C444" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E444" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F444" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C445" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="E445" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F445" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C446" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E446" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F446" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C447" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="E447" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F447" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C448" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="E448" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F448" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C449" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E449" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F449" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C450" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E450" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F450" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C451" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="E451" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F451" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C452" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="E452" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F452" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C453" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="E453" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F453" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C454" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="E454" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F454" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C455" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="E455" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F455" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C456" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="E456" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F456" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C457" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="E457" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F457" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C458" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E458" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F458" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C459" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E459" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F459" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C460" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E460" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F460" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C461" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="E461" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F461" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C462" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="E462" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F462" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C463" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F463" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C464" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="E464" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F464" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C465" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="E465" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F465" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C466" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E466" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F466" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C467" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="E467" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F467" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C468" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="E468" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F468" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C469" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="E469" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F469" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C470" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F470" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C471" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="E471" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F471" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C472" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E472" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F472" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C473" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="E473" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F473" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C474" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E474" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F474" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C475" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="E475" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F475" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C476" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="E476" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F476" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="E477" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F477" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C478" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E478" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F478" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C479" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E479" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F479" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C480" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="E480" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F480" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C481" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E481" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F481" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C482" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="E482" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F482" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C483" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E483" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F483" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C484" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="E484" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F484" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C485" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="E485" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F485" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C486" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="E486" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F486" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C487" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="E487" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F487" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C488" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="E488" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F488" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C489" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="E489" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F489" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C491" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E491" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F491" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C492" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="E492" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F492" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C493" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="E493" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F493" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C495" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="E495" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F495" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C496" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="E496" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F496" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C497" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="E497" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F497" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C498" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="E498" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F498" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C499" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="E499" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F499" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C500" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="E500" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F500" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C501" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="E501" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F501" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C502" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="E502" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F502" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C503" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E503" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F503" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C504" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="E504" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F504" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C505" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="E505" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F505" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C506" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="E506" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="F506" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C507" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E507" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F507" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C508" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="E508" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F508" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C509" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="E509" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F509" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C510" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E510" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F510" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C511" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="E511" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F511" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C512" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="E512" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F512" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C513" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="E513" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F513" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C514" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E514" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F514" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C515" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E515" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F515" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C516" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="E516" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F516" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C517" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="E517" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F517" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C518" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E518" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F518" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C519" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="E519" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F519" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C520" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="E520" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F520" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C521" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="E521" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F521" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C522" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="E522" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F522" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C523" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="E523" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F523" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C524" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="E524" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F524" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C525" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="E525" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F525" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C526" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="E526" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F526" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C527" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E527" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F527" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C528" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="E528" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F528" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C529" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="E529" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F529" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C530" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="E530" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F530" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1047818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="633">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (200) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (204) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t xml:space="preserve">siflfwbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siflfwdrain</t>
   </si>
   <si>
     <t xml:space="preserve">siflsaltbot</t>
@@ -2031,8 +2034,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A242" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A260" activeCellId="0" sqref="A260:A390"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F255" activeCellId="0" sqref="F255:F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4849,2144 +4852,2144 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="0" t="s">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C256" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="C260" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>265</v>
+      <c r="E256" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C262" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D262" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D262" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="E262" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D263" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="E263" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="D263" s="0" t="s">
+      <c r="C264" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="E263" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="0" t="s">
+      <c r="D264" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="E264" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="D265" s="0" t="s">
+      <c r="C266" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="E265" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F265" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="0" t="s">
+      <c r="D266" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C267" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F267" s="0" t="s">
-        <v>265</v>
+      <c r="E266" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C268" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D268" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="D268" s="0" t="s">
-        <v>280</v>
-      </c>
       <c r="E268" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C269" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D269" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="D269" s="0" t="s">
+      <c r="E269" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C270" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E269" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F269" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C271" s="0" t="s">
+      <c r="D270" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="D271" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="E271" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F271" s="0" t="s">
-        <v>265</v>
+      <c r="E270" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D272" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C272" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D272" s="0" t="s">
-        <v>287</v>
-      </c>
       <c r="E272" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C273" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D273" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D273" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="E273" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="0" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C274" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D274" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="D274" s="0" t="s">
-        <v>291</v>
-      </c>
       <c r="E274" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C275" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D275" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="D275" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="E275" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C276" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D276" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D276" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="E276" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C277" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D277" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="D277" s="0" t="s">
-        <v>297</v>
-      </c>
       <c r="E277" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>298</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C279" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D279" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="D279" s="0" t="s">
-        <v>300</v>
-      </c>
       <c r="E279" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C280" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D280" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="D280" s="0" t="s">
-        <v>302</v>
-      </c>
       <c r="E280" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C281" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D281" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="D281" s="0" t="s">
-        <v>304</v>
-      </c>
       <c r="E281" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="0" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C282" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D282" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="D282" s="0" t="s">
-        <v>306</v>
-      </c>
       <c r="E282" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>307</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C284" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D284" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="D284" s="0" t="s">
-        <v>309</v>
-      </c>
       <c r="E284" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C285" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D285" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="D285" s="0" t="s">
-        <v>311</v>
-      </c>
       <c r="E285" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C286" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D286" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="D286" s="0" t="s">
-        <v>313</v>
-      </c>
       <c r="E286" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C287" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D287" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D287" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="E287" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C288" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D288" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="D288" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="E288" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C289" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D289" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D289" s="0" t="s">
-        <v>319</v>
-      </c>
       <c r="E289" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C290" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D290" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="D290" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="E290" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C291" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D291" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="D291" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="E291" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C292" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D292" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="D292" s="0" t="s">
-        <v>325</v>
-      </c>
       <c r="E292" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C293" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D293" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="D293" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="E293" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C294" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D294" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="D294" s="0" t="s">
-        <v>329</v>
-      </c>
       <c r="E294" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C295" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D295" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="D295" s="0" t="s">
-        <v>331</v>
-      </c>
       <c r="E295" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C296" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D296" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="D296" s="0" t="s">
-        <v>333</v>
-      </c>
       <c r="E296" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C297" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D297" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="D297" s="0" t="s">
-        <v>335</v>
-      </c>
       <c r="E297" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C298" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D298" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D298" s="0" t="s">
-        <v>337</v>
-      </c>
       <c r="E298" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C299" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D299" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="D299" s="0" t="s">
-        <v>339</v>
-      </c>
       <c r="E299" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="0" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C300" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D300" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="D300" s="0" t="s">
-        <v>341</v>
-      </c>
       <c r="E300" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C301" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D301" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="D301" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="E301" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C302" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D302" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="D302" s="0" t="s">
-        <v>345</v>
-      </c>
       <c r="E302" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C303" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D303" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="D303" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="E303" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C304" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D304" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="D304" s="0" t="s">
-        <v>349</v>
-      </c>
       <c r="E304" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C305" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D305" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="D305" s="0" t="s">
-        <v>351</v>
-      </c>
       <c r="E305" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F305" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C306" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D306" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="D306" s="0" t="s">
-        <v>353</v>
-      </c>
       <c r="E306" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="0" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C307" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D307" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="D307" s="0" t="s">
-        <v>355</v>
-      </c>
       <c r="E307" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C308" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D308" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="D308" s="0" t="s">
-        <v>357</v>
-      </c>
       <c r="E308" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C309" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D309" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="D309" s="0" t="s">
-        <v>359</v>
-      </c>
       <c r="E309" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C310" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D310" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="D310" s="0" t="s">
-        <v>361</v>
-      </c>
       <c r="E310" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C311" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D311" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="D311" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="E311" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C312" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D312" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D312" s="0" t="s">
-        <v>365</v>
-      </c>
       <c r="E312" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C313" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D313" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="D313" s="0" t="s">
-        <v>367</v>
-      </c>
       <c r="E313" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C314" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D314" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="D314" s="0" t="s">
-        <v>369</v>
-      </c>
       <c r="E314" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C315" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D315" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D315" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E315" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C316" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D316" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="D316" s="0" t="s">
-        <v>373</v>
-      </c>
       <c r="E316" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C317" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D317" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D317" s="0" t="s">
-        <v>375</v>
-      </c>
       <c r="E317" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C318" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D318" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="D318" s="0" t="s">
-        <v>377</v>
-      </c>
       <c r="E318" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C319" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D319" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="D319" s="0" t="s">
-        <v>379</v>
-      </c>
       <c r="E319" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C320" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D320" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="D320" s="0" t="s">
-        <v>381</v>
-      </c>
       <c r="E320" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C321" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D321" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="D321" s="0" t="s">
-        <v>383</v>
-      </c>
       <c r="E321" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C322" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D322" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="D322" s="0" t="s">
-        <v>385</v>
-      </c>
       <c r="E322" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C323" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D323" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D323" s="0" t="s">
-        <v>387</v>
-      </c>
       <c r="E323" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C324" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D324" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="D324" s="0" t="s">
-        <v>389</v>
-      </c>
       <c r="E324" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C325" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D325" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="D325" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="E325" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>262</v>
+        <v>391</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>392</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C327" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D327" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="D327" s="0" t="s">
-        <v>394</v>
-      </c>
       <c r="E327" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C328" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D328" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="D328" s="0" t="s">
-        <v>396</v>
-      </c>
       <c r="E328" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C329" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D329" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="D329" s="0" t="s">
-        <v>398</v>
-      </c>
       <c r="E329" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C330" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D330" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="D330" s="0" t="s">
-        <v>400</v>
-      </c>
       <c r="E330" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C331" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D331" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="D331" s="0" t="s">
-        <v>396</v>
-      </c>
       <c r="E331" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C332" s="0" t="s">
         <v>402</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C333" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D333" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="D333" s="0" t="s">
-        <v>405</v>
-      </c>
       <c r="E333" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C334" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D334" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="D334" s="0" t="s">
-        <v>407</v>
-      </c>
       <c r="E334" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C335" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D335" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="D335" s="0" t="s">
-        <v>409</v>
-      </c>
       <c r="E335" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C336" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D336" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="D336" s="0" t="s">
-        <v>411</v>
-      </c>
       <c r="E336" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C337" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D337" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="D337" s="0" t="s">
-        <v>413</v>
-      </c>
       <c r="E337" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C338" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D338" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="D338" s="0" t="s">
-        <v>415</v>
-      </c>
       <c r="E338" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C339" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="D339" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="D339" s="0" t="s">
-        <v>417</v>
-      </c>
       <c r="E339" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="0" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C340" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D340" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="D340" s="0" t="s">
-        <v>419</v>
-      </c>
       <c r="E340" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C341" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D341" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="D341" s="0" t="s">
-        <v>421</v>
-      </c>
       <c r="E341" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="D342" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C342" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D342" s="0" t="s">
-        <v>272</v>
-      </c>
       <c r="E342" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="0" t="s">
-        <v>276</v>
+        <v>423</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>423</v>
+        <v>272</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>424</v>
+        <v>273</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="0" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C344" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D344" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D344" s="0" t="s">
-        <v>426</v>
-      </c>
       <c r="E344" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C345" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D345" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="D345" s="0" t="s">
-        <v>428</v>
-      </c>
       <c r="E345" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C346" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D346" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="D346" s="0" t="s">
-        <v>430</v>
-      </c>
       <c r="E346" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C347" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D347" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D347" s="0" t="s">
-        <v>432</v>
-      </c>
       <c r="E347" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C348" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D348" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="D348" s="0" t="s">
-        <v>434</v>
-      </c>
       <c r="E348" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C349" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D349" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="D349" s="0" t="s">
-        <v>436</v>
-      </c>
       <c r="E349" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C350" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D350" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="D350" s="0" t="s">
-        <v>438</v>
-      </c>
       <c r="E350" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C351" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D351" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D351" s="0" t="s">
-        <v>440</v>
-      </c>
       <c r="E351" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C352" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D352" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="D352" s="0" t="s">
-        <v>442</v>
-      </c>
       <c r="E352" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C353" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D353" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D353" s="0" t="s">
-        <v>444</v>
-      </c>
       <c r="E353" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C354" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D354" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="D354" s="0" t="s">
-        <v>446</v>
-      </c>
       <c r="E354" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F354" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C355" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D355" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="D355" s="0" t="s">
-        <v>448</v>
-      </c>
       <c r="E355" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C356" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D356" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="D356" s="0" t="s">
-        <v>450</v>
-      </c>
       <c r="E356" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C357" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D357" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D357" s="0" t="s">
+      <c r="E357" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F357" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C358" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="E357" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F357" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B359" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C359" s="0" t="s">
+      <c r="D358" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="D359" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="E359" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F359" s="0" t="s">
-        <v>265</v>
+      <c r="E358" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F358" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C360" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D360" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="D360" s="0" t="s">
-        <v>456</v>
-      </c>
       <c r="E360" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>459</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B365" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D364" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="C365" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D365" s="0" t="s">
+      <c r="E364" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F364" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C366" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="E365" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F365" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B367" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="C367" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D367" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="E367" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F367" s="0" t="s">
-        <v>265</v>
+      <c r="D366" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E366" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F366" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C369" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D369" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="D369" s="0" t="s">
-        <v>357</v>
-      </c>
       <c r="E369" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>462</v>
+        <v>357</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>463</v>
+        <v>358</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F370" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C371" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D371" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="D371" s="0" t="s">
-        <v>465</v>
-      </c>
       <c r="E371" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>262</v>
+        <v>465</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="D373" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E373" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F373" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C374" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="E373" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F373" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B375" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C375" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="D375" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="E375" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F375" s="0" t="s">
-        <v>265</v>
+      <c r="D374" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="E374" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F374" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C376" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D376" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="D376" s="0" t="s">
+      <c r="E376" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F376" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C377" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="E376" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F376" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B378" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C378" s="0" t="s">
+      <c r="D377" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="D378" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="E378" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="F378" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H378" s="0" t="s">
-        <v>473</v>
+      <c r="E377" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F377" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C379" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E379" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="F379" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H379" s="0" t="s">
         <v>474</v>
-      </c>
-      <c r="D379" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="E379" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="F379" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H379" s="0" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C380" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E380" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="F380" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H380" s="0" t="s">
         <v>477</v>
-      </c>
-      <c r="D380" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="E380" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="F380" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H380" s="0" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E381" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="F381" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H381" s="0" t="s">
         <v>480</v>
-      </c>
-      <c r="C381" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="D381" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E381" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="F381" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>482</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E382" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F382" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C383" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="C383" s="0" t="s">
-        <v>484</v>
-      </c>
       <c r="D383" s="0" t="s">
-        <v>485</v>
+        <v>268</v>
       </c>
       <c r="E383" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F383" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H383" s="0" t="s">
-        <v>486</v>
+        <v>266</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="E384" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="F384" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H384" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="C384" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="D384" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="E384" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="F384" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H384" s="0" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="0" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>489</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>269</v>
+        <v>486</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="H385" s="0" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>490</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>491</v>
+        <v>270</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H386" s="0" t="s">
-        <v>491</v>
+        <v>266</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="0" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C387" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="D387" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="D387" s="0" t="s">
-        <v>491</v>
-      </c>
       <c r="E387" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H387" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="0" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>493</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F388" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="H388" s="0" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C389" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D389" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="D389" s="0" t="s">
-        <v>496</v>
-      </c>
       <c r="E389" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H389" s="0" t="s">
-        <v>497</v>
+        <v>266</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="0" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C390" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="F390" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H390" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="D390" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="E390" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="F390" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H390" s="0" t="s">
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="D391" s="0" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="E394" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="F394" s="0" t="s">
-        <v>501</v>
+      <c r="E391" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="F391" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H391" s="0" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C395" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6994,43 +6997,43 @@
         <v>503</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F396" s="0" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C397" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="E398" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="F398" s="0" t="s">
-        <v>501</v>
+      <c r="E397" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F397" s="0" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C399" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C400" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,10 +7041,10 @@
         <v>506</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F401" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,10 +7052,10 @@
         <v>507</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F402" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,10 +7063,10 @@
         <v>508</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F403" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7071,10 +7074,10 @@
         <v>509</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F404" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7082,10 +7085,10 @@
         <v>510</v>
       </c>
       <c r="E405" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F405" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,10 +7096,10 @@
         <v>511</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F406" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,10 +7107,10 @@
         <v>512</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F407" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,10 +7118,10 @@
         <v>513</v>
       </c>
       <c r="E408" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7126,10 +7129,10 @@
         <v>514</v>
       </c>
       <c r="E409" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F409" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7137,10 +7140,10 @@
         <v>515</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F410" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7148,10 +7151,10 @@
         <v>516</v>
       </c>
       <c r="E411" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,10 +7162,10 @@
         <v>517</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F412" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7170,10 +7173,10 @@
         <v>518</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F413" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,10 +7184,10 @@
         <v>519</v>
       </c>
       <c r="E414" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F414" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,10 +7195,10 @@
         <v>520</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F415" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7203,10 +7206,10 @@
         <v>521</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F416" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,10 +7217,10 @@
         <v>522</v>
       </c>
       <c r="E417" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F417" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,10 +7228,10 @@
         <v>523</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,10 +7239,10 @@
         <v>524</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F419" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7247,10 +7250,10 @@
         <v>525</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F420" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,10 +7261,10 @@
         <v>526</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,10 +7272,10 @@
         <v>527</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,10 +7283,10 @@
         <v>528</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,10 +7294,10 @@
         <v>529</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,10 +7305,10 @@
         <v>530</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7313,10 +7316,10 @@
         <v>531</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7324,10 +7327,10 @@
         <v>532</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F427" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,10 +7338,10 @@
         <v>533</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7346,10 +7349,10 @@
         <v>534</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,10 +7360,10 @@
         <v>535</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,10 +7371,10 @@
         <v>536</v>
       </c>
       <c r="E431" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F431" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,10 +7382,10 @@
         <v>537</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,10 +7393,10 @@
         <v>538</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,10 +7404,10 @@
         <v>539</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F434" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,10 +7415,10 @@
         <v>540</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,10 +7426,10 @@
         <v>541</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,10 +7437,10 @@
         <v>542</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7445,10 +7448,10 @@
         <v>543</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7456,10 +7459,10 @@
         <v>544</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7467,10 +7470,10 @@
         <v>545</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7478,10 +7481,10 @@
         <v>546</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7489,10 +7492,10 @@
         <v>547</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7500,10 +7503,10 @@
         <v>548</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7511,10 +7514,10 @@
         <v>549</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7522,10 +7525,10 @@
         <v>550</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,10 +7536,10 @@
         <v>551</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7544,10 +7547,10 @@
         <v>552</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,10 +7558,10 @@
         <v>553</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7566,10 +7569,10 @@
         <v>554</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7577,10 +7580,10 @@
         <v>555</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7588,10 +7591,10 @@
         <v>556</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,10 +7602,10 @@
         <v>557</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7610,10 +7613,10 @@
         <v>558</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7621,10 +7624,10 @@
         <v>559</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7632,10 +7635,10 @@
         <v>560</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7643,10 +7646,10 @@
         <v>561</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7654,10 +7657,10 @@
         <v>562</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7665,10 +7668,10 @@
         <v>563</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7676,10 +7679,10 @@
         <v>564</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7687,10 +7690,10 @@
         <v>565</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7698,10 +7701,10 @@
         <v>566</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,10 +7712,10 @@
         <v>567</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7720,10 +7723,10 @@
         <v>568</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,10 +7734,10 @@
         <v>569</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7742,10 +7745,10 @@
         <v>570</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7753,10 +7756,10 @@
         <v>571</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,10 +7767,10 @@
         <v>572</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7775,10 +7778,10 @@
         <v>573</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7786,10 +7789,10 @@
         <v>574</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,10 +7800,10 @@
         <v>575</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7808,10 +7811,10 @@
         <v>576</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7819,10 +7822,10 @@
         <v>577</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7830,10 +7833,10 @@
         <v>578</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7841,10 +7844,10 @@
         <v>579</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7852,10 +7855,10 @@
         <v>580</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7863,10 +7866,10 @@
         <v>581</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7874,10 +7877,10 @@
         <v>582</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7885,10 +7888,10 @@
         <v>583</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7896,10 +7899,10 @@
         <v>584</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7907,10 +7910,10 @@
         <v>585</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7918,10 +7921,10 @@
         <v>586</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,10 +7932,10 @@
         <v>587</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7940,10 +7943,10 @@
         <v>588</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7951,10 +7954,10 @@
         <v>589</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7962,10 +7965,10 @@
         <v>590</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7973,10 +7976,10 @@
         <v>591</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7984,10 +7987,10 @@
         <v>592</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7995,10 +7998,10 @@
         <v>593</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8006,21 +8009,21 @@
         <v>594</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C490" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="E491" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="F491" s="0" t="s">
-        <v>501</v>
+      <c r="E490" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F490" s="0" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8028,32 +8031,32 @@
         <v>596</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C495" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="E495" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="F495" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C494" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E494" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F494" s="0" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,10 +8064,10 @@
         <v>598</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,10 +8075,10 @@
         <v>599</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8083,10 +8086,10 @@
         <v>600</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,10 +8097,10 @@
         <v>601</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8105,10 +8108,10 @@
         <v>602</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8116,10 +8119,10 @@
         <v>603</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8127,32 +8130,32 @@
         <v>604</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>503</v>
+        <v>605</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,10 +8163,10 @@
         <v>606</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8171,21 +8174,21 @@
         <v>607</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>608</v>
+        <v>501</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="E507" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="E507" s="0" t="s">
-        <v>500</v>
-      </c>
       <c r="F507" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8193,10 +8196,10 @@
         <v>610</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8204,10 +8207,10 @@
         <v>611</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8215,10 +8218,10 @@
         <v>612</v>
       </c>
       <c r="E510" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8226,10 +8229,10 @@
         <v>613</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8237,10 +8240,10 @@
         <v>614</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8248,32 +8251,32 @@
         <v>615</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="0" t="s">
-        <v>499</v>
+        <v>616</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>616</v>
+        <v>500</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8281,10 +8284,10 @@
         <v>617</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8292,10 +8295,10 @@
         <v>618</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8303,10 +8306,10 @@
         <v>619</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8314,10 +8317,10 @@
         <v>620</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8325,10 +8328,10 @@
         <v>621</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8336,10 +8339,10 @@
         <v>622</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8347,10 +8350,10 @@
         <v>623</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8358,10 +8361,10 @@
         <v>624</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,10 +8372,10 @@
         <v>625</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8380,10 +8383,10 @@
         <v>626</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8391,10 +8394,10 @@
         <v>627</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8402,10 +8405,10 @@
         <v>628</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8413,10 +8416,10 @@
         <v>629</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8424,10 +8427,10 @@
         <v>630</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8435,13 +8438,23 @@
         <v>631</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="1047818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C531" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="E531" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F531" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
     <row r="1047819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="648">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (204) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (210) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">htovovrt</t>
   </si>
   <si>
-    <t xml:space="preserve">masscello_sea</t>
+    <t xml:space="preserve">masscello</t>
   </si>
   <si>
     <t xml:space="preserve">masso</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">msftbarot</t>
   </si>
   <si>
-    <t xml:space="preserve">msftyyz</t>
+    <t xml:space="preserve">msftyz</t>
   </si>
   <si>
     <t xml:space="preserve">obvfsq</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">sossq</t>
   </si>
   <si>
-    <t xml:space="preserve">t20d_sea</t>
+    <t xml:space="preserve">t20d</t>
   </si>
   <si>
     <t xml:space="preserve">tauuo</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">thetaot700</t>
   </si>
   <si>
-    <t xml:space="preserve">thkcello_sea</t>
+    <t xml:space="preserve">thkcello</t>
   </si>
   <si>
     <t xml:space="preserve">tnkebto2d</t>
@@ -448,6 +448,24 @@
     <t xml:space="preserve">expsi</t>
   </si>
   <si>
+    <t xml:space="preserve">fbddtalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbddtdic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbddtdife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbddtdin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbddtdip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbddtdisi</t>
+  </si>
+  <si>
     <t xml:space="preserve">fgco2</t>
   </si>
   <si>
@@ -460,6 +478,12 @@
     <t xml:space="preserve">froc</t>
   </si>
   <si>
+    <t xml:space="preserve">fsfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsn</t>
+  </si>
+  <si>
     <t xml:space="preserve">graz</t>
   </si>
   <si>
@@ -595,6 +619,9 @@
     <t xml:space="preserve">sios</t>
   </si>
   <si>
+    <t xml:space="preserve">spco2</t>
+  </si>
+  <si>
     <t xml:space="preserve">talk</t>
   </si>
   <si>
@@ -808,6 +835,21 @@
     <t xml:space="preserve">sndmasssubl</t>
   </si>
   <si>
+    <t xml:space="preserve">dissicnatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in PISCES: DIC in upper layer (DIC in simulation where ocean biogeochemistry sees preindustrial atmospheric pCO2 but radiative forcing sees historical+future atmospheric CO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raffaele Bernardello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talknatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in PISCES: Alkalini in upper layer (Alkalini in simulation where ocean biogeochemistry sees preindustrial atmospheric pCO2 but radiative forcing sees historical+future atmospheric CO2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">longitude latitude plev19 time</t>
   </si>
   <si>
@@ -1919,6 +1961,9 @@
   </si>
   <si>
     <t xml:space="preserve">landCoverFrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warlind, Raffaele Bernardello</t>
   </si>
 </sst>
 </file>
@@ -2032,10 +2077,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F255" activeCellId="0" sqref="F255:F256"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B267" activeCellId="0" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4863,2320 +4908,2276 @@
         <v>8</v>
       </c>
     </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C257" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C258" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C260" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="0" t="s">
-        <v>262</v>
-      </c>
       <c r="C261" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D261" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>266</v>
+        <v>7</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="0" t="s">
-        <v>262</v>
-      </c>
       <c r="C262" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D262" s="0" t="s">
+      <c r="E262" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C263" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="E262" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="C263" s="0" t="s">
+      <c r="E263" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C264" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="D263" s="0" t="s">
+      <c r="E264" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C265" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="E263" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="0" t="s">
+      <c r="E265" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C267" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="E267" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="D264" s="0" t="s">
+      <c r="F267" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="E264" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="0" t="s">
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C268" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C266" s="0" t="s">
+      <c r="E268" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="D266" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="E266" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F266" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C268" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="D268" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="E268" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="F268" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C269" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E269" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F269" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C270" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="D270" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="E270" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F270" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C272" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D272" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="E272" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F272" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C273" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D273" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="E273" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F273" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C274" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E274" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F274" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D275" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="E275" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F275" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="0" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F276" s="0" t="s">
-        <v>266</v>
+        <v>279</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="0" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F277" s="0" t="s">
-        <v>266</v>
+        <v>279</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="0" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F278" s="0" t="s">
-        <v>266</v>
+        <v>279</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C279" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C279" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="D279" s="0" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F279" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C280" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="D280" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="E280" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F280" s="0" t="s">
-        <v>266</v>
+        <v>279</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C282" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="E282" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F282" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="E286" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F286" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F305" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>263</v>
+        <v>377</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>421</v>
+        <v>277</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="0" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>272</v>
+        <v>408</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>273</v>
+        <v>409</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F354" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="0" t="s">
-        <v>277</v>
+        <v>437</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>452</v>
+        <v>286</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>453</v>
+        <v>287</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E359" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F359" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F365" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="0" t="s">
-        <v>461</v>
+        <v>291</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>272</v>
+        <v>452</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>273</v>
+        <v>453</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F366" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E367" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F367" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="0" t="s">
-        <v>462</v>
+        <v>291</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>269</v>
+        <v>456</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>299</v>
+        <v>457</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
-        <v>462</v>
+        <v>291</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>356</v>
+        <v>459</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="0" t="s">
-        <v>462</v>
+        <v>291</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>357</v>
+        <v>460</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F370" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C371" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="C371" s="0" t="s">
+      <c r="D371" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="D371" s="0" t="s">
-        <v>464</v>
-      </c>
       <c r="E371" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>462</v>
+        <v>291</v>
       </c>
       <c r="C372" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D372" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D372" s="0" t="s">
-        <v>466</v>
-      </c>
       <c r="E372" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>462</v>
+        <v>291</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>263</v>
+        <v>466</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B374" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="C374" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="D374" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="E374" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F374" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E375" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F375" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E376" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>469</v>
+        <v>410</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F377" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="E378" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F378" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H379" s="0" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B380" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C380" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="D380" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="E380" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="F380" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H380" s="0" t="s">
-        <v>477</v>
+        <v>280</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="0" t="s">
-        <v>277</v>
+        <v>475</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>478</v>
+        <v>286</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>479</v>
+        <v>287</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H381" s="0" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B382" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C382" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="D382" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E382" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="F382" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="0" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="E383" s="0" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F383" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="0" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>485</v>
+        <v>369</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>486</v>
+        <v>370</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F384" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H384" s="0" t="s">
-        <v>487</v>
+        <v>280</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="0" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>486</v>
+        <v>372</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H385" s="0" t="s">
-        <v>487</v>
+        <v>280</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="0" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="0" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H387" s="0" t="s">
-        <v>492</v>
+        <v>280</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="0" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>493</v>
+        <v>277</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>492</v>
+        <v>407</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F388" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H388" s="0" t="s">
-        <v>492</v>
+        <v>280</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="0" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B390" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="C390" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="D390" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="E390" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="F390" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H390" s="0" t="s">
-        <v>498</v>
+        <v>280</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E391" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F391" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E392" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F392" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="E394" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F394" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H394" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="C391" s="0" t="s">
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E395" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F395" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H395" s="0" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E396" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F396" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H396" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E397" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F397" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E398" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F398" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C399" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="D391" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="E391" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="F391" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H391" s="0" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="0" t="s">
+      <c r="D399" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="E395" s="0" t="s">
+      <c r="E399" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F399" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H399" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="F395" s="0" t="s">
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="0" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="E396" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F396" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="E397" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F397" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="E399" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F399" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C400" s="0" t="s">
         <v>503</v>
       </c>
+      <c r="D400" s="0" t="s">
+        <v>500</v>
+      </c>
       <c r="E400" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F400" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H400" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="F400" s="0" t="s">
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E401" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F401" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E402" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F402" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H402" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="0" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="0" t="s">
+      <c r="C403" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D403" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="E401" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F401" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="E402" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F402" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="0" t="s">
+      <c r="E403" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F403" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H403" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C404" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="E403" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F403" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="0" t="s">
+      <c r="D404" s="0" t="s">
         <v>509</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F404" s="0" t="s">
-        <v>502</v>
+        <v>280</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="0" t="s">
+        <v>498</v>
+      </c>
       <c r="C405" s="0" t="s">
         <v>510</v>
       </c>
+      <c r="D405" s="0" t="s">
+        <v>511</v>
+      </c>
       <c r="E405" s="0" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F405" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H405" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="0" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C406" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D406" s="0" t="s">
         <v>511</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F406" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H406" s="0" t="s">
         <v>512</v>
-      </c>
-      <c r="E407" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F407" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="E408" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F408" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="E409" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F409" s="0" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C410" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F410" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C411" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E411" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C412" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F412" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="E413" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F413" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,846 +7185,857 @@
         <v>519</v>
       </c>
       <c r="E414" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F414" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C415" s="0" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F415" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C416" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F416" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C417" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E417" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F417" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C418" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F419" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F420" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C421" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F427" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E431" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F431" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F434" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="E490" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F490" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C491" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="E490" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F490" s="0" t="s">
-        <v>502</v>
+      <c r="E491" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F491" s="0" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8031,10 +8043,10 @@
         <v>596</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8042,241 +8054,230 @@
         <v>597</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C495" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="E495" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F495" s="0" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>504</v>
+        <v>608</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C506" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="E506" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F506" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>609</v>
+        <v>515</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="0" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="E510" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F510" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>500</v>
+        <v>616</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8284,10 +8285,10 @@
         <v>617</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8295,10 +8296,10 @@
         <v>618</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8306,54 +8307,54 @@
         <v>619</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>620</v>
+        <v>518</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="E522" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="E522" s="0" t="s">
-        <v>501</v>
-      </c>
       <c r="F522" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,10 +8362,10 @@
         <v>624</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8372,10 +8373,10 @@
         <v>625</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8383,10 +8384,10 @@
         <v>626</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,10 +8395,10 @@
         <v>627</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8405,10 +8406,10 @@
         <v>628</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8416,10 +8417,10 @@
         <v>629</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8427,792 +8428,239 @@
         <v>630</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>631</v>
+        <v>514</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="E531" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F531" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C532" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="E531" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F531" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="1047819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E532" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F532" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C533" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E533" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F533" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C534" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E534" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F534" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C535" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E535" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F535" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C536" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E536" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F536" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C537" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="E537" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F537" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C538" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E538" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F538" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C539" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="E539" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F539" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C540" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E540" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F540" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C541" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="E541" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F541" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C542" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E542" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F542" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C543" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="E543" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F543" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C544" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="E544" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F544" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C545" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E545" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F545" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C546" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="E546" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F546" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C548" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F548" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C549" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F549" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C550" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F550" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C551" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F551" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C552" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F552" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (210) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (211) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -2079,8 +2079,8 @@
   </sheetPr>
   <dimension ref="A1:H552"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B267" activeCellId="0" sqref="B267"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (211) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (212) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -2079,7 +2079,7 @@
   </sheetPr>
   <dimension ref="A1:H552"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A240" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E265"/>
     </sheetView>
   </sheetViews>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="652">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (212) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (215) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -1963,7 +1963,19 @@
     <t xml:space="preserve">landCoverFrac</t>
   </si>
   <si>
+    <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: expfe</t>
+  </si>
+  <si>
     <t xml:space="preserve">David Warlind, Raffaele Bernardello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: expsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: expcal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: PPPHY2</t>
   </si>
 </sst>
 </file>
@@ -2077,10 +2089,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H552"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A240" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E265"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E552" activeCellId="0" sqref="E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8625,42 +8637,63 @@
       <c r="C548" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="E548" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="F548" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="0" t="s">
         <v>141</v>
       </c>
+      <c r="E549" s="0" t="s">
+        <v>649</v>
+      </c>
       <c r="F549" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
         <v>139</v>
       </c>
+      <c r="E550" s="0" t="s">
+        <v>650</v>
+      </c>
       <c r="F550" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="0" t="s">
         <v>194</v>
       </c>
+      <c r="E551" s="0" t="s">
+        <v>651</v>
+      </c>
       <c r="F551" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="E552" s="0" t="s">
+        <v>651</v>
+      </c>
       <c r="F552" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (215) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (216) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -2091,8 +2091,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E552" activeCellId="0" sqref="E552"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="657">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -848,6 +848,21 @@
   </si>
   <si>
     <t xml:space="preserve">Available in PISCES: Alkalini in upper layer (Alkalini in simulation where ocean biogeochemistry sees preindustrial atmospheric pCO2 but radiative forcing sees historical+future atmospheric CO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wfcorr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in NEMO-OPA.  Torben: &lt;field field_ref="erp"    name="wfcorr"   long_name="water_flux_correction" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raffaele, Torben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfcorr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in NEMO-OPA.  Torben: &lt;field field_ref="qrp"     name="hfcorr"      long_name="heat_flux_correction"</t>
   </si>
   <si>
     <t xml:space="preserve">longitude latitude plev19 time</t>
@@ -2092,7 +2107,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E265"/>
+      <selection pane="topLeft" activeCell="A271" activeCellId="0" sqref="271:271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5041,60 +5056,48 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="0" t="s">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C269" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C276" s="0" t="s">
+      <c r="E269" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D276" s="0" t="s">
+      <c r="F269" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="E276" s="0" t="s">
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="F276" s="2" t="s">
+      <c r="E270" s="0" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="E277" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>280</v>
+      <c r="F270" s="0" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C278" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D278" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="D278" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="E278" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>286</v>
@@ -5103,117 +5106,117 @@
         <v>287</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F281" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C284" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="E284" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F284" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C285" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="D285" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="E285" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F285" s="0" t="s">
-        <v>280</v>
+      <c r="C286" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C288" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D288" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="E288" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F288" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>303</v>
@@ -5222,1861 +5225,1858 @@
         <v>304</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F305" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>410</v>
+        <v>282</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F354" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="0" t="s">
-        <v>437</v>
+        <v>305</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>287</v>
+        <v>439</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="0" t="s">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>440</v>
+        <v>291</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>441</v>
+        <v>292</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F365" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F366" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F367" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F370" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E374" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F374" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B376" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C376" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="D376" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="E376" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F376" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F377" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E378" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F378" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E380" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F380" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="0" t="s">
-        <v>475</v>
+        <v>296</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>287</v>
+        <v>479</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E383" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F383" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B384" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="C384" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D384" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E384" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F384" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>477</v>
+        <v>374</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>478</v>
+        <v>375</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>479</v>
+        <v>376</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>480</v>
+        <v>377</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>277</v>
+        <v>482</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>407</v>
+        <v>483</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F388" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F390" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="0" t="s">
-        <v>291</v>
+        <v>481</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="E391" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F391" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B392" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C392" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="D392" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="E392" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F392" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D393" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E393" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F393" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E394" s="0" t="s">
-        <v>487</v>
+        <v>284</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H394" s="0" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B395" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C395" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="D395" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="E395" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="F395" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H395" s="0" t="s">
-        <v>491</v>
+        <v>285</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C396" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E396" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="D396" s="0" t="s">
+      <c r="F396" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="H396" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="E396" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="F396" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H396" s="0" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D397" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="C397" s="0" t="s">
+      <c r="E397" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F397" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="H397" s="0" t="s">
         <v>496</v>
-      </c>
-      <c r="D397" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="E397" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="F397" s="0" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="0" t="s">
-        <v>495</v>
+        <v>296</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>497</v>
       </c>
       <c r="D398" s="0" t="s">
-        <v>282</v>
+        <v>498</v>
       </c>
       <c r="E398" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F398" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+      <c r="H398" s="0" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>500</v>
+        <v>283</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H399" s="0" t="s">
-        <v>501</v>
+        <v>285</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C400" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="C400" s="0" t="s">
-        <v>503</v>
-      </c>
       <c r="D400" s="0" t="s">
-        <v>500</v>
+        <v>287</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H400" s="0" t="s">
-        <v>501</v>
+        <v>285</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="0" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>504</v>
       </c>
       <c r="D401" s="0" t="s">
-        <v>284</v>
+        <v>505</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F401" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+      <c r="H401" s="0" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="0" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C402" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D402" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="D402" s="0" t="s">
-        <v>506</v>
-      </c>
       <c r="E402" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F402" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H402" s="0" t="s">
         <v>506</v>
@@ -7084,1612 +7084,1647 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D403" s="0" t="s">
-        <v>506</v>
+        <v>289</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F403" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H403" s="0" t="s">
-        <v>506</v>
+        <v>285</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="0" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F404" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+      <c r="H404" s="0" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="0" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>511</v>
       </c>
       <c r="E405" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F405" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H405" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C406" s="0" t="s">
         <v>513</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F406" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H406" s="0" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="E410" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B407" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C407" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="F410" s="0" t="s">
+      <c r="D407" s="0" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="0" t="s">
+      <c r="E407" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F407" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="H407" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="E411" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="F411" s="0" t="s">
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D408" s="0" t="s">
         <v>516</v>
+      </c>
+      <c r="E408" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F408" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="H408" s="0" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C412" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F412" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C413" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E413" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F413" s="0" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C414" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E414" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F414" s="0" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="E415" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="F415" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C416" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F416" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C417" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E417" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F417" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C418" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F419" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F420" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C421" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F427" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E431" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F431" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F434" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C506" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="E506" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F506" s="0" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C508" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="E508" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="F508" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="0" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C510" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E510" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F510" s="0" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="0" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C512" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="E512" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="F512" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="0" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>518</v>
+        <v>623</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>621</v>
+        <v>523</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>623</v>
+        <v>520</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>515</v>
+        <v>628</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>514</v>
+        <v>634</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>632</v>
+        <v>519</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C533" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F533" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="0" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F535" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="0" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F541" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="0" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C547" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="E547" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F547" s="0" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E548" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
+      </c>
+      <c r="E548" s="0" t="s">
+        <v>520</v>
       </c>
       <c r="F548" s="0" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C549" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E549" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="F549" s="0" t="s">
-        <v>648</v>
+        <v>521</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E550" s="0" t="s">
-        <v>650</v>
+        <v>140</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="F550" s="0" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="0" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E552" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="F552" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C553" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E553" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="F553" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C554" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="E552" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="F552" s="0" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E554" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="F554" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="658">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (216) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (224) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">masso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mfo</t>
   </si>
   <si>
     <t xml:space="preserve">mlotst</t>
@@ -2106,8 +2109,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A271" activeCellId="0" sqref="271:271"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F265" activeCellId="0" sqref="F265:F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5034,1765 +5037,1759 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="0" t="s">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C266" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="E267" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F267" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="E268" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="F268" s="0" t="s">
-        <v>273</v>
+      <c r="E266" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C269" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C270" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C271" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F271" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="E270" s="0" t="s">
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C272" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="F270" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="0" t="s">
+      <c r="E272" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C278" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="D278" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="E278" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="E279" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>285</v>
+      <c r="F272" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D282" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C281" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="E281" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>285</v>
+      <c r="E282" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D283" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C283" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D283" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="E283" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F283" s="0" t="s">
-        <v>285</v>
+        <v>285</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D285" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="C285" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D285" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="E285" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="E286" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F286" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C287" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D288" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="D287" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="E287" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F287" s="0" t="s">
-        <v>285</v>
+      <c r="E288" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C289" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D289" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="D289" s="0" t="s">
-        <v>304</v>
-      </c>
       <c r="E289" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="C290" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="D290" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="E290" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F290" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="0" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="0" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F305" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="0" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="0" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="0" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>282</v>
+        <v>409</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>415</v>
+        <v>283</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F354" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="0" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="0" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="0" t="s">
-        <v>442</v>
+        <v>306</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>291</v>
+        <v>439</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="0" t="s">
-        <v>305</v>
+        <v>443</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>445</v>
+        <v>292</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>446</v>
+        <v>293</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F365" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F366" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F367" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F370" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E374" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C375" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E375" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F375" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D376" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="D375" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="E375" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F375" s="0" t="s">
-        <v>285</v>
+      <c r="E376" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F376" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C377" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D377" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="D377" s="0" t="s">
-        <v>474</v>
-      </c>
       <c r="E377" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F377" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B378" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="C378" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="D378" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="E378" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F378" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C380" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D380" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="D380" s="0" t="s">
-        <v>478</v>
-      </c>
       <c r="E380" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F380" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="D381" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E381" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F381" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D382" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="E381" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F381" s="0" t="s">
-        <v>285</v>
+      <c r="E382" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F382" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D383" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="C383" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D383" s="0" t="s">
-        <v>292</v>
-      </c>
       <c r="E383" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F383" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6800,433 +6797,439 @@
         <v>481</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B386" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C386" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="D386" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E386" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F386" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>376</v>
+        <v>289</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>482</v>
+        <v>375</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>483</v>
+        <v>376</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F388" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>484</v>
+        <v>377</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>485</v>
+        <v>378</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>282</v>
+        <v>483</v>
       </c>
       <c r="D390" s="0" t="s">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="E390" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="E391" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F391" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E392" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F392" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="0" t="s">
-        <v>296</v>
+        <v>482</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="D393" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E393" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F393" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C395" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="E393" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F393" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B394" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="C394" s="0" t="s">
+      <c r="D395" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="D394" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="E394" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F394" s="0" t="s">
-        <v>285</v>
+      <c r="E395" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F395" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C396" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D396" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="D396" s="0" t="s">
-        <v>491</v>
-      </c>
       <c r="E396" s="0" t="s">
-        <v>492</v>
+        <v>285</v>
       </c>
       <c r="F396" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H396" s="0" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B397" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="C397" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="D397" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="E397" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="F397" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H397" s="0" t="s">
-        <v>496</v>
+        <v>286</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D398" s="0" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E398" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F398" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>500</v>
+        <v>297</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="H399" s="0" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E400" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F400" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="H400" s="0" t="s">
         <v>500</v>
-      </c>
-      <c r="C400" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="D400" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="E400" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="F400" s="0" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D401" s="0" t="s">
-        <v>505</v>
+        <v>284</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F401" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H401" s="0" t="s">
-        <v>506</v>
+        <v>286</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="0" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>505</v>
+        <v>288</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F402" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H402" s="0" t="s">
-        <v>506</v>
+        <v>286</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D403" s="0" t="s">
-        <v>289</v>
+        <v>506</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F403" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="H403" s="0" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="0" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F404" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H404" s="0" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="0" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>511</v>
+        <v>290</v>
       </c>
       <c r="E405" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F405" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H405" s="0" t="s">
-        <v>511</v>
+        <v>286</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F406" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="H406" s="0" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="0" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F407" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H407" s="0" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="0" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C408" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E408" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F408" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E409" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F409" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="H409" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="D408" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="E408" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="F408" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H408" s="0" t="s">
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D410" s="0" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="E412" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F412" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="E413" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F413" s="0" t="s">
-        <v>521</v>
+      <c r="E410" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F410" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="H410" s="0" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C414" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F414" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C415" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="E414" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F414" s="0" t="s">
-        <v>521</v>
+      <c r="E415" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F415" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7234,21 +7237,10 @@
         <v>524</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F416" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="E417" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F417" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7256,989 +7248,1000 @@
         <v>525</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="0" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F419" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F420" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C421" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F427" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E431" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F431" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F434" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="E507" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F507" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C508" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="E507" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F507" s="0" t="s">
-        <v>521</v>
+      <c r="E508" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F508" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8246,131 +8249,120 @@
         <v>615</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="E510" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F510" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="0" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C512" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="E512" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F512" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C514" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="E514" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F514" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>523</v>
+        <v>624</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,120 +8370,120 @@
         <v>625</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>626</v>
+        <v>524</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="0" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>628</v>
+        <v>521</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="0" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>520</v>
+        <v>629</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>519</v>
+        <v>635</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8499,234 +8491,254 @@
         <v>636</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F533" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="0" t="s">
-        <v>637</v>
+        <v>520</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F535" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F541" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="E548" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F548" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C549" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="E548" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F548" s="0" t="s">
-        <v>521</v>
+      <c r="E549" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F549" s="0" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E550" s="2" t="s">
         <v>652</v>
       </c>
+      <c r="E550" s="0" t="s">
+        <v>521</v>
+      </c>
       <c r="F550" s="0" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C551" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E551" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="F551" s="0" t="s">
-        <v>653</v>
+        <v>522</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E552" s="0" t="s">
-        <v>655</v>
+        <v>141</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="F552" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="0" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="0" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="E554" s="0" t="s">
         <v>656</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C555" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E555" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="F555" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C556" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E556" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="F556" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (224) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (235) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -2109,8 +2109,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F265" activeCellId="0" sqref="F265:F266"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="661">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (235) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (236) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -643,6 +643,9 @@
     <t xml:space="preserve">siage</t>
   </si>
   <si>
+    <t xml:space="preserve">siareaacrossline</t>
+  </si>
+  <si>
     <t xml:space="preserve">siarean</t>
   </si>
   <si>
@@ -754,6 +757,9 @@
     <t xml:space="preserve">simass</t>
   </si>
   <si>
+    <t xml:space="preserve">simassacrossline</t>
+  </si>
+  <si>
     <t xml:space="preserve">sisali</t>
   </si>
   <si>
@@ -836,6 +842,9 @@
   </si>
   <si>
     <t xml:space="preserve">sndmasssubl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snmassacrossline</t>
   </si>
   <si>
     <t xml:space="preserve">dissicnatos</t>
@@ -2107,10 +2116,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H560"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E266"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F266" activeCellId="0" sqref="F266:F269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5048,167 +5057,149 @@
         <v>8</v>
       </c>
     </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C267" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C268" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C269" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="E270" s="0" t="s">
+      <c r="E273" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="F270" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="0" t="s">
+      <c r="F273" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="E271" s="0" t="s">
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="F271" s="0" t="s">
+      <c r="E274" s="0" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="0" t="s">
+      <c r="F274" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E272" s="0" t="s">
+      <c r="E275" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="F272" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="0" t="s">
+      <c r="F275" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C280" s="0" t="s">
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C276" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="D280" s="0" t="s">
+      <c r="E276" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="E280" s="0" t="s">
+      <c r="F276" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F280" s="2" t="s">
+      <c r="C284" s="0" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C281" s="0" t="s">
+      <c r="D284" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="D281" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="E281" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C282" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E282" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C283" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="D283" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="E283" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>286</v>
+      <c r="E284" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="0" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E285" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F285" s="0" t="s">
-        <v>286</v>
+      <c r="C286" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="0" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F287" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C288" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="D288" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="E288" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F288" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,1901 +5207,1878 @@
         <v>297</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="C294" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="D294" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="E294" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F294" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F305" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>283</v>
+        <v>408</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>420</v>
+        <v>286</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F354" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="0" t="s">
-        <v>443</v>
+        <v>300</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>292</v>
+        <v>438</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>293</v>
+        <v>439</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F365" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="0" t="s">
-        <v>297</v>
+        <v>446</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>450</v>
+        <v>295</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>451</v>
+        <v>296</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F366" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F367" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F370" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E374" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E376" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F377" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E378" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F378" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E380" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F380" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B382" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C382" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="D382" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="E382" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F382" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D383" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E383" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F383" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D384" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="E383" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F383" s="0" t="s">
-        <v>286</v>
+      <c r="E384" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F384" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="E385" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F385" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C386" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C385" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="D385" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="E385" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F385" s="0" t="s">
-        <v>286</v>
+      <c r="D386" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E386" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F386" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="0" t="s">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>289</v>
+        <v>453</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>319</v>
+        <v>483</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B388" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="C388" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="D388" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="E388" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F388" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>377</v>
+        <v>295</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B390" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="C390" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="D390" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="E390" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F390" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>485</v>
+        <v>292</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>486</v>
+        <v>322</v>
       </c>
       <c r="E391" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F391" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>283</v>
+        <v>378</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="E392" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="E393" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E394" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F394" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="0" t="s">
-        <v>297</v>
+        <v>485</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="0" t="s">
-        <v>297</v>
+        <v>485</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>489</v>
+        <v>286</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F396" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B398" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C398" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="D398" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="E398" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="F398" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="H398" s="0" t="s">
-        <v>494</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E397" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F397" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>493</v>
+        <v>288</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="H399" s="0" t="s">
-        <v>497</v>
+        <v>289</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>493</v>
+        <v>288</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="H400" s="0" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="C401" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="D401" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="E401" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="F401" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="0" t="s">
-        <v>501</v>
+        <v>300</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>288</v>
+        <v>495</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F402" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="H402" s="0" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="0" t="s">
-        <v>504</v>
+        <v>300</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D403" s="0" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F403" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H403" s="0" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="0" t="s">
-        <v>508</v>
+        <v>300</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F404" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H404" s="0" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E405" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F405" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7118,56 +7086,56 @@
         <v>504</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>512</v>
+        <v>291</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F406" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="H406" s="0" t="s">
-        <v>512</v>
+        <v>289</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C407" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="C407" s="0" t="s">
-        <v>513</v>
-      </c>
       <c r="D407" s="0" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F407" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H407" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="0" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E408" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="H408" s="0" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,116 +7143,146 @@
         <v>504</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D409" s="0" t="s">
-        <v>517</v>
+        <v>293</v>
       </c>
       <c r="E409" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F409" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="H409" s="0" t="s">
-        <v>518</v>
+        <v>289</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C410" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E410" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F410" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="H410" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E411" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F411" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="H411" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E412" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F412" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B413" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C413" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="D410" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="E410" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="F410" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="H410" s="0" t="s">
-        <v>518</v>
+      <c r="D413" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="E413" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F413" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="H413" s="0" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B414" s="0" t="s">
+        <v>511</v>
+      </c>
       <c r="C414" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D414" s="0" t="s">
         <v>520</v>
       </c>
       <c r="E414" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F414" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="H414" s="0" t="s">
         <v>521</v>
-      </c>
-      <c r="F414" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="E415" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="F415" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="E416" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="F416" s="0" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C418" s="0" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F419" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F420" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="E421" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="F421" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7292,967 +7290,978 @@
         <v>528</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="0" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F427" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E431" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F431" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F434" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="0" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="E509" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F509" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C510" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="E509" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="F509" s="0" t="s">
-        <v>522</v>
+      <c r="E510" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F510" s="0" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8260,10 +8269,10 @@
         <v>616</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8271,120 +8280,109 @@
         <v>617</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C518" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="E518" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="F518" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>524</v>
+        <v>625</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8392,10 +8390,10 @@
         <v>626</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,10 +8401,10 @@
         <v>627</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,98 +8412,98 @@
         <v>628</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>629</v>
+        <v>524</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>630</v>
+        <v>527</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="0" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C533" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F533" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="0" t="s">
-        <v>520</v>
+        <v>636</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8513,10 +8511,10 @@
         <v>637</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F535" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8524,10 +8522,10 @@
         <v>638</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8535,212 +8533,254 @@
         <v>639</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="0" t="s">
-        <v>640</v>
+        <v>523</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F541" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F548" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="E550" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F550" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C551" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="E550" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="F550" s="0" t="s">
-        <v>522</v>
+      <c r="E551" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F551" s="0" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E552" s="2" t="s">
         <v>653</v>
       </c>
+      <c r="E552" s="0" t="s">
+        <v>524</v>
+      </c>
       <c r="F552" s="0" t="s">
-        <v>654</v>
+        <v>525</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="0" t="s">
-        <v>142</v>
+        <v>654</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>655</v>
+        <v>524</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>654</v>
+        <v>525</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="0" t="s">
-        <v>140</v>
+        <v>655</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>656</v>
+        <v>524</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C555" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="E555" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="F555" s="0" t="s">
-        <v>654</v>
+        <v>525</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F556" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C557" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E557" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="F557" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C558" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E558" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="F558" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C559" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E559" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="F559" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C560" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E556" s="0" t="s">
+      <c r="E560" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="F560" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="F556" s="0" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="692">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -1597,7 +1597,7 @@
     <t xml:space="preserve">Available in LPJ-GUESS, will be cmorized by Peter Anthoni &amp; Lars Nieradzik</t>
   </si>
   <si>
-    <t xml:space="preserve">David Warlind</t>
+    <t xml:space="preserve">David Wårlind</t>
   </si>
   <si>
     <t xml:space="preserve">mrsol</t>
@@ -1990,10 +1990,22 @@
     <t xml:space="preserve">landCoverFrac</t>
   </si>
   <si>
+    <t xml:space="preserve">cSoilLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cVegLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cLitterLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cProductLut</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: expfe</t>
   </si>
   <si>
-    <t xml:space="preserve">David Warlind, Raffaele Bernardello</t>
+    <t xml:space="preserve">David Wårlind, Raffaele Bernardello</t>
   </si>
   <si>
     <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: expsi</t>
@@ -2003,6 +2015,87 @@
   </si>
   <si>
     <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: PPPHY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SImon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siflswdtop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable qsr_ice (solar heat flux at ice surface, W/m²),     &lt;field id="qsr_ice"   long_name="solar heat flux at ice surface: sum over categories"    standard_name="surface_downwelling_shortwave_flux_in_air"    unit="W/m2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Docquier, Torben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areacellg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in PISM. This is the ice sheet mask (in fraction) defined in the ice sheet model grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large-scale precipitation (rain+snow) + Convective precipitation (rain+snow) - Snowfall: grib 128.142 + 128.143 - 128.144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuting, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrroLi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFS Surface runoff grib 128.8 but for EC_Earth-GrIs additional melt etc is included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP: ISCCP total cloud area, CVEXTRA(5)='94 ISCCP_TOTALCLDAREA'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP: ISCCP cloud albedo, CVEXTRA(7)='96 ISCCP_MEANALBEDOCLD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pctisccp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP: ISCCP cloud top pressure, CVEXTRA(6)='95 ISCCP_MEANPTOP'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP: CALIPSO total cloud cover, CVEXTRA(4)='93 CALIPSO_CLDLAYER TOTAL'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cllcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP: CALIPSO low cloud cover, CVEXTRA(1)='90 CALIPSO_CLDLAYER LOW'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clmcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP: CALIPSO mid cloud cover, CVEXTRA(2)='91 CALIPSO_CLDLAYER MID'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clhcalipso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSP: CALIPSO high cloud cover, CVEXTRA(3)='92 CALIPSO_CLDLAYER HIGH'</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2043,13 +2136,39 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2086,7 +2205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2096,6 +2215,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2116,10 +2247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H560"/>
+  <dimension ref="A1:H584"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A245" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F266" activeCellId="0" sqref="F266:F269"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B547" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I568" activeCellId="0" sqref="I568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8728,57 +8859,227 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E556" s="2" t="s">
         <v>656</v>
       </c>
+      <c r="E556" s="0" t="s">
+        <v>524</v>
+      </c>
       <c r="F556" s="0" t="s">
-        <v>657</v>
+        <v>525</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="0" t="s">
-        <v>142</v>
+        <v>657</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>658</v>
+        <v>524</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>657</v>
+        <v>525</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="0" t="s">
-        <v>140</v>
+        <v>658</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>659</v>
+        <v>524</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>657</v>
+        <v>525</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="E559" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F559" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C562" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F562" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C563" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E563" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="F563" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C564" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E564" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F564" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C565" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="E559" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="F559" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C560" s="0" t="s">
+      <c r="E565" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="F565" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C566" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E560" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="F560" s="0" t="s">
-        <v>657</v>
+      <c r="E566" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="F566" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="568" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G568" s="3"/>
+      <c r="H568" s="3"/>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C570" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F570" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C571" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F571" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C572" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F572" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C578" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C579" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="E579" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F579" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C580" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="E580" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C581" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C582" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C583" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C584" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="707">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -1513,27 +1513,18 @@
     <t xml:space="preserve">Not available in the AOGCM, but will be added by Tommi  in the ESM in TM5 with its cmor name.</t>
   </si>
   <si>
-    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
-  </si>
-  <si>
     <t xml:space="preserve">fco2fos</t>
   </si>
   <si>
     <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Fossil Fuel Emissions of CO2</t>
   </si>
   <si>
-    <t xml:space="preserve">This is the prescribed anthropogenic CO2 flux from fossil fuel use, including cement production, and flaring (but not from land-use changes, agricultural burning, forest regrowth, etc.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">fco2nat</t>
   </si>
   <si>
     <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
   </si>
   <si>
-    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">longitude latitude plev19 time2</t>
   </si>
   <si>
@@ -1552,9 +1543,6 @@
     <t xml:space="preserve">Total Atmospheric Mass of CO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Total atmospheric mass of Carbon Dioxide</t>
-  </si>
-  <si>
     <t xml:space="preserve">time2</t>
   </si>
   <si>
@@ -1585,10 +1573,67 @@
     <t xml:space="preserve">Global Mean Mole Fraction of N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">Global mean Nitrous Oxide (N2O)</t>
-  </si>
-  <si>
     <t xml:space="preserve">n2oglobalClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AERmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossch4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in TM5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan &amp; Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pod0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in TM5??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flashrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in TM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depdust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sedustCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od443dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in TM5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od865dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loaddust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concdust</t>
   </si>
   <si>
     <t xml:space="preserve">lai</t>
@@ -2247,10 +2292,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H584"/>
+  <dimension ref="A1:H599"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B547" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I568" activeCellId="0" sqref="I568"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A400" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H402" activeCellId="0" sqref="H402:H414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7151,28 +7196,22 @@
       <c r="F402" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="H402" s="0" t="s">
-        <v>497</v>
-      </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="0" t="s">
         <v>300</v>
       </c>
       <c r="C403" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D403" s="0" t="s">
         <v>498</v>
-      </c>
-      <c r="D403" s="0" t="s">
-        <v>499</v>
       </c>
       <c r="E403" s="0" t="s">
         <v>496</v>
       </c>
       <c r="F403" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="H403" s="0" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7180,10 +7219,10 @@
         <v>300</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E404" s="0" t="s">
         <v>496</v>
@@ -7191,16 +7230,13 @@
       <c r="F404" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="H404" s="0" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="0" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>287</v>
@@ -7214,10 +7250,10 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="0" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>291</v>
@@ -7231,13 +7267,13 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="0" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E407" s="0" t="s">
         <v>496</v>
@@ -7245,19 +7281,16 @@
       <c r="F407" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="H407" s="0" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="0" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E408" s="0" t="s">
         <v>496</v>
@@ -7265,16 +7298,13 @@
       <c r="F408" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="H408" s="0" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="0" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>293</v>
@@ -7288,13 +7318,13 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="0" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E410" s="0" t="s">
         <v>496</v>
@@ -7302,19 +7332,16 @@
       <c r="F410" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="H410" s="0" t="s">
-        <v>515</v>
-      </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D411" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="C411" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="D411" s="0" t="s">
-        <v>515</v>
       </c>
       <c r="E411" s="0" t="s">
         <v>496</v>
@@ -7322,19 +7349,16 @@
       <c r="F411" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="H411" s="0" t="s">
-        <v>515</v>
-      </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="0" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E412" s="0" t="s">
         <v>496</v>
@@ -7345,13 +7369,13 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="0" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E413" s="0" t="s">
         <v>496</v>
@@ -7359,19 +7383,16 @@
       <c r="F413" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="H413" s="0" t="s">
-        <v>521</v>
-      </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="0" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>496</v>
@@ -7379,162 +7400,187 @@
       <c r="F414" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="H414" s="0" t="s">
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E416" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F416" s="0" t="s">
         <v>521</v>
       </c>
     </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F417" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>518</v>
+      </c>
       <c r="C418" s="0" t="s">
         <v>523</v>
       </c>
       <c r="E418" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F418" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C419" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="F418" s="0" t="s">
+      <c r="E419" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F419" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C420" s="0" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="0" t="s">
+      <c r="E420" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="E419" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F419" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="0" t="s">
+      <c r="F420" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="E420" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F420" s="0" t="s">
-        <v>525</v>
+      <c r="C421" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="E421" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F421" s="0" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>527</v>
+      </c>
       <c r="C422" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>527</v>
+      </c>
       <c r="C423" s="0" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>527</v>
+      </c>
       <c r="C424" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="E424" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="E424" s="0" t="s">
-        <v>524</v>
-      </c>
       <c r="F424" s="0" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>527</v>
+      </c>
       <c r="C425" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>527</v>
+      </c>
       <c r="C426" s="0" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>527</v>
+      </c>
       <c r="C427" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F427" s="0" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>527</v>
+      </c>
       <c r="C428" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="E429" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F429" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E430" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F430" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="E431" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F431" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E432" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F432" s="0" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7542,65 +7588,54 @@
         <v>538</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F434" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="E436" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F436" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7608,10 +7643,10 @@
         <v>544</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7619,10 +7654,10 @@
         <v>545</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,10 +7665,10 @@
         <v>546</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7641,10 +7676,10 @@
         <v>547</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7652,10 +7687,10 @@
         <v>548</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7663,10 +7698,10 @@
         <v>549</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7674,10 +7709,10 @@
         <v>550</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,10 +7720,10 @@
         <v>551</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7696,10 +7731,10 @@
         <v>552</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7707,10 +7742,10 @@
         <v>553</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7718,10 +7753,10 @@
         <v>554</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,10 +7764,10 @@
         <v>555</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7740,10 +7775,10 @@
         <v>556</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,10 +7786,10 @@
         <v>557</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7762,10 +7797,10 @@
         <v>558</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7773,10 +7808,10 @@
         <v>559</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7784,10 +7819,10 @@
         <v>560</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7795,10 +7830,10 @@
         <v>561</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7806,10 +7841,10 @@
         <v>562</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,10 +7852,10 @@
         <v>563</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7828,10 +7863,10 @@
         <v>564</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7839,10 +7874,10 @@
         <v>565</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7850,10 +7885,10 @@
         <v>566</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,10 +7896,10 @@
         <v>567</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7872,10 +7907,10 @@
         <v>568</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7883,10 +7918,10 @@
         <v>569</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7894,10 +7929,10 @@
         <v>570</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7905,10 +7940,10 @@
         <v>571</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7916,10 +7951,10 @@
         <v>572</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7927,10 +7962,10 @@
         <v>573</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7938,10 +7973,10 @@
         <v>574</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,10 +7984,10 @@
         <v>575</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7960,10 +7995,10 @@
         <v>576</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7971,10 +8006,10 @@
         <v>577</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7982,10 +8017,10 @@
         <v>578</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7993,10 +8028,10 @@
         <v>579</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,10 +8039,10 @@
         <v>580</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8015,10 +8050,10 @@
         <v>581</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8026,10 +8061,10 @@
         <v>582</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8037,10 +8072,10 @@
         <v>583</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8048,10 +8083,10 @@
         <v>584</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8059,10 +8094,10 @@
         <v>585</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8070,10 +8105,10 @@
         <v>586</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8081,10 +8116,10 @@
         <v>587</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8092,10 +8127,10 @@
         <v>588</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8103,10 +8138,10 @@
         <v>589</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8114,10 +8149,10 @@
         <v>590</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8125,10 +8160,10 @@
         <v>591</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8136,10 +8171,10 @@
         <v>592</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8147,10 +8182,10 @@
         <v>593</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8158,10 +8193,10 @@
         <v>594</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8169,10 +8204,10 @@
         <v>595</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8180,10 +8215,10 @@
         <v>596</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,10 +8226,10 @@
         <v>597</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8202,10 +8237,10 @@
         <v>598</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8213,10 +8248,10 @@
         <v>599</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,10 +8259,10 @@
         <v>600</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8235,10 +8270,10 @@
         <v>601</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8246,10 +8281,10 @@
         <v>602</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,10 +8292,10 @@
         <v>603</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8268,10 +8303,10 @@
         <v>604</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8279,10 +8314,10 @@
         <v>605</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8290,10 +8325,10 @@
         <v>606</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,10 +8336,10 @@
         <v>607</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8312,10 +8347,10 @@
         <v>608</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8323,10 +8358,10 @@
         <v>609</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8334,10 +8369,10 @@
         <v>610</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8345,10 +8380,10 @@
         <v>611</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8356,10 +8391,10 @@
         <v>612</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8367,10 +8402,10 @@
         <v>613</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,10 +8413,10 @@
         <v>614</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,10 +8424,10 @@
         <v>615</v>
       </c>
       <c r="E510" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,10 +8435,10 @@
         <v>616</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8411,10 +8446,10 @@
         <v>617</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8422,208 +8457,208 @@
         <v>618</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C514" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E514" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F514" s="0" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C518" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="E518" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F518" s="0" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>527</v>
+        <v>632</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C529" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="E529" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F529" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>632</v>
+        <v>539</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="E533" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F533" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8631,10 +8666,10 @@
         <v>636</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8642,10 +8677,10 @@
         <v>637</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F535" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8653,10 +8688,10 @@
         <v>638</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8664,65 +8699,65 @@
         <v>639</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="0" t="s">
-        <v>523</v>
+        <v>640</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F541" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>643</v>
+        <v>542</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8730,10 +8765,10 @@
         <v>644</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8741,10 +8776,10 @@
         <v>645</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,98 +8787,98 @@
         <v>646</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>524</v>
+        <v>647</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F548" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F550" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F552" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="0" t="s">
-        <v>654</v>
+        <v>538</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8851,235 +8886,400 @@
         <v>655</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C555" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="E555" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F555" s="0" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F556" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F559" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C560" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E560" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F560" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C561" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="E561" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F561" s="0" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E562" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
+      </c>
+      <c r="E562" s="0" t="s">
+        <v>539</v>
       </c>
       <c r="F562" s="0" t="s">
-        <v>661</v>
+        <v>540</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="0" t="s">
-        <v>142</v>
+        <v>664</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>662</v>
+        <v>539</v>
       </c>
       <c r="F563" s="0" t="s">
-        <v>661</v>
+        <v>540</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="0" t="s">
-        <v>140</v>
+        <v>665</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>663</v>
+        <v>539</v>
       </c>
       <c r="F564" s="0" t="s">
-        <v>661</v>
+        <v>540</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="0" t="s">
-        <v>195</v>
+        <v>666</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>664</v>
+        <v>539</v>
       </c>
       <c r="F565" s="0" t="s">
-        <v>661</v>
+        <v>540</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="0" t="s">
-        <v>196</v>
+        <v>667</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>664</v>
+        <v>539</v>
       </c>
       <c r="F566" s="0" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="568" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="C568" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E568" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F568" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C567" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="G568" s="3"/>
-      <c r="H568" s="3"/>
-    </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C570" s="2" t="s">
+      <c r="E567" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F567" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C568" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="E570" s="3" t="s">
+      <c r="E568" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F568" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C569" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="F570" s="4" t="s">
-        <v>671</v>
+      <c r="E569" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F569" s="0" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="E571" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F571" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
+      </c>
+      <c r="E571" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F571" s="0" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="E572" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F572" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C573" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="E573" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F573" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C574" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="E574" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F574" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C577" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E577" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E572" s="3" t="s">
+      <c r="F577" s="0" t="s">
         <v>676</v>
-      </c>
-      <c r="F572" s="4" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E578" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="E578" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F578" s="3" t="s">
-        <v>679</v>
+      <c r="F578" s="0" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="E579" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="F579" s="3" t="s">
-        <v>679</v>
+        <v>140</v>
+      </c>
+      <c r="E579" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="F579" s="0" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="E580" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="F580" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E580" s="0" t="s">
         <v>679</v>
+      </c>
+      <c r="F580" s="0" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E581" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="F581" s="0" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="583" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="G583" s="3"/>
+      <c r="H583" s="3"/>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C585" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="E581" s="3" t="s">
+      <c r="E585" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="F581" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C582" s="0" t="s">
+      <c r="F585" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="E582" s="3" t="s">
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C586" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="F582" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C583" s="0" t="s">
+      <c r="E586" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="E583" s="3" t="s">
+      <c r="F586" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="F583" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C584" s="0" t="s">
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C587" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="E584" s="3" t="s">
+      <c r="E587" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F584" s="3" t="s">
-        <v>679</v>
+      <c r="F587" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C593" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="E594" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="E595" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C596" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C598" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C599" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="725">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -2045,6 +2045,60 @@
   </si>
   <si>
     <t xml:space="preserve">cProductLut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrsll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, but the field will be the same as mrsol because: No frozen fraction of water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netAtmosLandCO2Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, but the field will be the same as nbp in Lmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, but the field will be the same as fFireNat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fHarvest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, but the field will be the same as fHarvestToAtmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cCwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, but the field will be the same as cLitterCwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rGrowth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, but the field will be the same as raOther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rMaint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, but the field will be the same as r*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prCrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, but the field will be the same precipitation over crops as for the rest of the gridcell. Available in LPJ-GUESS, but the field will be the same precipitation over crops as for the rest of the gridcell.</t>
   </si>
   <si>
     <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: expfe</t>
@@ -2150,7 +2204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2184,6 +2238,13 @@
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="&quot;normal arial&quot;"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -2250,7 +2311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2275,6 +2336,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2292,10 +2357,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H599"/>
+  <dimension ref="A1:H609"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A400" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H402" activeCellId="0" sqref="H402:H414"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B562" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B585" activeCellId="0" sqref="B585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9101,185 +9166,289 @@
         <v>540</v>
       </c>
     </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C576" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="E576" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F576" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E577" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
+      </c>
+      <c r="E577" s="0" t="s">
+        <v>678</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>676</v>
+        <v>540</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="0" t="s">
-        <v>142</v>
+        <v>679</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>676</v>
+        <v>540</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="0" t="s">
-        <v>140</v>
+        <v>680</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>676</v>
+        <v>540</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="0" t="s">
-        <v>195</v>
+        <v>682</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F580" s="0" t="s">
-        <v>676</v>
+        <v>540</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="0" t="s">
-        <v>196</v>
+        <v>684</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="583" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E583" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F583" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="G583" s="3"/>
-      <c r="H583" s="3"/>
-    </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C585" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="E585" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="F585" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C582" s="0" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C586" s="0" t="s">
+      <c r="E582" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="E586" s="3" t="s">
+      <c r="F582" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C583" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="F586" s="4" t="s">
+      <c r="E583" s="0" t="s">
         <v>689</v>
       </c>
+      <c r="F583" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C584" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F584" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="G584" s="3"/>
+      <c r="H584" s="4"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C587" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="E587" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="F587" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="0" t="s">
-        <v>692</v>
+        <v>141</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F587" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C588" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E588" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="F588" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C589" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E589" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="F589" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C590" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E590" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="F590" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C591" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E591" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="F591" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="593" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="E594" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="F594" s="3" t="s">
-        <v>694</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="G593" s="3"/>
+      <c r="H593" s="3"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="E595" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="F595" s="3" t="s">
-        <v>694</v>
+      <c r="C595" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F595" s="5" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C596" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E596" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="F596" s="3" t="s">
-        <v>694</v>
+        <v>706</v>
+      </c>
+      <c r="F596" s="5" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C597" s="0" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="E597" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="F597" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="E598" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="F598" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="E599" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="F599" s="3" t="s">
-        <v>694</v>
+        <v>709</v>
+      </c>
+      <c r="F597" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C603" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C604" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="E604" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C605" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="E605" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C606" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C607" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C608" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C609" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (236) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (238) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -2359,8 +2359,8 @@
   </sheetPr>
   <dimension ref="A1:H609"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B562" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B585" activeCellId="0" sqref="B585"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B236" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="752">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -1636,6 +1636,12 @@
     <t xml:space="preserve">concdust</t>
   </si>
   <si>
+    <t xml:space="preserve">od550aerso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determined by CMIP6 stratospheric aerosol forcing data set</t>
+  </si>
+  <si>
     <t xml:space="preserve">lai</t>
   </si>
   <si>
@@ -2195,6 +2201,81 @@
   </si>
   <si>
     <t xml:space="preserve">COSP: CALIPSO high cloud cover, CVEXTRA(3)='92 CALIPSO_CLDLAYER HIGH'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3hrPt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the IFS code we found: A CALL TO SUBROUTINE *SOLANG* GIVES FIELDS OF SOLAR ZENITH. Best would be to copy the IFS routine/formula to ece2cmor3 and produce this field off-line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs &amp; Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauupbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: Eastward turbulent surface stress: grib 128.180 maybe the Eastward gravity wave surface stress grib 128.195 has to be added. This needs to be checked with ECMWF people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauvpbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: Northward turbulent surface stress: grib 128.181 maybe the Northward gravity wave surface stress grib 128.196 has to be added. This needs to be checked with ECMWF people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availlable in IFS: Precip. flux from convection liquid grib 128.107, this is a 3D field so the surface field has to be extracted from this. So only level 91 needs to be outputted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prhmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaialbe in IFS by postprocessing hourly data into maximum for the month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uqint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS, via postprocessing the vertical integral can be taken of the following grib 128.131 * 128.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vqint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS, via postprocessing the vertical integral can be taken of the following grib 128.132 * 128.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intuaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the Specific humidity (grib 128.133 + unit conversion) can be multiplied by the U component of wind (grib 128.131) and this needs to be vertically integrated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intvaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the Specific humidity (grib 128.133 + unit conversion) can be multiplied by the V component of wind (grib 128.132) and this needs to be vertically integrated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intuadse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the specific heat capacity of dry air (1005.7 J kg-1 K-1) can be multiplied by the Temperature (grib 128.130) times the V component of wind (grib 128.132) + the geopotential height  (grib 128.129) and this needs to be vertically integrated times the air density per layer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intvadse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the standard IFS output. However, per layer the specific heat capacity of dry air (1005.7 J kg-1 K-1) can be multiplied by the Temperature (grib 128.130) times the U component of wind (grib 128.131) + the geopotential height  (grib 128.129) and this needs to be vertically integrated times the air density per layer.</t>
   </si>
 </sst>
 </file>
@@ -2204,7 +2285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2262,6 +2343,27 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF007FFF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF007FFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2311,7 +2413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2340,6 +2442,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2349,6 +2463,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF007FFF"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2357,10 +2531,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H609"/>
+  <dimension ref="A1:H624"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B236" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E269"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A593" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C616" activeCellId="0" sqref="C616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7648,1624 +7822,1640 @@
         <v>521</v>
       </c>
     </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G430" s="3"/>
+      <c r="H430" s="3"/>
+    </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F434" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E510" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F535" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F541" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F548" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F550" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F552" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F555" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F556" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F559" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F560" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F561" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F562" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F563" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F564" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F565" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F566" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F571" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F572" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F573" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C574" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F574" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F580" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C584" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E584" s="3" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G584" s="3"/>
       <c r="H584" s="4"/>
@@ -9275,10 +9465,10 @@
         <v>141</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F587" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9286,10 +9476,10 @@
         <v>142</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,10 +9487,10 @@
         <v>140</v>
       </c>
       <c r="E589" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="F589" s="0" t="s">
         <v>696</v>
-      </c>
-      <c r="F589" s="0" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9308,10 +9498,10 @@
         <v>195</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9319,137 +9509,313 @@
         <v>196</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F591" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="593" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G593" s="3"/>
       <c r="H593" s="3"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C595" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E595" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F595" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C596" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E596" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F596" s="5" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C597" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E597" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F597" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="F597" s="5" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C603" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E603" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F603" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C604" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E604" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="F604" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="F604" s="3" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C605" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E605" s="6" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F605" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C606" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E606" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F606" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C607" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E607" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F607" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C608" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E608" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F608" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C609" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E609" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F609" s="3" t="s">
-        <v>712</v>
-      </c>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="C614" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E614" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="F614" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G614" s="7"/>
+      <c r="H614" s="5"/>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="C615" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E615" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="F615" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G615" s="7"/>
+      <c r="H615" s="5"/>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="C616" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="E616" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="F616" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G616" s="7"/>
+      <c r="H616" s="5"/>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="C617" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="E617" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="F617" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G617" s="7"/>
+      <c r="H617" s="3"/>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C618" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="E618" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F618" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G618" s="7"/>
+      <c r="H618" s="3"/>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C619" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="E619" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="F619" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G619" s="7"/>
+      <c r="H619" s="5"/>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C620" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E620" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F620" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G620" s="7"/>
+      <c r="H620" s="5"/>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C621" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="E621" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="F621" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G621" s="7"/>
+      <c r="H621" s="3"/>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C622" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="E622" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="F622" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G622" s="7"/>
+      <c r="H622" s="3"/>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C623" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E623" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="F623" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G623" s="9"/>
+      <c r="H623" s="3"/>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C624" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="E624" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G624" s="9"/>
+      <c r="H624" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="762">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -2276,6 +2276,36 @@
   </si>
   <si>
     <t xml:space="preserve">Not available in the standard IFS output. However, per layer the specific heat capacity of dry air (1005.7 J kg-1 K-1) can be multiplied by the Temperature (grib 128.130) times the U component of wind (grib 128.131) + the geopotential height  (grib 128.129) and this needs to be vertically integrated times the air density per layer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutcsaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsutaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #403   aerosol free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsutcsaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdscsaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsuscsaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #405</t>
   </si>
 </sst>
 </file>
@@ -2531,10 +2561,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H624"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A593" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C616" activeCellId="0" sqref="C616"/>
+      <selection pane="topLeft" activeCell="I626" activeCellId="0" sqref="I626:I631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9817,6 +9847,103 @@
       <c r="G624" s="9"/>
       <c r="H624" s="3"/>
     </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C626" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F626" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G626" s="3"/>
+      <c r="H626" s="3"/>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C627" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G627" s="3"/>
+      <c r="H627" s="3"/>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C628" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F628" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G628" s="3"/>
+      <c r="H628" s="3"/>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C629" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G629" s="3"/>
+      <c r="H629" s="3"/>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="C630" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G630" s="3"/>
+      <c r="H630" s="3"/>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="C631" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="F631" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G631" s="3"/>
+      <c r="H631" s="3"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="773">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -865,7 +865,36 @@
     <t xml:space="preserve">wfcorr</t>
   </si>
   <si>
-    <t xml:space="preserve">Not available in NEMO-OPA.  Torben: &lt;field field_ref="erp"    name="wfcorr"   long_name="water_flux_correction" </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Not available in NEMO-OPA.)  Torben: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;field field_ref="erp"    name="wfcorr"   long_name="water_flux_correction"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Raffaele, Torben</t>
@@ -874,7 +903,62 @@
     <t xml:space="preserve">hfcorr</t>
   </si>
   <si>
-    <t xml:space="preserve">Not available in NEMO-OPA.  Torben: &lt;field field_ref="qrp"     name="hfcorr"      long_name="heat_flux_correction"</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Not available in NEMO-OPA.)  Torben:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;field field_ref="qrp"     name="hfcorr"      long_name="heat_flux_correction"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Omon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in OPA: &lt;field id="rain_ao_cea"  long_name="Liquid precipitation over ice-free ocean (cell average)"  standard_name="rainfall_flux"   &lt;!-- available if key_oasis3 + conservative method --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfibthermds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in OPA: &lt;field id="hflx_cal_cea"  long_name="heat flux due to calving"   standard_name="heat_flux_into_sea_water_due_to_iceberg_thermodynamics   &lt;!-- available if key_oasis3 + conservative method --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlntds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in OPA: &lt;field id="qlw_oce"   long_name="Longwave Downward Heat Flux over open ocean"  standard_name="surface_net_downward_longwave_flux"   unit="W/m2"  /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hflso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in OPA: &lt;field id="qla_oce" long_name="Latent Downward Heat Flux over open ocean" standard_name="surface_downward_latent_heat_flux" unit="W/m2" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfsso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in OPA: &lt;field id="qsb_oce" long_name="Sensible Downward Heat Flux over open ocean" standard_name="surface_downward_sensible_heat_flux" unit="W/m2" /&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">longitude latitude plev19 time</t>
@@ -2141,9 +2225,6 @@
   </si>
   <si>
     <t xml:space="preserve">Shuting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prra</t>
   </si>
   <si>
     <t xml:space="preserve">Large-scale precipitation (rain+snow) + Convective precipitation (rain+snow) - Snowfall: grib 128.142 + 128.143 - 128.144</t>
@@ -2348,6 +2429,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
@@ -2378,13 +2466,6 @@
       <color rgb="FF007FFF"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2456,11 +2537,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2472,11 +2549,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2561,10 +2642,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H636"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A593" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I626" activeCellId="0" sqref="I626:I631"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E276" activeCellId="0" sqref="E276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5579,72 +5660,74 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="0" t="s">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="C278" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="D284" s="0" t="s">
+      <c r="E278" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="E284" s="0" t="s">
+      <c r="F278" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="F284" s="2" t="s">
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C279" s="0" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="0" t="s">
+      <c r="E279" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C285" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D285" s="0" t="s">
+      <c r="C280" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="E285" s="0" t="s">
+      <c r="E280" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F280" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="F285" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="0" t="s">
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C286" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="D286" s="0" t="s">
+      <c r="C281" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="E286" s="0" t="s">
+      <c r="E281" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F281" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="F286" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C287" s="0" t="s">
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C282" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="D287" s="0" t="s">
+      <c r="E282" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="E287" s="0" t="s">
+      <c r="F282" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5658,3995 +5741,4008 @@
         <v>299</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F289" s="0" t="s">
-        <v>289</v>
+        <v>300</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="0" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F291" s="0" t="s">
-        <v>289</v>
+        <v>300</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F292" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C293" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D293" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="E293" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F293" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C295" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="D295" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="E295" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F295" s="0" t="s">
-        <v>289</v>
+        <v>300</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C299" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D299" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="E299" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F299" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F305" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F314" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F354" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>425</v>
+        <v>298</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F365" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="0" t="s">
-        <v>446</v>
+        <v>312</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>295</v>
+        <v>448</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>296</v>
+        <v>449</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F366" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F367" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F370" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="0" t="s">
-        <v>300</v>
+        <v>458</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>455</v>
+        <v>307</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E374" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E376" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F377" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E378" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F378" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E380" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F380" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E382" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F382" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E383" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F383" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F384" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B387" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C387" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D387" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="E387" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F387" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E388" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F388" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="0" t="s">
-        <v>484</v>
+        <v>312</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>295</v>
+        <v>491</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>296</v>
+        <v>492</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F390" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="0" t="s">
-        <v>485</v>
+        <v>312</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>292</v>
+        <v>493</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>322</v>
+        <v>494</v>
       </c>
       <c r="E391" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F391" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="0" t="s">
-        <v>485</v>
+        <v>312</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>379</v>
+        <v>495</v>
       </c>
       <c r="E392" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B393" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="C393" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="D393" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="E393" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F393" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="0" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>487</v>
+        <v>308</v>
       </c>
       <c r="E394" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B395" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="C395" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="D395" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="E395" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F395" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="0" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F396" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="0" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="E397" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E398" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F398" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>300</v>
+        <v>497</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="0" t="s">
-        <v>300</v>
+        <v>497</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E401" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F401" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="0" t="s">
-        <v>300</v>
+        <v>497</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>496</v>
+        <v>300</v>
       </c>
       <c r="F402" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B403" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C403" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="D403" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="E403" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="F403" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>496</v>
+        <v>300</v>
       </c>
       <c r="F404" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="0" t="s">
-        <v>501</v>
+        <v>312</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>287</v>
+        <v>505</v>
       </c>
       <c r="E405" s="0" t="s">
-        <v>496</v>
+        <v>300</v>
       </c>
       <c r="F405" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B406" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="C406" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="D406" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="E406" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="F406" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="0" t="s">
-        <v>504</v>
+        <v>312</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="F407" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="0" t="s">
-        <v>507</v>
+        <v>312</v>
       </c>
       <c r="C408" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="E408" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="D408" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="E408" s="0" t="s">
-        <v>496</v>
-      </c>
       <c r="F408" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="0" t="s">
-        <v>501</v>
+        <v>312</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D409" s="0" t="s">
-        <v>293</v>
+        <v>512</v>
       </c>
       <c r="E409" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="F409" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="0" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>511</v>
+        <v>299</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="F410" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D411" s="0" t="s">
-        <v>511</v>
+        <v>303</v>
       </c>
       <c r="E411" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="0" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="F412" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="F413" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D414" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F414" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="E414" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="F414" s="0" t="s">
-        <v>289</v>
+      <c r="C415" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="E415" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F415" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
-        <v>518</v>
+      <c r="B416" s="0" t="s">
+        <v>519</v>
       </c>
       <c r="C416" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="E416" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F416" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F417" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="E418" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F418" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="E416" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F416" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="C417" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="E417" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F417" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="C418" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="E418" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F418" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
-        <v>518</v>
-      </c>
       <c r="C419" s="0" t="s">
-        <v>524</v>
+        <v>529</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>528</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="F419" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="C420" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="E420" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="F420" s="0" t="s">
-        <v>521</v>
+        <v>301</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C424" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="E424" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="E424" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="F424" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C425" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E425" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="F425" s="0" t="s">
         <v>533</v>
-      </c>
-      <c r="E425" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="F425" s="0" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="F427" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="E429" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F429" s="0" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="E430" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="F430" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="F430" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
+      <c r="C431" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E431" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="F431" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E432" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F432" s="0" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>539</v>
+      </c>
       <c r="C433" s="0" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="E433" s="0" t="s">
         <v>541</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="E434" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="F434" s="0" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>539</v>
+      </c>
       <c r="C435" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="E435" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="F435" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="E437" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="F437" s="0" t="s">
-        <v>542</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G435" s="3"/>
+      <c r="H435" s="3"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="0" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="0" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="E441" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="F441" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="0" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="0" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="0" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="0" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="0" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="0" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="0" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="0" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="E510" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="0" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="0" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="0" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="0" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="0" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="0" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="0" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C529" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="E529" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="F529" s="0" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="0" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C534" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="E534" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="F534" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C533" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="E533" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="F533" s="0" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="0" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F535" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="0" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="0" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C538" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="E538" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="F538" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F541" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="0" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="0" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="0" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>649</v>
+        <v>553</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="0" t="s">
-        <v>651</v>
+        <v>556</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F548" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>541</v>
+        <v>661</v>
       </c>
       <c r="F550" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="0" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F552" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="0" t="s">
-        <v>540</v>
+        <v>664</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="0" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="0" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F555" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="0" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F556" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="0" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="0" t="s">
-        <v>661</v>
+        <v>552</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="0" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F559" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="0" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F560" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="0" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F561" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="0" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F562" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="0" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F563" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="0" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F564" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="0" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F565" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="0" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F566" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="0" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="0" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="0" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C570" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="E570" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="F570" s="0" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="0" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F571" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="0" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F572" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="0" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F573" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C574" s="0" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F574" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="0" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>678</v>
+        <v>553</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="0" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>680</v>
+        <v>553</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="0" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>680</v>
+        <v>553</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="0" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>683</v>
+        <v>553</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C580" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="E580" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="F580" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="0" t="s">
-        <v>692</v>
-      </c>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="E584" s="3" t="s">
         <v>694</v>
       </c>
+      <c r="E584" s="0" t="s">
+        <v>695</v>
+      </c>
       <c r="F584" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="G584" s="3"/>
-      <c r="H584" s="4"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C585" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="E585" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="F585" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C586" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="E586" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="F586" s="0" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C587" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E587" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
+      </c>
+      <c r="E587" s="0" t="s">
+        <v>701</v>
       </c>
       <c r="F587" s="0" t="s">
-        <v>696</v>
+        <v>554</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C588" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E588" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="F588" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C589" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F589" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="G589" s="3"/>
+      <c r="H589" s="4"/>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C592" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F592" s="0" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C593" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="E588" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="F588" s="0" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C589" s="0" t="s">
+      <c r="E593" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="F593" s="0" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E589" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="F589" s="0" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C590" s="0" t="s">
+      <c r="E594" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="F594" s="0" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="E590" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="F590" s="0" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E591" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="F591" s="0" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="593" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C593" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E593" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="F593" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="G593" s="3"/>
-      <c r="H593" s="3"/>
-    </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="E595" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="F595" s="5" t="s">
-        <v>706</v>
+      <c r="E595" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="F595" s="0" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C596" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="E596" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E596" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="F596" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="F596" s="5" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="E597" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="F597" s="5" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="0" t="s">
+    </row>
+    <row r="598" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="E603" s="3" t="s">
+      <c r="C598" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="F603" s="3" t="s">
+      <c r="E598" s="3" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C604" s="0" t="s">
+      <c r="F598" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="E604" s="6" t="s">
+      <c r="G598" s="3"/>
+      <c r="H598" s="3"/>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C600" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="F604" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="0" t="s">
+      <c r="E600" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="E605" s="6" t="s">
+      <c r="F600" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="F605" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="0" t="s">
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C601" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E601" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="E606" s="3" t="s">
+      <c r="F601" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="F606" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="0" t="s">
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C602" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="E607" s="3" t="s">
+      <c r="E602" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="F607" s="3" t="s">
-        <v>714</v>
+      <c r="F602" s="5" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9657,293 +9753,347 @@
         <v>724</v>
       </c>
       <c r="F608" s="3" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C609" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="E609" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="F609" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="E609" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="F609" s="3" t="s">
-        <v>714</v>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C610" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E610" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C611" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F611" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C612" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C613" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="0" t="s">
-        <v>727</v>
-      </c>
       <c r="C614" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="E614" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="F614" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="G614" s="7"/>
-      <c r="H614" s="5"/>
-    </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="C615" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="E615" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="F615" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="G615" s="7"/>
-      <c r="H615" s="5"/>
-    </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="C616" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="E616" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="F616" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="G616" s="7"/>
-      <c r="H616" s="5"/>
-    </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="C617" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="E617" s="7" t="s">
+      <c r="E614" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="F617" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G617" s="7"/>
-      <c r="H617" s="3"/>
-    </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C618" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="E618" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="F618" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G618" s="7"/>
-      <c r="H618" s="3"/>
+      <c r="F614" s="3" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>527</v>
+        <v>738</v>
       </c>
       <c r="C619" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="E619" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="E619" s="7" t="s">
+      <c r="F619" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="F619" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="G619" s="7"/>
       <c r="H619" s="5"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C620" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C620" s="8" t="s">
         <v>742</v>
       </c>
       <c r="E620" s="7" t="s">
         <v>743</v>
       </c>
       <c r="F620" s="5" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="G620" s="7"/>
       <c r="H620" s="5"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C621" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C621" s="8" t="s">
         <v>744</v>
       </c>
       <c r="E621" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="F621" s="3" t="s">
-        <v>730</v>
+      <c r="F621" s="5" t="s">
+        <v>741</v>
       </c>
       <c r="G621" s="7"/>
-      <c r="H621" s="3"/>
+      <c r="H621" s="5"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>527</v>
+        <v>746</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E622" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F622" s="3" t="s">
-        <v>730</v>
+        <v>533</v>
       </c>
       <c r="G622" s="7"/>
       <c r="H622" s="3"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="E623" s="9" t="s">
         <v>749</v>
       </c>
+      <c r="E623" s="7" t="s">
+        <v>750</v>
+      </c>
       <c r="F623" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="G623" s="9"/>
+        <v>533</v>
+      </c>
+      <c r="G623" s="7"/>
       <c r="H623" s="3"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="E624" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="F624" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="G624" s="9"/>
-      <c r="H624" s="3"/>
+      <c r="E624" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="F624" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G624" s="7"/>
+      <c r="H624" s="5"/>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C625" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="E625" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="F625" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G625" s="7"/>
+      <c r="H625" s="5"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="E626" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
+      </c>
+      <c r="E626" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="F626" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G626" s="3"/>
+        <v>741</v>
+      </c>
+      <c r="G626" s="7"/>
       <c r="H626" s="3"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="E627" s="3" t="s">
-        <v>755</v>
+        <v>757</v>
+      </c>
+      <c r="E627" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="F627" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G627" s="3"/>
+        <v>741</v>
+      </c>
+      <c r="G627" s="7"/>
       <c r="H627" s="3"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="E628" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
+      </c>
+      <c r="E628" s="9" t="s">
+        <v>760</v>
       </c>
       <c r="F628" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G628" s="3"/>
+        <v>741</v>
+      </c>
+      <c r="G628" s="9"/>
       <c r="H628" s="3"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E629" s="3" t="s">
-        <v>757</v>
+        <v>761</v>
+      </c>
+      <c r="E629" s="9" t="s">
+        <v>762</v>
       </c>
       <c r="F629" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G629" s="3"/>
+        <v>741</v>
+      </c>
+      <c r="G629" s="9"/>
       <c r="H629" s="3"/>
-    </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="C630" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="E630" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F630" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G630" s="3"/>
-      <c r="H630" s="3"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>727</v>
+        <v>530</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E631" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F631" s="3" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="G631" s="3"/>
       <c r="H631" s="3"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C632" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F632" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G632" s="3"/>
+      <c r="H632" s="3"/>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C633" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F633" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G633" s="3"/>
+      <c r="H633" s="3"/>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C634" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F634" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G634" s="3"/>
+      <c r="H634" s="3"/>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="C635" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F635" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G635" s="3"/>
+      <c r="H635" s="3"/>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="C636" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F636" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G636" s="3"/>
+      <c r="H636" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="830">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -2388,6 +2388,177 @@
   <si>
     <t xml:space="preserve">Available from double radiation call in IFS. See also PEXTRA issue #405</t>
   </si>
+  <si>
+    <t xml:space="preserve">LImon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2M as in IFS (grib code 128.167)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use soil layer 1 temeperature as the proxy (grib 128.139)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsnIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Grib 128.238. But we never test it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsnIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prraIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.(142+143-144)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sblIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snmIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrroIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hflsIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfssIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdsIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsusIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.(169-176)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rldsIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlusIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 128.(175-177)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: T-tendency from radiation: grib 128.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan, Thomas &amp; Gijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: T-tendency from convection : grib 128.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: q-tendency from convection: grib 128.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmonZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6hrPlev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wsgmax10m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: 10 metre wind gust in the 6 hours: grib 128.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: convective cloud cover ccc: grib 128.185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lwp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: Total column liquid water: grib 128.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS:Vertical velocity:w: grib 128.135 requires unit conversion from Pa.s-1 to m/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: Boundary layer height: grib 128.159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: Surface net thermal radiation: grib 128.177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: Surface net solar radiation: grib 128.176</t>
+  </si>
 </sst>
 </file>
 
@@ -2396,7 +2567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2475,6 +2646,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2524,7 +2702,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2563,6 +2741,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2642,10 +2824,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H636"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E276" activeCellId="0" sqref="E276"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A628" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D639" activeCellId="0" sqref="D639:D665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10094,6 +10276,444 @@
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
     </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C639" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F639" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G639" s="3"/>
+      <c r="H639" s="3"/>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C640" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F640" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G640" s="3"/>
+      <c r="H640" s="3"/>
+      <c r="I640" s="3"/>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C641" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G641" s="3"/>
+      <c r="H641" s="3"/>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C642" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="F642" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G642" s="3"/>
+      <c r="H642" s="3"/>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C643" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G643" s="3"/>
+      <c r="H643" s="3"/>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C644" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G644" s="3"/>
+      <c r="H644" s="3"/>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C645" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F645" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G645" s="3"/>
+      <c r="H645" s="3"/>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C646" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F646" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G646" s="3"/>
+      <c r="H646" s="3"/>
+      <c r="I646" s="3"/>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C647" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F647" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G647" s="3"/>
+      <c r="H647" s="3"/>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C648" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F648" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G648" s="3"/>
+      <c r="H648" s="3"/>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C649" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G649" s="3"/>
+      <c r="H649" s="3"/>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C650" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F650" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G650" s="3"/>
+      <c r="H650" s="3"/>
+      <c r="I650" s="3"/>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C651" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F651" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G651" s="3"/>
+      <c r="H651" s="3"/>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C652" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F652" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G652" s="3"/>
+      <c r="H652" s="3"/>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C653" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F653" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="G653" s="3"/>
+      <c r="H653" s="3"/>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C654" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F654" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="G654" s="3"/>
+      <c r="H654" s="3"/>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C655" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F655" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="G655" s="3"/>
+      <c r="H655" s="3"/>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C656" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F656" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="G656" s="3"/>
+      <c r="H656" s="3"/>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C657" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="F657" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="G657" s="3"/>
+      <c r="H657" s="3"/>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="C658" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F658" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G658" s="3"/>
+      <c r="H658" s="3"/>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C659" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G659" s="3"/>
+      <c r="H659" s="3"/>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C660" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F660" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G660" s="3"/>
+      <c r="H660" s="5"/>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C661" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G661" s="3"/>
+      <c r="H661" s="3"/>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C662" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="E662" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G662" s="10"/>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C663" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F663" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G663" s="3"/>
+      <c r="H663" s="5"/>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C664" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G664" s="3"/>
+      <c r="H664" s="3"/>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C665" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G665" s="3"/>
+      <c r="H665" s="3"/>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="852">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -2299,13 +2299,51 @@
     <t xml:space="preserve">tauupbl</t>
   </si>
   <si>
-    <t xml:space="preserve">Available in IFS: Eastward turbulent surface stress: grib 128.180 maybe the Eastward gravity wave surface stress grib 128.195 has to be added. This needs to be checked with ECMWF people.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF007FFF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Available in IFS: Eastward turbulent surface stress: grib 128.180 maybe the Eastward gravity wave surface stress grib 128.195 has to be added. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This needs to be checked with ECMWF people.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">tauvpbl</t>
   </si>
   <si>
-    <t xml:space="preserve">Available in IFS: Northward turbulent surface stress: grib 128.181 maybe the Northward gravity wave surface stress grib 128.196 has to be added. This needs to be checked with ECMWF people.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF007FFF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Available in IFS: Northward turbulent surface stress: grib 128.181 maybe the Northward gravity wave surface stress grib 128.196 has to be added. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This needs to be checked with ECMWF people.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E3hr</t>
@@ -2407,7 +2445,25 @@
     <t xml:space="preserve">tsnIs</t>
   </si>
   <si>
-    <t xml:space="preserve">This is Grib 128.238. But we never test it</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This is Grib 128.238. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">But we never test it</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">prsnIs</t>
@@ -2558,6 +2614,99 @@
   </si>
   <si>
     <t xml:space="preserve">Available in IFS: Surface net solar radiation: grib 128.176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ksat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-TESSEL parameters inside the model that is prescribed for each dominant soil texture  (not in the output; no grib code associated).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea &amp; Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rootdsl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-TESSEL parameters inside the model that is prescribed for each dominant soil texture (not in the output, no grib code associated).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slthick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: independent of lon, lat. Top soil layer: 0-7 cm, Soil layer 2: 7-28 cm, Soil layer 3: 28-100 cm, Soil layer 4: 100-289 cm, added as issue #126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sncIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in IFS. Although it could be calculated from tile fractions and written out as extra output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sftgif</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This is the land ice mask and will be an extra variable in IFS (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">thomas: via PEXTRA?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sftgrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Greenland this is the same as above sftgif. We do not have Antarctic ice sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orogIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is grib 128.129 at surface. But be aware not missing up with the grib 128.129 for free atmospehre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternatively, just estimating the delta T per month. No direct grib code for the totoal T-tendency found. In IFS from Cycle 39R1: add all the T-Tendencies: grib 128.93 + 128.95 + 128.98 + 128.102 + 128.105 + 128.109. But with IFS cycle 36 the T-tendency of gravity wave drag grib 128.102 is bugged until Cycle 39R1. This has been checked by Gijs with ECMWF: https://software.ecmwf.int/wiki/pages/viewpage.action?pageId=97384581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFsubhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This site lon,lat is specifed by the experiment we guess, and should be available in the netcdf file. So far it doesn't seem to be specified in the data request: in the CMIP6_coordinate.json table file the requested": "" is empty for site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2635,6 +2784,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF007FFF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
@@ -2739,11 +2895,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2826,8 +2982,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A628" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D639" activeCellId="0" sqref="D639:D665"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A649" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D667" activeCellId="0" sqref="D667:D676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10020,7 +10176,7 @@
       <c r="G619" s="7"/>
       <c r="H619" s="5"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
         <v>704</v>
       </c>
@@ -10036,7 +10192,7 @@
       <c r="G620" s="7"/>
       <c r="H620" s="5"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
         <v>704</v>
       </c>
@@ -10309,7 +10465,7 @@
       <c r="H640" s="3"/>
       <c r="I640" s="3"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
         <v>773</v>
       </c>
@@ -10707,6 +10863,170 @@
       <c r="G665" s="3"/>
       <c r="H665" s="3"/>
     </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C667" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="G667" s="3"/>
+      <c r="H667" s="3"/>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C668" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="G668" s="3"/>
+      <c r="H668" s="3"/>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C669" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G669" s="3"/>
+      <c r="H669" s="3"/>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C670" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G670" s="3"/>
+      <c r="H670" s="3"/>
+    </row>
+    <row r="671" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C671" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G671" s="3"/>
+      <c r="H671" s="3"/>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C672" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G672" s="3"/>
+      <c r="H672" s="3"/>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C673" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G673" s="3"/>
+      <c r="H673" s="3"/>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C674" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="G674" s="3"/>
+      <c r="H674" s="3"/>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="C675" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F675" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G675" s="3"/>
+      <c r="H675" s="5"/>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="C676" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F676" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G676" s="3"/>
+      <c r="H676" s="5"/>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -2307,7 +2307,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Available in IFS: Eastward turbulent surface stress: grib 128.180 maybe the Eastward gravity wave surface stress grib 128.195 has to be added. </t>
+      <t xml:space="preserve">Available in IFS: Eastward turbulent surface stress (grib 128.180) plus the Eastward gravity wave surface stress (grib 128.195).  </t>
     </r>
     <r>
       <rPr>
@@ -2317,7 +2317,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">This needs to be checked with ECMWF people.</t>
+      <t xml:space="preserve">Check with data request or DynVar people if this is indeed what is asked here.</t>
     </r>
   </si>
   <si>
@@ -2332,7 +2332,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Available in IFS: Northward turbulent surface stress: grib 128.181 maybe the Northward gravity wave surface stress grib 128.196 has to be added. </t>
+      <t xml:space="preserve">Available in IFS: Northward turbulent surface stress (grib 128.181) plus the Northward gravity wave surface stress (grib 128.196).  </t>
     </r>
     <r>
       <rPr>
@@ -2342,7 +2342,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">This needs to be checked with ECMWF people.</t>
+      <t xml:space="preserve">Check with data request or DynVar people if this is indeed what is asked here.</t>
     </r>
   </si>
   <si>
@@ -2982,8 +2982,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A649" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D667" activeCellId="0" sqref="D667:D676"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A607" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E621" activeCellId="0" sqref="E621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10159,6 +10159,9 @@
       <c r="F614" s="3" t="s">
         <v>725</v>
       </c>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E618" s="7"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="862">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -2707,6 +2707,36 @@
   </si>
   <si>
     <t xml:space="preserve">latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilting point is defined in HTESSEL as a fraction (different for each soil texture in HTESSEL; variable slt grib code 43 - Table 128) of field capacity. (Alessandri A.: an Effective Wilting Point can be defined ... same as below discussion for the field capacity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fldcapacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum amount of water the soil can hold (different for each soil texture in HTESSEL; variable slt grib code 43 - Table 128). It is constant map in time in H-TESSEL (Alessandri A.: an Effective Field Capacity can be defined for coupling analysis pourpouses that will change with the effective vegetation cover; as soon as we have daily effective vegetation cover in the outputs we can compute as well the Effective Field capacity).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clayfrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil texture (could be derived by soil HTESSEL soil types [1-6]: variable slt grib code 43 - Table 128): very fine (&amp; fine?) in H-TESSEL boundary condition constant in time. It is available in a kind of mask: for each type a number 1-6 if this type at a lon,lat location the number corresponding with this type is in the mask. (No grib code we think.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siltfrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil texture (could be derived by soil HTESSEL soil types [1-6]: variable slt grib code 43 - Table 128): medium (&amp; medium fine?) in H-TESSEL boundary condition constant in time. It is available in a kind of mask: for each type a number 1-6 if this type at a lon,lat location the number corresponding with this type is in the mask. (No grib code we think.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandfrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil texture (could be derived by soil HTESSEL soil types [1-6]: variable slt grib code 43 - Table 128): coarse in H-TESSEL boundary condition constant in time. It is available in a kind of mask: for each type a number 1-6 if this type at a lon,lat location the number corresponding with this type is in the mask. (No grib code we think.)</t>
   </si>
 </sst>
 </file>
@@ -2982,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A607" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E621" activeCellId="0" sqref="E621"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A665" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E680" activeCellId="0" sqref="E680:F684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11025,6 +11055,86 @@
       </c>
       <c r="G676" s="3"/>
       <c r="H676" s="5"/>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C680" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="G680" s="3"/>
+      <c r="H680" s="3"/>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C681" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="G681" s="3"/>
+      <c r="H681" s="3"/>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F682" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="G682" s="3"/>
+      <c r="H682" s="3"/>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C683" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F683" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="G683" s="3"/>
+      <c r="H683" s="3"/>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="G684" s="3"/>
+      <c r="H684" s="3"/>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -1732,7 +1732,7 @@
     <t xml:space="preserve">Available in LPJ-GUESS, will be cmorized by Peter Anthoni &amp; Lars Nieradzik</t>
   </si>
   <si>
-    <t xml:space="preserve">David Wårlind</t>
+    <t xml:space="preserve">David Warlind</t>
   </si>
   <si>
     <t xml:space="preserve">mrsol</t>
@@ -2194,7 +2194,7 @@
     <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: expfe</t>
   </si>
   <si>
-    <t xml:space="preserve">David Wårlind, Raffaele Bernardello</t>
+    <t xml:space="preserve">David Warlind, Raffaele Bernardello</t>
   </si>
   <si>
     <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: expsi</t>
@@ -3012,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A665" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E680" activeCellId="0" sqref="E680:F684"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A418" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F438" activeCellId="0" sqref="F438:F440 F442:F533 F535:F537 F539:F574 F576:F579 F581:F589 F592:F596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (238) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (239) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -3012,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A418" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F438" activeCellId="0" sqref="F438:F440 F442:F533 F535:F537 F539:F574 F576:F579 F581:F589 F592:F596"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E3:E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (239) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (240) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -2212,7 +2212,7 @@
     <t xml:space="preserve">siflswdtop</t>
   </si>
   <si>
-    <t xml:space="preserve">Variable qsr_ice (solar heat flux at ice surface, W/m²),     &lt;field id="qsr_ice"   long_name="solar heat flux at ice surface: sum over categories"    standard_name="surface_downwelling_shortwave_flux_in_air"    unit="W/m2" </t>
+    <t xml:space="preserve">Variable qsr_ice (solar heat flux at ice surface, W/m2),     &lt;field id="qsr_ice"   long_name="solar heat flux at ice surface: sum over categories"    standard_name="surface_downwelling_shortwave_flux_in_air"    unit="W/m2" </t>
   </si>
   <si>
     <t xml:space="preserve">David Docquier, Torben</t>
@@ -3012,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E3:E269"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A578" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D600" activeCellId="0" sqref="D600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="857">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -1681,12 +1681,6 @@
     <t xml:space="preserve">o3prod</t>
   </si>
   <si>
-    <t xml:space="preserve">pod0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in TM5??</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emon</t>
   </si>
   <si>
@@ -1703,15 +1697,6 @@
   </si>
   <si>
     <t xml:space="preserve">md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od443dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in TM5?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">od865dust</t>
   </si>
   <si>
     <t xml:space="preserve">loaddust</t>
@@ -3012,8 +2997,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A578" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D600" activeCellId="0" sqref="D600"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A429" activeCellId="0" sqref="A429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8247,13 +8232,13 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F425" s="0" t="s">
         <v>533</v>
@@ -8261,13 +8246,13 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C426" s="0" t="s">
         <v>540</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F426" s="0" t="s">
         <v>533</v>
@@ -8275,13 +8260,13 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F427" s="0" t="s">
         <v>533</v>
@@ -8289,13 +8274,13 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E428" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="C428" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="E428" s="0" t="s">
-        <v>532</v>
       </c>
       <c r="F428" s="0" t="s">
         <v>533</v>
@@ -8303,13 +8288,13 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E429" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="C429" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="E429" s="0" t="s">
-        <v>541</v>
       </c>
       <c r="F429" s="0" t="s">
         <v>533</v>
@@ -8317,118 +8302,109 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="E430" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="C430" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="E430" s="0" t="s">
-        <v>546</v>
       </c>
       <c r="F430" s="0" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="C431" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="E431" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="F431" s="0" t="s">
-        <v>533</v>
-      </c>
-    </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="E432" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="F432" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F432" s="3" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="C433" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="E433" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="F433" s="0" t="s">
-        <v>533</v>
-      </c>
+      <c r="G432" s="3"/>
+      <c r="H432" s="3"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
-        <v>539</v>
-      </c>
       <c r="C435" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E435" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F435" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C436" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="E435" s="3" t="s">
+      <c r="E436" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F436" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C437" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="F435" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G435" s="3"/>
-      <c r="H435" s="3"/>
-    </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="E438" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="F438" s="0" t="s">
-        <v>554</v>
+      <c r="E437" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F437" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="0" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E440" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F440" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C441" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="F440" s="0" t="s">
-        <v>554</v>
+      <c r="E441" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F441" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8436,1473 +8412,1473 @@
         <v>555</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="0" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="0" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="0" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="0" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="0" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E510" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="0" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="0" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="0" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="0" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="0" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="0" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C531" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="E531" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="F531" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C533" s="0" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F533" s="0" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C535" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="E535" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="F535" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C534" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E534" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F534" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="0" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="0" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C538" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="E538" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F538" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F541" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="0" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="0" t="s">
-        <v>655</v>
+        <v>551</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="0" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="0" t="s">
-        <v>556</v>
+        <v>655</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>553</v>
+        <v>656</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F548" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>661</v>
+        <v>548</v>
       </c>
       <c r="F550" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="0" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F552" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="0" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="0" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="0" t="s">
-        <v>666</v>
+        <v>547</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F555" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="0" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F556" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="0" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="0" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="0" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F559" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="0" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F560" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="0" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F561" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="0" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F562" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="0" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F563" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="0" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F564" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="0" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F565" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="0" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F566" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="0" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="0" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="0" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="0" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F570" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="0" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F571" s="0" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C572" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="E572" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="F572" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="0" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F573" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C574" s="0" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F574" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C575" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="E575" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F575" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="0" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C577" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="E577" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="F577" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="0" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>553</v>
+        <v>685</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="E579" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="F579" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C580" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="E579" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="F579" s="0" t="s">
-        <v>554</v>
+      <c r="E580" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="F580" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9913,7 +9889,7 @@
         <v>690</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9924,7 +9900,7 @@
         <v>692</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9932,452 +9908,467 @@
         <v>693</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C585" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F585" s="0" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="s">
+        <v>699</v>
+      </c>
       <c r="C586" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="E586" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>701</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C587" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="E587" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="F587" s="0" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C588" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="G586" s="3"/>
+      <c r="H586" s="4"/>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C589" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E589" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="E588" s="0" t="s">
+      <c r="F589" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="F588" s="0" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="0" t="s">
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C590" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E590" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="C589" s="0" t="s">
+      <c r="F590" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C591" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E591" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="E589" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="F589" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="G589" s="3"/>
-      <c r="H589" s="4"/>
+      <c r="F591" s="0" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C592" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E592" s="2" t="s">
-        <v>707</v>
+        <v>195</v>
+      </c>
+      <c r="E592" s="0" t="s">
+        <v>706</v>
       </c>
       <c r="F592" s="0" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C593" s="0" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="E593" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="F593" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="595" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E595" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="F593" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E594" s="0" t="s">
+      <c r="F595" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="F594" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="E595" s="0" t="s">
+      <c r="G595" s="3"/>
+      <c r="H595" s="3"/>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="F595" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C596" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E596" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="F596" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="598" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="2" t="s">
+      <c r="E597" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="C598" s="2" t="s">
+      <c r="F597" s="5" t="s">
         <v>713</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C598" s="0" t="s">
+        <v>286</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="F598" s="3" t="s">
+      <c r="F598" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="G598" s="3"/>
-      <c r="H598" s="3"/>
-    </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C600" s="2" t="s">
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C599" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="E600" s="3" t="s">
+      <c r="E599" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="F600" s="5" t="s">
+      <c r="F599" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C605" s="0" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="E601" s="3" t="s">
+      <c r="E605" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F601" s="5" t="s">
+      <c r="F605" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="0" t="s">
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C606" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="E602" s="3" t="s">
+      <c r="E606" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="F602" s="5" t="s">
+      <c r="F606" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C607" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="E607" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="F607" s="3" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C608" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E608" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F608" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C609" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="E609" s="6" t="s">
         <v>727</v>
       </c>
+      <c r="E609" s="3" t="s">
+        <v>728</v>
+      </c>
       <c r="F609" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C610" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="E610" s="6" t="s">
         <v>729</v>
       </c>
+      <c r="E610" s="3" t="s">
+        <v>730</v>
+      </c>
       <c r="F610" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C611" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E611" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F611" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="E612" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E615" s="7"/>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="F612" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C613" s="0" t="s">
+      <c r="C616" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="E613" s="3" t="s">
+      <c r="E616" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="F613" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C614" s="0" t="s">
+      <c r="F616" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="E614" s="3" t="s">
+      <c r="G616" s="7"/>
+      <c r="H616" s="5"/>
+    </row>
+    <row r="617" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C617" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="F614" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E618" s="7"/>
+      <c r="E617" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="F617" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G617" s="7"/>
+      <c r="H617" s="5"/>
+    </row>
+    <row r="618" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C618" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="E618" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="F618" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G618" s="7"/>
+      <c r="H618" s="5"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E619" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="F619" s="5" t="s">
-        <v>741</v>
+        <v>743</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="G619" s="7"/>
-      <c r="H619" s="5"/>
-    </row>
-    <row r="620" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H619" s="3"/>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="C620" s="8" t="s">
-        <v>742</v>
+        <v>537</v>
+      </c>
+      <c r="C620" s="0" t="s">
+        <v>744</v>
       </c>
       <c r="E620" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="F620" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
+      </c>
+      <c r="F620" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="G620" s="7"/>
-      <c r="H620" s="5"/>
-    </row>
-    <row r="621" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H620" s="3"/>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="C621" s="8" t="s">
-        <v>744</v>
+        <v>537</v>
+      </c>
+      <c r="C621" s="0" t="s">
+        <v>746</v>
       </c>
       <c r="E621" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F621" s="5" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G621" s="7"/>
       <c r="H621" s="5"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>746</v>
+        <v>537</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E622" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="F622" s="3" t="s">
-        <v>533</v>
+        <v>749</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>736</v>
       </c>
       <c r="G622" s="7"/>
-      <c r="H622" s="3"/>
+      <c r="H622" s="5"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E623" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F623" s="3" t="s">
-        <v>533</v>
+        <v>736</v>
       </c>
       <c r="G623" s="7"/>
       <c r="H623" s="3"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E624" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="F624" s="5" t="s">
-        <v>741</v>
+        <v>753</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>736</v>
       </c>
       <c r="G624" s="7"/>
-      <c r="H624" s="5"/>
+      <c r="H624" s="3"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="E625" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="F625" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G625" s="7"/>
-      <c r="H625" s="5"/>
+      <c r="E625" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="F625" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G625" s="9"/>
+      <c r="H625" s="3"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="E626" s="7" t="s">
         <v>756</v>
       </c>
+      <c r="E626" s="9" t="s">
+        <v>757</v>
+      </c>
       <c r="F626" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G626" s="7"/>
+        <v>736</v>
+      </c>
+      <c r="G626" s="9"/>
       <c r="H626" s="3"/>
-    </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="C627" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="E627" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="F627" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G627" s="7"/>
-      <c r="H627" s="3"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C628" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E628" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E628" s="9" t="s">
-        <v>760</v>
-      </c>
       <c r="F628" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G628" s="9"/>
+        <v>533</v>
+      </c>
+      <c r="G628" s="3"/>
       <c r="H628" s="3"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C629" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="E629" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="E629" s="9" t="s">
+      <c r="F629" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G629" s="3"/>
+      <c r="H629" s="3"/>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C630" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="F629" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G629" s="9"/>
-      <c r="H629" s="3"/>
+      <c r="E630" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G630" s="3"/>
+      <c r="H630" s="3"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
         <v>530</v>
       </c>
       <c r="C631" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="E631" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="E631" s="3" t="s">
-        <v>764</v>
       </c>
       <c r="F631" s="3" t="s">
         <v>533</v>
@@ -10387,13 +10378,13 @@
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>530</v>
+        <v>733</v>
       </c>
       <c r="C632" s="0" t="s">
         <v>765</v>
       </c>
       <c r="E632" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="F632" s="3" t="s">
         <v>533</v>
@@ -10403,13 +10394,13 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>530</v>
+        <v>733</v>
       </c>
       <c r="C633" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="E633" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="E633" s="3" t="s">
-        <v>768</v>
       </c>
       <c r="F633" s="3" t="s">
         <v>533</v>
@@ -10417,370 +10408,370 @@
       <c r="G633" s="3"/>
       <c r="H633" s="3"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="C634" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="E634" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="F634" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G634" s="3"/>
-      <c r="H634" s="3"/>
-    </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="C635" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="E635" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="F635" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G635" s="3"/>
-      <c r="H635" s="3"/>
-    </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E636" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F636" s="3" t="s">
-        <v>533</v>
+        <v>713</v>
       </c>
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
     </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C637" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F637" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="G637" s="3"/>
+      <c r="H637" s="3"/>
+      <c r="I637" s="3"/>
+    </row>
+    <row r="638" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C638" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F638" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="G638" s="3"/>
+      <c r="H638" s="3"/>
+    </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E639" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F639" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G639" s="3"/>
       <c r="H639" s="3"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E640" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F640" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
-      <c r="I640" s="3"/>
-    </row>
-    <row r="641" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E641" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F641" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E642" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F642" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E643" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F643" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G643" s="3"/>
       <c r="H643" s="3"/>
+      <c r="I643" s="3"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E644" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F644" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E645" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F645" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G645" s="3"/>
       <c r="H645" s="3"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E646" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F646" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G646" s="3"/>
       <c r="H646" s="3"/>
-      <c r="I646" s="3"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E647" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F647" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G647" s="3"/>
       <c r="H647" s="3"/>
+      <c r="I647" s="3"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E648" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F648" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G648" s="3"/>
       <c r="H648" s="3"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E649" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F649" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G649" s="3"/>
       <c r="H649" s="3"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E650" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F650" s="3" t="s">
-        <v>718</v>
+        <v>800</v>
       </c>
       <c r="G650" s="3"/>
       <c r="H650" s="3"/>
-      <c r="I650" s="3"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E651" s="3" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F651" s="3" t="s">
-        <v>718</v>
+        <v>800</v>
       </c>
       <c r="G651" s="3"/>
       <c r="H651" s="3"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="C652" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F652" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="E652" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="F652" s="3" t="s">
-        <v>718</v>
       </c>
       <c r="G652" s="3"/>
       <c r="H652" s="3"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E653" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F653" s="3" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G653" s="3"/>
       <c r="H653" s="3"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E654" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F654" s="3" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G654" s="3"/>
       <c r="H654" s="3"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="C655" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="E655" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="C655" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="E655" s="3" t="s">
-        <v>809</v>
-      </c>
       <c r="F655" s="3" t="s">
-        <v>805</v>
+        <v>533</v>
       </c>
       <c r="G655" s="3"/>
       <c r="H655" s="3"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E656" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F656" s="3" t="s">
-        <v>805</v>
+        <v>533</v>
       </c>
       <c r="G656" s="3"/>
       <c r="H656" s="3"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>802</v>
+        <v>530</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E657" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="F657" s="3" t="s">
-        <v>805</v>
+        <v>814</v>
+      </c>
+      <c r="F657" s="5" t="s">
+        <v>736</v>
       </c>
       <c r="G657" s="3"/>
-      <c r="H657" s="3"/>
+      <c r="H657" s="5"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>814</v>
+        <v>530</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="E658" s="3" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="F658" s="3" t="s">
         <v>533</v>
@@ -10790,83 +10781,67 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>815</v>
+        <v>530</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="E659" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="F659" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G659" s="3"/>
-      <c r="H659" s="3"/>
+      <c r="E659" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="G659" s="10"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>530</v>
+        <v>699</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E660" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F660" s="5" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G660" s="3"/>
       <c r="H660" s="5"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E661" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F661" s="3" t="s">
-        <v>533</v>
+        <v>736</v>
       </c>
       <c r="G661" s="3"/>
       <c r="H661" s="3"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="E662" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="G662" s="10"/>
-    </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="C663" s="0" t="s">
+      <c r="E662" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="E663" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="F663" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G663" s="3"/>
-      <c r="H663" s="5"/>
+      <c r="F662" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G662" s="3"/>
+      <c r="H662" s="3"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>539</v>
+        <v>825</v>
       </c>
       <c r="C664" s="0" t="s">
         <v>826</v>
@@ -10875,267 +10850,238 @@
         <v>827</v>
       </c>
       <c r="F664" s="3" t="s">
-        <v>741</v>
+        <v>828</v>
       </c>
       <c r="G664" s="3"/>
       <c r="H664" s="3"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>539</v>
+        <v>825</v>
       </c>
       <c r="C665" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="F665" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="E665" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F665" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="G665" s="3"/>
       <c r="H665" s="3"/>
     </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C666" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G666" s="3"/>
+      <c r="H666" s="3"/>
+    </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>830</v>
+        <v>768</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E667" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F667" s="3" t="s">
-        <v>833</v>
+        <v>713</v>
       </c>
       <c r="G667" s="3"/>
       <c r="H667" s="3"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>830</v>
+        <v>768</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E668" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F668" s="3" t="s">
-        <v>833</v>
+        <v>713</v>
       </c>
       <c r="G668" s="3"/>
       <c r="H668" s="3"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>830</v>
+        <v>768</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E669" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F669" s="3" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="G669" s="3"/>
       <c r="H669" s="3"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E670" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F670" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G670" s="3"/>
       <c r="H670" s="3"/>
     </row>
-    <row r="671" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E671" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F671" s="3" t="s">
-        <v>718</v>
+        <v>800</v>
       </c>
       <c r="G671" s="3"/>
       <c r="H671" s="3"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>773</v>
+        <v>843</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E672" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="F672" s="3" t="s">
-        <v>718</v>
+        <v>845</v>
+      </c>
+      <c r="F672" s="5" t="s">
+        <v>736</v>
       </c>
       <c r="G672" s="3"/>
-      <c r="H672" s="3"/>
+      <c r="H672" s="5"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>773</v>
+        <v>843</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E673" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="F673" s="3" t="s">
-        <v>718</v>
+      <c r="F673" s="5" t="s">
+        <v>736</v>
       </c>
       <c r="G673" s="3"/>
-      <c r="H673" s="3"/>
-    </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="C674" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="E674" s="3" t="s">
+      <c r="H673" s="5"/>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C677" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="F674" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="G674" s="3"/>
-      <c r="H674" s="3"/>
-    </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="0" t="s">
+      <c r="E677" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="C675" s="0" t="s">
+      <c r="F677" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="G677" s="3"/>
+      <c r="H677" s="3"/>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C678" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="E675" s="3" t="s">
+      <c r="E678" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="F675" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G675" s="3"/>
-      <c r="H675" s="5"/>
-    </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="C676" s="0" t="s">
+      <c r="F678" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="G678" s="3"/>
+      <c r="H678" s="3"/>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C679" s="0" t="s">
         <v>851</v>
       </c>
-      <c r="E676" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F676" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G676" s="3"/>
-      <c r="H676" s="5"/>
+      <c r="E679" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="G679" s="3"/>
+      <c r="H679" s="3"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E680" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F680" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G680" s="3"/>
       <c r="H680" s="3"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E681" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F681" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G681" s="3"/>
       <c r="H681" s="3"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="C682" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="E682" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="F682" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="G682" s="3"/>
-      <c r="H682" s="3"/>
-    </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="C683" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="E683" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="F683" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="G683" s="3"/>
-      <c r="H683" s="3"/>
-    </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="C684" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="E684" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="F684" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="G684" s="3"/>
-      <c r="H684" s="3"/>
-    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="864">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -1444,6 +1444,21 @@
     <t xml:space="preserve">PAN volume mixing ratio</t>
   </si>
   <si>
+    <t xml:space="preserve">AERmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hcho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan, Tommi Bergman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3ste</t>
+  </si>
+  <si>
     <t xml:space="preserve">longitude latitude alevhalf time</t>
   </si>
   <si>
@@ -1537,6 +1552,15 @@
     <t xml:space="preserve">Tropopause Altitude</t>
   </si>
   <si>
+    <t xml:space="preserve">cdnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In runtime/classic/ctrl/namelist.ifs.cloudact+diag.sh CVEXTRA(1)='CDNC' which is a PEXTRA variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twan &amp; Thomas</t>
+  </si>
+  <si>
     <t xml:space="preserve">maxpblz</t>
   </si>
   <si>
@@ -1594,27 +1618,36 @@
     <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
   </si>
   <si>
+    <t xml:space="preserve">Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. Maybe sum the land use in LPJ-GUESS + fossil fuel from CEDS? This means it then has to be added in an additional post processing step.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2fos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Fossil Fuel Emissions of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. Fossil fuel emissions are based on CEDS, and can therefore be constructed from the forcing data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. It is not clear to us if this variable includes the contribution from land use. This variable can be calculated from the total CO2 flux provided by TM5 and the contributions from CEDS and land use from LPJ-GUESS. This "Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources" could be provided by LPJ-GUESS but its definition is very vague... Should we include emissions from managed forests? Cropland? Pasture? Any managed land? If a land has a history of being managed, but now is "natural"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude plev19 time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3Clim</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not available in the AOGCM, but will be added by Tommi  in the ESM in TM5 with its cmor name.</t>
   </si>
   <si>
-    <t xml:space="preserve">fco2fos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Fossil Fuel Emissions of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude plev19 time2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3Clim</t>
-  </si>
-  <si>
     <t xml:space="preserve">co2Clim</t>
   </si>
   <si>
@@ -1645,33 +1678,12 @@
     <t xml:space="preserve">ch4globalClim</t>
   </si>
   <si>
-    <t xml:space="preserve">n2oClim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mole Fraction of N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n2oglobal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Mean Mole Fraction of N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n2oglobalClim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">lossch4</t>
   </si>
   <si>
     <t xml:space="preserve">Available in TM5.</t>
   </si>
   <si>
-    <t xml:space="preserve">Twan &amp; Thomas</t>
-  </si>
-  <si>
     <t xml:space="preserve">lossco</t>
   </si>
   <si>
@@ -1709,6 +1721,15 @@
   </si>
   <si>
     <t xml:space="preserve">Determined by CMIP6 stratospheric aerosol forcing data set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evspsblpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS, is now implemented as a monthly output from LPJ-GUESS. Not availablein IFS, the "potential" evaporation is not in the standard output of IFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warlind, Gijs &amp; Thomas</t>
   </si>
   <si>
     <t xml:space="preserve">lai</t>
@@ -2873,7 +2894,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2884,6 +2905,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2997,8 +3022,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A429" activeCellId="0" sqref="A429"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A420" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D433" activeCellId="0" sqref="D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7427,48 +7452,54 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>458</v>
+      </c>
       <c r="B371" s="0" t="s">
-        <v>458</v>
+        <v>321</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>307</v>
+        <v>459</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>308</v>
+        <v>460</v>
       </c>
       <c r="E371" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>301</v>
+        <v>461</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>458</v>
+      </c>
       <c r="B372" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="D372" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="E372" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>301</v>
+        <v>461</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>321</v>
+        <v>463</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>461</v>
+        <v>307</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>462</v>
+        <v>308</v>
       </c>
       <c r="E373" s="0" t="s">
         <v>300</v>
@@ -7482,10 +7513,10 @@
         <v>312</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E374" s="0" t="s">
         <v>300</v>
@@ -7496,13 +7527,13 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E375" s="0" t="s">
         <v>300</v>
@@ -7516,10 +7547,10 @@
         <v>312</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E376" s="0" t="s">
         <v>300</v>
@@ -7533,10 +7564,10 @@
         <v>312</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E377" s="0" t="s">
         <v>300</v>
@@ -7550,10 +7581,10 @@
         <v>312</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E378" s="0" t="s">
         <v>300</v>
@@ -7567,10 +7598,10 @@
         <v>312</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E379" s="0" t="s">
         <v>300</v>
@@ -7584,10 +7615,10 @@
         <v>312</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E380" s="0" t="s">
         <v>300</v>
@@ -7601,10 +7632,10 @@
         <v>312</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E381" s="0" t="s">
         <v>300</v>
@@ -7618,10 +7649,10 @@
         <v>312</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E382" s="0" t="s">
         <v>300</v>
@@ -7635,10 +7666,10 @@
         <v>312</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E383" s="0" t="s">
         <v>300</v>
@@ -7652,10 +7683,10 @@
         <v>312</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E384" s="0" t="s">
         <v>300</v>
@@ -7669,10 +7700,10 @@
         <v>312</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E385" s="0" t="s">
         <v>300</v>
@@ -7686,15 +7717,32 @@
         <v>312</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E386" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F386" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E387" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F387" s="0" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7703,10 +7751,10 @@
         <v>312</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E388" s="0" t="s">
         <v>300</v>
@@ -7716,37 +7764,18 @@
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B389" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C389" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="D389" s="0" t="s">
-        <v>492</v>
+      <c r="A389" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B389" s="3"/>
+      <c r="C389" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>300</v>
+        <v>495</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B390" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C390" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="D390" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="E390" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F390" s="0" t="s">
-        <v>301</v>
+        <v>496</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7754,10 +7783,10 @@
         <v>312</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E391" s="0" t="s">
         <v>300</v>
@@ -7771,10 +7800,10 @@
         <v>312</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="E392" s="0" t="s">
         <v>300</v>
@@ -7783,15 +7812,32 @@
         <v>301</v>
       </c>
     </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D393" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E393" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F393" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="0" t="s">
-        <v>496</v>
+        <v>312</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>307</v>
+        <v>501</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>308</v>
+        <v>502</v>
       </c>
       <c r="E394" s="0" t="s">
         <v>300</v>
@@ -7800,32 +7846,32 @@
         <v>301</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B396" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="C396" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D396" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E396" s="0" t="s">
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E395" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="F396" s="0" t="s">
+      <c r="F395" s="0" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="0" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>390</v>
+        <v>307</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>391</v>
+        <v>308</v>
       </c>
       <c r="E397" s="0" t="s">
         <v>300</v>
@@ -7834,32 +7880,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B398" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="C398" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="D398" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="E398" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F398" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>498</v>
+        <v>304</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>499</v>
+        <v>334</v>
       </c>
       <c r="E399" s="0" t="s">
         <v>300</v>
@@ -7870,13 +7899,13 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="0" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>501</v>
+        <v>391</v>
       </c>
       <c r="E400" s="0" t="s">
         <v>300</v>
@@ -7887,13 +7916,13 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="0" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>298</v>
+        <v>392</v>
       </c>
       <c r="D401" s="0" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="E401" s="0" t="s">
         <v>300</v>
@@ -7904,13 +7933,13 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="0" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="E402" s="0" t="s">
         <v>300</v>
@@ -7919,15 +7948,32 @@
         <v>301</v>
       </c>
     </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E403" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F403" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>502</v>
+        <v>298</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>503</v>
+        <v>428</v>
       </c>
       <c r="E404" s="0" t="s">
         <v>300</v>
@@ -7938,13 +7984,13 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="E405" s="0" t="s">
         <v>300</v>
@@ -7958,13 +8004,13 @@
         <v>312</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>508</v>
+        <v>300</v>
       </c>
       <c r="F407" s="0" t="s">
         <v>301</v>
@@ -7975,47 +8021,30 @@
         <v>312</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E408" s="0" t="s">
-        <v>508</v>
+        <v>300</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C409" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="D409" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="E409" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="F409" s="0" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="0" t="s">
-        <v>513</v>
+        <v>312</v>
       </c>
       <c r="C410" s="0" t="s">
         <v>514</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>299</v>
+        <v>515</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F410" s="0" t="s">
         <v>301</v>
@@ -8023,16 +8052,16 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="0" t="s">
-        <v>513</v>
+        <v>312</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D411" s="0" t="s">
-        <v>303</v>
+        <v>518</v>
       </c>
       <c r="E411" s="0" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="F411" s="0" t="s">
         <v>301</v>
@@ -8040,16 +8069,16 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="0" t="s">
-        <v>516</v>
+        <v>312</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F412" s="0" t="s">
         <v>301</v>
@@ -8057,16 +8086,16 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>518</v>
+        <v>299</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F413" s="0" t="s">
         <v>301</v>
@@ -8074,16 +8103,16 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="0" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E414" s="0" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F414" s="0" t="s">
         <v>301</v>
@@ -8091,16 +8120,16 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="0" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F415" s="0" t="s">
         <v>301</v>
@@ -8108,16 +8137,16 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="0" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F416" s="0" t="s">
         <v>301</v>
@@ -8125,16 +8154,16 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="0" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C417" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E417" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="D417" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="E417" s="0" t="s">
-        <v>508</v>
       </c>
       <c r="F417" s="0" t="s">
         <v>301</v>
@@ -8142,16 +8171,16 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="0" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D418" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F418" s="0" t="s">
         <v>301</v>
@@ -8159,16 +8188,16 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="0" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D419" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F419" s="0" t="s">
         <v>301</v>
@@ -8176,1791 +8205,1805 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="E427" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="C427" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="E427" s="0" t="s">
-        <v>532</v>
-      </c>
       <c r="F427" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C429" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E429" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="E429" s="0" t="s">
-        <v>539</v>
-      </c>
       <c r="F429" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="E432" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="F432" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G432" s="3"/>
-      <c r="H432" s="3"/>
+        <v>549</v>
+      </c>
+      <c r="E432" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="F432" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G432" s="4"/>
+      <c r="H432" s="4"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E433" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="F433" s="0" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="0" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="0" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="0" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="0" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="0" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="0" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="0" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="0" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="0" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="0" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="0" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E510" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="0" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="0" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="0" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="0" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="0" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="0" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="0" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="0" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C533" s="0" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F533" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="0" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="0" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="0" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="0" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F541" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="0" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="0" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="0" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F548" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="0" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F550" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="0" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F552" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="0" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="0" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F555" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="0" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F556" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="0" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="0" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="0" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F559" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="0" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F560" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="0" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F561" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="0" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F562" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="0" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F563" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="0" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F564" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="0" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F565" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="0" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F566" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="0" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="0" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="0" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="0" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F570" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="0" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F571" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="0" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F573" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C574" s="0" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F574" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C575" s="0" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F575" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="0" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="0" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="0" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="0" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F580" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="0" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="0" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="0" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="0" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C585" s="0" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="F585" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="E586" s="3" t="s">
-        <v>701</v>
+        <v>707</v>
+      </c>
+      <c r="E586" s="4" t="s">
+        <v>708</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="G586" s="3"/>
-      <c r="H586" s="4"/>
+        <v>556</v>
+      </c>
+      <c r="G586" s="4"/>
+      <c r="H586" s="5"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C589" s="0" t="s">
         <v>141</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9968,10 +10011,10 @@
         <v>142</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9979,10 +10022,10 @@
         <v>140</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="F591" s="0" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9990,10 +10033,10 @@
         <v>195</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="F592" s="0" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10001,1083 +10044,1083 @@
         <v>196</v>
       </c>
       <c r="E593" s="0" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="F593" s="0" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="595" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E595" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="F595" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="G595" s="3"/>
-      <c r="H595" s="3"/>
+        <v>715</v>
+      </c>
+      <c r="E595" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F595" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="G595" s="4"/>
+      <c r="H595" s="4"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C597" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="E597" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="F597" s="5" t="s">
-        <v>713</v>
+        <v>718</v>
+      </c>
+      <c r="E597" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F597" s="6" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C598" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="E598" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="F598" s="5" t="s">
-        <v>715</v>
+      <c r="E598" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F598" s="6" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C599" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="E599" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="F599" s="5" t="s">
-        <v>715</v>
+        <v>723</v>
+      </c>
+      <c r="E599" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F599" s="6" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C605" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="E605" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="F605" s="3" t="s">
-        <v>720</v>
+        <v>725</v>
+      </c>
+      <c r="E605" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="F605" s="4" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C606" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="E606" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="F606" s="3" t="s">
-        <v>720</v>
+        <v>728</v>
+      </c>
+      <c r="E606" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="F606" s="4" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C607" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="E607" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="F607" s="3" t="s">
-        <v>720</v>
+        <v>730</v>
+      </c>
+      <c r="E607" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F607" s="4" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C608" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="E608" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="F608" s="3" t="s">
-        <v>720</v>
+        <v>732</v>
+      </c>
+      <c r="E608" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="F608" s="4" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C609" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="E609" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="F609" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="E609" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="F609" s="3" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C610" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="E610" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="F610" s="3" t="s">
-        <v>720</v>
+        <v>736</v>
+      </c>
+      <c r="E610" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F610" s="4" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C611" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="E611" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="F611" s="3" t="s">
-        <v>720</v>
+        <v>738</v>
+      </c>
+      <c r="E611" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F611" s="4" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E615" s="7"/>
+      <c r="E615" s="8"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="E616" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="F616" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G616" s="7"/>
-      <c r="H616" s="5"/>
+        <v>741</v>
+      </c>
+      <c r="E616" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="F616" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G616" s="8"/>
+      <c r="H616" s="6"/>
     </row>
     <row r="617" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="C617" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="E617" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="F617" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G617" s="7"/>
-      <c r="H617" s="5"/>
+        <v>706</v>
+      </c>
+      <c r="C617" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="E617" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="F617" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G617" s="8"/>
+      <c r="H617" s="6"/>
     </row>
     <row r="618" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="C618" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="E618" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="F618" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G618" s="7"/>
-      <c r="H618" s="5"/>
+        <v>706</v>
+      </c>
+      <c r="C618" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="E618" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="F618" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G618" s="8"/>
+      <c r="H618" s="6"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="E619" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="F619" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G619" s="7"/>
-      <c r="H619" s="3"/>
+        <v>749</v>
+      </c>
+      <c r="E619" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="F619" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G619" s="8"/>
+      <c r="H619" s="4"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="E620" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="F620" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G620" s="7"/>
-      <c r="H620" s="3"/>
+        <v>751</v>
+      </c>
+      <c r="E620" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="F620" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G620" s="8"/>
+      <c r="H620" s="4"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="E621" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="F621" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G621" s="7"/>
-      <c r="H621" s="5"/>
+        <v>753</v>
+      </c>
+      <c r="E621" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="F621" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G621" s="8"/>
+      <c r="H621" s="6"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="E622" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="F622" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G622" s="7"/>
-      <c r="H622" s="5"/>
+        <v>755</v>
+      </c>
+      <c r="E622" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="F622" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G622" s="8"/>
+      <c r="H622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="E623" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="F623" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="G623" s="7"/>
-      <c r="H623" s="3"/>
+        <v>757</v>
+      </c>
+      <c r="E623" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="F623" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G623" s="8"/>
+      <c r="H623" s="4"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="E624" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="F624" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="G624" s="7"/>
-      <c r="H624" s="3"/>
+        <v>759</v>
+      </c>
+      <c r="E624" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="F624" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G624" s="8"/>
+      <c r="H624" s="4"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="E625" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="F625" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="G625" s="9"/>
-      <c r="H625" s="3"/>
+        <v>761</v>
+      </c>
+      <c r="E625" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="F625" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G625" s="10"/>
+      <c r="H625" s="4"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="E626" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="F626" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="G626" s="9"/>
-      <c r="H626" s="3"/>
+        <v>763</v>
+      </c>
+      <c r="E626" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="F626" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G626" s="10"/>
+      <c r="H626" s="4"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E628" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="F628" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G628" s="3"/>
-      <c r="H628" s="3"/>
+        <v>765</v>
+      </c>
+      <c r="E628" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F628" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G628" s="4"/>
+      <c r="H628" s="4"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="E629" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="F629" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G629" s="3"/>
-      <c r="H629" s="3"/>
+        <v>767</v>
+      </c>
+      <c r="E629" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F629" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G629" s="4"/>
+      <c r="H629" s="4"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="E630" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="F630" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G630" s="3"/>
-      <c r="H630" s="3"/>
+        <v>769</v>
+      </c>
+      <c r="E630" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F630" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G630" s="4"/>
+      <c r="H630" s="4"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="E631" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="F631" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G631" s="3"/>
-      <c r="H631" s="3"/>
+        <v>771</v>
+      </c>
+      <c r="E631" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F631" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G631" s="4"/>
+      <c r="H631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="E632" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="F632" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G632" s="3"/>
-      <c r="H632" s="3"/>
+        <v>772</v>
+      </c>
+      <c r="E632" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F632" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G632" s="4"/>
+      <c r="H632" s="4"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="E633" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="F633" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G633" s="3"/>
-      <c r="H633" s="3"/>
+        <v>773</v>
+      </c>
+      <c r="E633" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="F633" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G633" s="4"/>
+      <c r="H633" s="4"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="E636" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="F636" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G636" s="3"/>
-      <c r="H636" s="3"/>
+        <v>776</v>
+      </c>
+      <c r="E636" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="F636" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G636" s="4"/>
+      <c r="H636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="E637" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="F637" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G637" s="3"/>
-      <c r="H637" s="3"/>
-      <c r="I637" s="3"/>
+        <v>778</v>
+      </c>
+      <c r="E637" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F637" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G637" s="4"/>
+      <c r="H637" s="4"/>
+      <c r="I637" s="4"/>
     </row>
     <row r="638" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="E638" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="F638" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G638" s="3"/>
-      <c r="H638" s="3"/>
+        <v>780</v>
+      </c>
+      <c r="E638" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="F638" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G638" s="4"/>
+      <c r="H638" s="4"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="E639" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="F639" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G639" s="3"/>
-      <c r="H639" s="3"/>
+        <v>782</v>
+      </c>
+      <c r="E639" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F639" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G639" s="4"/>
+      <c r="H639" s="4"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="E640" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="F640" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G640" s="3"/>
-      <c r="H640" s="3"/>
+        <v>784</v>
+      </c>
+      <c r="E640" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F640" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G640" s="4"/>
+      <c r="H640" s="4"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="E641" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F641" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G641" s="3"/>
-      <c r="H641" s="3"/>
+        <v>786</v>
+      </c>
+      <c r="E641" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="F641" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G641" s="4"/>
+      <c r="H641" s="4"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="E642" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="F642" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G642" s="3"/>
-      <c r="H642" s="3"/>
+        <v>788</v>
+      </c>
+      <c r="E642" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F642" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G642" s="4"/>
+      <c r="H642" s="4"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="E643" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="F643" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G643" s="3"/>
-      <c r="H643" s="3"/>
-      <c r="I643" s="3"/>
+        <v>790</v>
+      </c>
+      <c r="E643" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="F643" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G643" s="4"/>
+      <c r="H643" s="4"/>
+      <c r="I643" s="4"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="E644" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="F644" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G644" s="3"/>
-      <c r="H644" s="3"/>
+        <v>792</v>
+      </c>
+      <c r="E644" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="F644" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G644" s="4"/>
+      <c r="H644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="E645" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="F645" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G645" s="3"/>
-      <c r="H645" s="3"/>
+        <v>794</v>
+      </c>
+      <c r="E645" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="F645" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G645" s="4"/>
+      <c r="H645" s="4"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="E646" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F646" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G646" s="3"/>
-      <c r="H646" s="3"/>
+        <v>796</v>
+      </c>
+      <c r="E646" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="F646" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G646" s="4"/>
+      <c r="H646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="E647" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="F647" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G647" s="3"/>
-      <c r="H647" s="3"/>
-      <c r="I647" s="3"/>
+        <v>798</v>
+      </c>
+      <c r="E647" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="F647" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G647" s="4"/>
+      <c r="H647" s="4"/>
+      <c r="I647" s="4"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="E648" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="F648" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G648" s="3"/>
-      <c r="H648" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="E648" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="F648" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G648" s="4"/>
+      <c r="H648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="E649" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="F649" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G649" s="3"/>
-      <c r="H649" s="3"/>
+        <v>802</v>
+      </c>
+      <c r="E649" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="F649" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G649" s="4"/>
+      <c r="H649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="E650" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F650" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="G650" s="3"/>
-      <c r="H650" s="3"/>
+        <v>805</v>
+      </c>
+      <c r="E650" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="F650" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="G650" s="4"/>
+      <c r="H650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="E651" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F651" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="G651" s="3"/>
-      <c r="H651" s="3"/>
+        <v>808</v>
+      </c>
+      <c r="E651" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="F651" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="G651" s="4"/>
+      <c r="H651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="E652" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="F652" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="G652" s="3"/>
-      <c r="H652" s="3"/>
+        <v>810</v>
+      </c>
+      <c r="E652" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="F652" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="G652" s="4"/>
+      <c r="H652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="E653" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="F653" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="G653" s="3"/>
-      <c r="H653" s="3"/>
+        <v>812</v>
+      </c>
+      <c r="E653" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="F653" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="G653" s="4"/>
+      <c r="H653" s="4"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C654" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="E654" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F654" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="E654" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="F654" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="G654" s="3"/>
-      <c r="H654" s="3"/>
+      <c r="G654" s="4"/>
+      <c r="H654" s="4"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="C655" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="E655" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="C655" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="E655" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F655" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G655" s="3"/>
-      <c r="H655" s="3"/>
+      <c r="F655" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G655" s="4"/>
+      <c r="H655" s="4"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="E656" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="F656" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G656" s="3"/>
-      <c r="H656" s="3"/>
+        <v>818</v>
+      </c>
+      <c r="E656" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F656" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G656" s="4"/>
+      <c r="H656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="E657" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="F657" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G657" s="3"/>
-      <c r="H657" s="5"/>
+        <v>820</v>
+      </c>
+      <c r="E657" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="F657" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G657" s="4"/>
+      <c r="H657" s="6"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="E658" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F658" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G658" s="3"/>
-      <c r="H658" s="3"/>
+        <v>822</v>
+      </c>
+      <c r="E658" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="F658" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G658" s="4"/>
+      <c r="H658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="E659" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="G659" s="10"/>
+        <v>824</v>
+      </c>
+      <c r="E659" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="G659" s="11"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="E660" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="F660" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G660" s="3"/>
-      <c r="H660" s="5"/>
+        <v>826</v>
+      </c>
+      <c r="E660" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="F660" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G660" s="4"/>
+      <c r="H660" s="6"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="E661" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="F661" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="G661" s="3"/>
-      <c r="H661" s="3"/>
+        <v>828</v>
+      </c>
+      <c r="E661" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="F661" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G661" s="4"/>
+      <c r="H661" s="4"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="E662" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="F662" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="G662" s="3"/>
-      <c r="H662" s="3"/>
+        <v>830</v>
+      </c>
+      <c r="E662" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F662" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G662" s="4"/>
+      <c r="H662" s="4"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="E664" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="F664" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G664" s="3"/>
-      <c r="H664" s="3"/>
+        <v>833</v>
+      </c>
+      <c r="E664" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F664" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G664" s="4"/>
+      <c r="H664" s="4"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="E665" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="F665" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G665" s="3"/>
-      <c r="H665" s="3"/>
+        <v>836</v>
+      </c>
+      <c r="E665" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="F665" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G665" s="4"/>
+      <c r="H665" s="4"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="E666" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="F666" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="G666" s="3"/>
-      <c r="H666" s="3"/>
+        <v>838</v>
+      </c>
+      <c r="E666" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="F666" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G666" s="4"/>
+      <c r="H666" s="4"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="E667" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F667" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G667" s="3"/>
-      <c r="H667" s="3"/>
+        <v>840</v>
+      </c>
+      <c r="E667" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="F667" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G667" s="4"/>
+      <c r="H667" s="4"/>
     </row>
     <row r="668" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="E668" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="F668" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G668" s="3"/>
-      <c r="H668" s="3"/>
+        <v>842</v>
+      </c>
+      <c r="E668" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F668" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G668" s="4"/>
+      <c r="H668" s="4"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="E669" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="F669" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G669" s="3"/>
-      <c r="H669" s="3"/>
+        <v>844</v>
+      </c>
+      <c r="E669" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="F669" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G669" s="4"/>
+      <c r="H669" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="E670" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="F670" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G670" s="3"/>
-      <c r="H670" s="3"/>
+        <v>846</v>
+      </c>
+      <c r="E670" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="F670" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G670" s="4"/>
+      <c r="H670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="E671" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="F671" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="G671" s="3"/>
-      <c r="H671" s="3"/>
+        <v>848</v>
+      </c>
+      <c r="E671" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="F671" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="G671" s="4"/>
+      <c r="H671" s="4"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="E672" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="F672" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G672" s="3"/>
-      <c r="H672" s="5"/>
+        <v>851</v>
+      </c>
+      <c r="E672" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F672" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G672" s="4"/>
+      <c r="H672" s="6"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="E673" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="F673" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G673" s="3"/>
-      <c r="H673" s="5"/>
+        <v>853</v>
+      </c>
+      <c r="E673" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F673" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G673" s="4"/>
+      <c r="H673" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="E677" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="F677" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G677" s="3"/>
-      <c r="H677" s="3"/>
+        <v>854</v>
+      </c>
+      <c r="E677" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="F677" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G677" s="4"/>
+      <c r="H677" s="4"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="E678" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F678" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G678" s="3"/>
-      <c r="H678" s="3"/>
+        <v>856</v>
+      </c>
+      <c r="E678" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="F678" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G678" s="4"/>
+      <c r="H678" s="4"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="E679" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="F679" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G679" s="3"/>
-      <c r="H679" s="3"/>
+        <v>858</v>
+      </c>
+      <c r="E679" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="F679" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G679" s="4"/>
+      <c r="H679" s="4"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="E680" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="F680" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G680" s="3"/>
-      <c r="H680" s="3"/>
+        <v>860</v>
+      </c>
+      <c r="E680" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="F680" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G680" s="4"/>
+      <c r="H680" s="4"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="E681" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F681" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G681" s="3"/>
-      <c r="H681" s="3"/>
+        <v>862</v>
+      </c>
+      <c r="E681" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="F681" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G681" s="4"/>
+      <c r="H681" s="4"/>
     </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="870">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -2195,6 +2195,24 @@
   </si>
   <si>
     <t xml:space="preserve">Available in LPJ-GUESS, but the field will be the same precipitation over crops as for the rest of the gridcell. Available in LPJ-GUESS, but the field will be the same precipitation over crops as for the rest of the gridcell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS. Is now implemented as a monthly output from LPJ-GUESS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS.  Already exist as - evspsblveg - Total Evaporation of intercepted water from Canopy [kg m-2 s-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS.  Already exist as - tran - Transpiration [kg m-2 s-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in LPJ-GUESS.  Is now implemented as a monthly output from LPJ-GUESS.</t>
   </si>
   <si>
     <t xml:space="preserve">Not available in LPJ-GUESS.  Available in PISCES: expfe</t>
@@ -3022,8 +3040,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A420" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D433" activeCellId="0" sqref="D433"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A569" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A591" activeCellId="0" sqref="591:591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9995,314 +10013,312 @@
       <c r="G586" s="4"/>
       <c r="H586" s="5"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="E587" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="F587" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="G587" s="4"/>
+      <c r="H587" s="5"/>
+    </row>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E588" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F588" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="G588" s="4"/>
+      <c r="H588" s="5"/>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>706</v>
+      </c>
       <c r="C589" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E589" s="2" t="s">
-        <v>709</v>
+        <v>659</v>
+      </c>
+      <c r="E589" s="4" t="s">
+        <v>713</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>710</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="G589" s="4"/>
+      <c r="H589" s="5"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="s">
+        <v>706</v>
+      </c>
       <c r="C590" s="0" t="s">
-        <v>142</v>
+        <v>551</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E591" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="F591" s="0" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C592" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="E592" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="F592" s="0" t="s">
-        <v>710</v>
+        <v>556</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C593" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F593" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E594" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="F594" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E595" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="F595" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C596" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E596" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="F596" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E593" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="F593" s="0" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="595" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C595" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="E595" s="4" t="s">
+      <c r="E597" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="F597" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="F595" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="G595" s="4"/>
-      <c r="H595" s="4"/>
-    </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E597" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="F597" s="6" t="s">
+    </row>
+    <row r="599" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="0" t="s">
+      <c r="C599" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E599" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F599" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G599" s="4"/>
+      <c r="H599" s="4"/>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C601" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E601" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F601" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C602" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="E598" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="F598" s="6" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="E599" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="F599" s="6" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="E605" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="F605" s="4" t="s">
+      <c r="E602" s="4" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="0" t="s">
+      <c r="F602" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="E606" s="7" t="s">
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C603" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="F606" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="0" t="s">
+      <c r="E603" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="E607" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="F607" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="E608" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="F608" s="4" t="s">
-        <v>727</v>
+      <c r="F603" s="6" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C609" s="0" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E609" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F609" s="4" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C610" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="E610" s="4" t="s">
-        <v>737</v>
+        <v>734</v>
+      </c>
+      <c r="E610" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="F610" s="4" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C611" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="E611" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="F611" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C612" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="E611" s="4" t="s">
+      <c r="E612" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="F611" s="4" t="s">
-        <v>727</v>
+      <c r="F612" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C613" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="E613" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F613" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C614" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E614" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="F614" s="4" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E615" s="8"/>
-    </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="C616" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="E616" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="F616" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="G616" s="8"/>
-      <c r="H616" s="6"/>
-    </row>
-    <row r="617" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="C617" s="9" t="s">
+      <c r="C615" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="E617" s="8" t="s">
+      <c r="E615" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="F617" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="G617" s="8"/>
-      <c r="H617" s="6"/>
-    </row>
-    <row r="618" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="C618" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="E618" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="F618" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="G618" s="8"/>
-      <c r="H618" s="6"/>
+      <c r="F615" s="4" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="C619" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="E619" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="F619" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G619" s="8"/>
-      <c r="H619" s="4"/>
+      <c r="E619" s="8"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>541</v>
+        <v>746</v>
       </c>
       <c r="C620" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="E620" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="F620" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G620" s="8"/>
+      <c r="H620" s="6"/>
+    </row>
+    <row r="621" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C621" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="E621" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="E620" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="F620" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G620" s="8"/>
-      <c r="H620" s="4"/>
-    </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="C621" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="E621" s="8" t="s">
-        <v>754</v>
-      </c>
       <c r="F621" s="6" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="G621" s="8"/>
       <c r="H621" s="6"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="C622" s="0" t="s">
-        <v>755</v>
+        <v>706</v>
+      </c>
+      <c r="C622" s="9" t="s">
+        <v>752</v>
       </c>
       <c r="E622" s="8" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="G622" s="8"/>
       <c r="H622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>541</v>
+        <v>754</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E623" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F623" s="4" t="s">
-        <v>743</v>
+        <v>496</v>
       </c>
       <c r="G623" s="8"/>
       <c r="H623" s="4"/>
@@ -10312,13 +10328,13 @@
         <v>541</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E624" s="8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F624" s="4" t="s">
-        <v>743</v>
+        <v>496</v>
       </c>
       <c r="G624" s="8"/>
       <c r="H624" s="4"/>
@@ -10328,106 +10344,106 @@
         <v>541</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="E625" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="F625" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="G625" s="10"/>
-      <c r="H625" s="4"/>
+        <v>759</v>
+      </c>
+      <c r="E625" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="F625" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G625" s="8"/>
+      <c r="H625" s="6"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
         <v>541</v>
       </c>
       <c r="C626" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E626" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="F626" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G626" s="8"/>
+      <c r="H626" s="6"/>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C627" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="E626" s="10" t="s">
+      <c r="E627" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="F626" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="G626" s="10"/>
-      <c r="H626" s="4"/>
+      <c r="F627" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="G627" s="8"/>
+      <c r="H627" s="4"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>458</v>
+        <v>541</v>
       </c>
       <c r="C628" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="E628" s="4" t="s">
+      <c r="E628" s="8" t="s">
         <v>766</v>
       </c>
       <c r="F628" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G628" s="4"/>
+        <v>749</v>
+      </c>
+      <c r="G628" s="8"/>
       <c r="H628" s="4"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>458</v>
+        <v>541</v>
       </c>
       <c r="C629" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="E629" s="4" t="s">
+      <c r="E629" s="10" t="s">
         <v>768</v>
       </c>
       <c r="F629" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G629" s="4"/>
+        <v>749</v>
+      </c>
+      <c r="G629" s="10"/>
       <c r="H629" s="4"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>458</v>
+        <v>541</v>
       </c>
       <c r="C630" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="E630" s="4" t="s">
+      <c r="E630" s="10" t="s">
         <v>770</v>
       </c>
       <c r="F630" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G630" s="4"/>
+        <v>749</v>
+      </c>
+      <c r="G630" s="10"/>
       <c r="H630" s="4"/>
-    </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C631" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="E631" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="F631" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G631" s="4"/>
-      <c r="H631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>740</v>
+        <v>458</v>
       </c>
       <c r="C632" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="E632" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="E632" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="F632" s="4" t="s">
         <v>496</v>
@@ -10437,7 +10453,7 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>740</v>
+        <v>458</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>773</v>
@@ -10451,196 +10467,195 @@
       <c r="G633" s="4"/>
       <c r="H633" s="4"/>
     </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C634" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="E634" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F634" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G634" s="4"/>
+      <c r="H634" s="4"/>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C635" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="E635" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F635" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G635" s="4"/>
+      <c r="H635" s="4"/>
+    </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>775</v>
+        <v>746</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E636" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F636" s="4" t="s">
-        <v>720</v>
+        <v>496</v>
       </c>
       <c r="G636" s="4"/>
       <c r="H636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>775</v>
+        <v>746</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F637" s="4" t="s">
-        <v>720</v>
+        <v>496</v>
       </c>
       <c r="G637" s="4"/>
       <c r="H637" s="4"/>
-      <c r="I637" s="4"/>
-    </row>
-    <row r="638" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="C638" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="E638" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="F638" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="G638" s="4"/>
-      <c r="H638" s="4"/>
-    </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="C639" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="E639" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="F639" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="G639" s="4"/>
-      <c r="H639" s="4"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F640" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G640" s="4"/>
       <c r="H640" s="4"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E641" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F641" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G641" s="4"/>
       <c r="H641" s="4"/>
-    </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I641" s="4"/>
+    </row>
+    <row r="642" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E642" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F642" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E643" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F643" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
-      <c r="I643" s="4"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F644" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E645" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F645" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G645" s="4"/>
       <c r="H645" s="4"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E646" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F646" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G646" s="4"/>
       <c r="H646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E647" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F647" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
@@ -10648,484 +10663,545 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E648" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F648" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E649" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F649" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E650" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F650" s="4" t="s">
-        <v>807</v>
+        <v>726</v>
       </c>
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="C651" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="C651" s="0" t="s">
-        <v>808</v>
-      </c>
       <c r="E651" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F651" s="4" t="s">
-        <v>807</v>
+        <v>726</v>
       </c>
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
+      <c r="I651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E652" s="4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F652" s="4" t="s">
-        <v>807</v>
+        <v>726</v>
       </c>
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E653" s="4" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F653" s="4" t="s">
-        <v>807</v>
+        <v>726</v>
       </c>
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E654" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F654" s="4" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="E655" s="4" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F655" s="4" t="s">
-        <v>496</v>
+        <v>813</v>
       </c>
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C656" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="E656" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="C656" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="E656" s="4" t="s">
-        <v>819</v>
-      </c>
       <c r="F656" s="4" t="s">
-        <v>496</v>
+        <v>813</v>
       </c>
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>458</v>
+        <v>810</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="F657" s="6" t="s">
-        <v>743</v>
+        <v>819</v>
+      </c>
+      <c r="F657" s="4" t="s">
+        <v>813</v>
       </c>
       <c r="G657" s="4"/>
-      <c r="H657" s="6"/>
+      <c r="H657" s="4"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>458</v>
+        <v>810</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E658" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F658" s="4" t="s">
-        <v>496</v>
+        <v>813</v>
       </c>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>458</v>
+        <v>822</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="E659" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="G659" s="11"/>
+        <v>814</v>
+      </c>
+      <c r="E659" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F659" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G659" s="4"/>
+      <c r="H659" s="4"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>706</v>
+        <v>823</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E660" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="F660" s="6" t="s">
-        <v>743</v>
+        <v>825</v>
+      </c>
+      <c r="F660" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="G660" s="4"/>
-      <c r="H660" s="6"/>
+      <c r="H660" s="4"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E661" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="F661" s="4" t="s">
-        <v>743</v>
+        <v>827</v>
+      </c>
+      <c r="F661" s="6" t="s">
+        <v>749</v>
       </c>
       <c r="G661" s="4"/>
-      <c r="H661" s="4"/>
+      <c r="H661" s="6"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E662" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F662" s="4" t="s">
-        <v>743</v>
+        <v>496</v>
       </c>
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
     </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C663" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="E663" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="G663" s="11"/>
+    </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C664" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C664" s="0" t="s">
+      <c r="E664" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="E664" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="F664" s="4" t="s">
-        <v>835</v>
+      <c r="F664" s="6" t="s">
+        <v>749</v>
       </c>
       <c r="G664" s="4"/>
-      <c r="H664" s="4"/>
+      <c r="H664" s="6"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>832</v>
+        <v>541</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E665" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F665" s="4" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>832</v>
+        <v>541</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E666" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F666" s="4" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="C667" s="0" t="s">
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C668" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="E668" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="E667" s="4" t="s">
+      <c r="F668" s="4" t="s">
         <v>841</v>
-      </c>
-      <c r="F667" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="G667" s="4"/>
-      <c r="H667" s="4"/>
-    </row>
-    <row r="668" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="C668" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="E668" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="F668" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>775</v>
+        <v>838</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E669" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F669" s="4" t="s">
-        <v>720</v>
+        <v>841</v>
       </c>
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>775</v>
+        <v>838</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E670" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F670" s="4" t="s">
-        <v>720</v>
+        <v>749</v>
       </c>
       <c r="G670" s="4"/>
       <c r="H670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E671" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F671" s="4" t="s">
-        <v>807</v>
+        <v>726</v>
       </c>
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>850</v>
+        <v>781</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E672" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="F672" s="6" t="s">
-        <v>743</v>
+        <v>849</v>
+      </c>
+      <c r="F672" s="4" t="s">
+        <v>726</v>
       </c>
       <c r="G672" s="4"/>
-      <c r="H672" s="6"/>
+      <c r="H672" s="4"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="C673" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="C673" s="0" t="s">
+      <c r="E673" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="F673" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G673" s="4"/>
+      <c r="H673" s="4"/>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="C674" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="E674" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="E673" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="F673" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="G673" s="4"/>
-      <c r="H673" s="6"/>
+      <c r="F674" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G674" s="4"/>
+      <c r="H674" s="4"/>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C675" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="E675" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="F675" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G675" s="4"/>
+      <c r="H675" s="4"/>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="C676" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="E676" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="F676" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G676" s="4"/>
+      <c r="H676" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="E677" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="F677" s="4" t="s">
-        <v>835</v>
+        <v>858</v>
+      </c>
+      <c r="F677" s="6" t="s">
+        <v>749</v>
       </c>
       <c r="G677" s="4"/>
-      <c r="H677" s="4"/>
-    </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C678" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="E678" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="F678" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="G678" s="4"/>
-      <c r="H678" s="4"/>
-    </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C679" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="E679" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="F679" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="G679" s="4"/>
-      <c r="H679" s="4"/>
-    </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C680" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="E680" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="F680" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="G680" s="4"/>
-      <c r="H680" s="4"/>
+      <c r="H677" s="6"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E681" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F681" s="4" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="E682" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="F682" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G682" s="4"/>
+      <c r="H682" s="4"/>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C683" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="E683" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="F683" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G683" s="4"/>
+      <c r="H683" s="4"/>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="E684" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="F684" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G684" s="4"/>
+      <c r="H684" s="4"/>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C685" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="E685" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F685" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G685" s="4"/>
+      <c r="H685" s="4"/>
+    </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">agessc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified in one of the shaconemo (240) ping files. </t>
+    <t xml:space="preserve">Identified in one of the shaconemo (246) ping files. </t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Reerink</t>
@@ -238,6 +238,9 @@
     <t xml:space="preserve">rsntds</t>
   </si>
   <si>
+    <t xml:space="preserve">sf6</t>
+  </si>
+  <si>
     <t xml:space="preserve">sfdsi</t>
   </si>
   <si>
@@ -497,9 +500,6 @@
   </si>
   <si>
     <t xml:space="preserve">intpbsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intpcalcite</t>
   </si>
   <si>
     <t xml:space="preserve">intpn2</t>
@@ -3040,8 +3040,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A569" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A591" activeCellId="0" sqref="591:591"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A269" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6012,76 +6012,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="E273" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="F273" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="E274" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F274" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C276" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C277" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C278" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="E276" s="0" t="s">
+      <c r="E278" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="F276" s="0" t="s">
+      <c r="F278" s="0" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C278" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="E278" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="F278" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="E279" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F279" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6089,10 +6061,10 @@
         <v>285</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F280" s="0" t="s">
         <v>288</v>
@@ -6103,10 +6075,10 @@
         <v>285</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F281" s="0" t="s">
         <v>288</v>
@@ -6117,47 +6089,41 @@
         <v>285</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F282" s="0" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C289" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="D289" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="E289" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C290" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D290" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="E290" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>301</v>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,10 +6131,10 @@
         <v>297</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E291" s="0" t="s">
         <v>300</v>
@@ -6179,13 +6145,13 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="0" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E292" s="0" t="s">
         <v>300</v>
@@ -6194,54 +6160,54 @@
         <v>301</v>
       </c>
     </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="0" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E294" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="F294" s="0" t="s">
+      <c r="F294" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="0" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E296" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C297" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D297" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="E297" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F297" s="0" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6250,15 +6216,32 @@
         <v>312</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E298" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F298" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F299" s="0" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6267,32 +6250,15 @@
         <v>312</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E300" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="E301" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F301" s="0" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6301,10 +6267,10 @@
         <v>312</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E302" s="0" t="s">
         <v>300</v>
@@ -6318,10 +6284,10 @@
         <v>321</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E303" s="0" t="s">
         <v>300</v>
@@ -6332,13 +6298,13 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="0" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E304" s="0" t="s">
         <v>300</v>
@@ -6352,10 +6318,10 @@
         <v>321</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E305" s="0" t="s">
         <v>300</v>
@@ -6369,10 +6335,10 @@
         <v>321</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E306" s="0" t="s">
         <v>300</v>
@@ -6386,10 +6352,10 @@
         <v>321</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E307" s="0" t="s">
         <v>300</v>
@@ -6403,10 +6369,10 @@
         <v>321</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E308" s="0" t="s">
         <v>300</v>
@@ -6420,10 +6386,10 @@
         <v>321</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E309" s="0" t="s">
         <v>300</v>
@@ -6434,13 +6400,13 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E310" s="0" t="s">
         <v>300</v>
@@ -6454,10 +6420,10 @@
         <v>321</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E311" s="0" t="s">
         <v>300</v>
@@ -6468,13 +6434,13 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="0" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E312" s="0" t="s">
         <v>300</v>
@@ -6488,10 +6454,10 @@
         <v>321</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E313" s="0" t="s">
         <v>300</v>
@@ -6502,13 +6468,13 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E314" s="0" t="s">
         <v>300</v>
@@ -6519,13 +6485,13 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E315" s="0" t="s">
         <v>300</v>
@@ -6539,10 +6505,10 @@
         <v>312</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E316" s="0" t="s">
         <v>300</v>
@@ -6556,10 +6522,10 @@
         <v>312</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E317" s="0" t="s">
         <v>300</v>
@@ -6573,10 +6539,10 @@
         <v>312</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E318" s="0" t="s">
         <v>300</v>
@@ -6590,10 +6556,10 @@
         <v>312</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E319" s="0" t="s">
         <v>300</v>
@@ -6607,10 +6573,10 @@
         <v>312</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E320" s="0" t="s">
         <v>300</v>
@@ -6624,10 +6590,10 @@
         <v>312</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E321" s="0" t="s">
         <v>300</v>
@@ -6641,10 +6607,10 @@
         <v>312</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E322" s="0" t="s">
         <v>300</v>
@@ -6658,10 +6624,10 @@
         <v>312</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E323" s="0" t="s">
         <v>300</v>
@@ -6675,10 +6641,10 @@
         <v>312</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E324" s="0" t="s">
         <v>300</v>
@@ -6692,10 +6658,10 @@
         <v>312</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E325" s="0" t="s">
         <v>300</v>
@@ -6709,10 +6675,10 @@
         <v>312</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E326" s="0" t="s">
         <v>300</v>
@@ -6726,10 +6692,10 @@
         <v>312</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E327" s="0" t="s">
         <v>300</v>
@@ -6743,10 +6709,10 @@
         <v>312</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E328" s="0" t="s">
         <v>300</v>
@@ -6757,13 +6723,13 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="0" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E329" s="0" t="s">
         <v>300</v>
@@ -6777,10 +6743,10 @@
         <v>312</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E330" s="0" t="s">
         <v>300</v>
@@ -6791,13 +6757,13 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E331" s="0" t="s">
         <v>300</v>
@@ -6811,10 +6777,10 @@
         <v>312</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E332" s="0" t="s">
         <v>300</v>
@@ -6828,10 +6794,10 @@
         <v>312</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E333" s="0" t="s">
         <v>300</v>
@@ -6845,10 +6811,10 @@
         <v>312</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E334" s="0" t="s">
         <v>300</v>
@@ -6862,10 +6828,10 @@
         <v>312</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E335" s="0" t="s">
         <v>300</v>
@@ -6876,13 +6842,13 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="0" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E336" s="0" t="s">
         <v>300</v>
@@ -6893,13 +6859,13 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="0" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E337" s="0" t="s">
         <v>300</v>
@@ -6913,10 +6879,10 @@
         <v>321</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E338" s="0" t="s">
         <v>300</v>
@@ -6930,10 +6896,10 @@
         <v>321</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E339" s="0" t="s">
         <v>300</v>
@@ -6947,10 +6913,10 @@
         <v>321</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E340" s="0" t="s">
         <v>300</v>
@@ -6964,10 +6930,10 @@
         <v>321</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E341" s="0" t="s">
         <v>300</v>
@@ -6981,10 +6947,10 @@
         <v>321</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E342" s="0" t="s">
         <v>300</v>
@@ -6998,10 +6964,10 @@
         <v>321</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E343" s="0" t="s">
         <v>300</v>
@@ -7015,10 +6981,10 @@
         <v>321</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>300</v>
@@ -7032,10 +6998,10 @@
         <v>321</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E345" s="0" t="s">
         <v>300</v>
@@ -7049,10 +7015,10 @@
         <v>321</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E346" s="0" t="s">
         <v>300</v>
@@ -7066,10 +7032,10 @@
         <v>321</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E347" s="0" t="s">
         <v>300</v>
@@ -7083,10 +7049,10 @@
         <v>321</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E348" s="0" t="s">
         <v>300</v>
@@ -7100,10 +7066,10 @@
         <v>321</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E349" s="0" t="s">
         <v>300</v>
@@ -7117,10 +7083,10 @@
         <v>321</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E350" s="0" t="s">
         <v>300</v>
@@ -7134,10 +7100,10 @@
         <v>321</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E351" s="0" t="s">
         <v>300</v>
@@ -7151,10 +7117,10 @@
         <v>321</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E352" s="0" t="s">
         <v>300</v>
@@ -7168,10 +7134,10 @@
         <v>321</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E353" s="0" t="s">
         <v>300</v>
@@ -7185,10 +7151,10 @@
         <v>321</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E354" s="0" t="s">
         <v>300</v>
@@ -7202,10 +7168,10 @@
         <v>321</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>298</v>
+        <v>424</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E355" s="0" t="s">
         <v>300</v>
@@ -7216,13 +7182,13 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E356" s="0" t="s">
         <v>300</v>
@@ -7233,13 +7199,13 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>431</v>
+        <v>298</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E357" s="0" t="s">
         <v>300</v>
@@ -7253,10 +7219,10 @@
         <v>312</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E358" s="0" t="s">
         <v>300</v>
@@ -7270,10 +7236,10 @@
         <v>312</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E359" s="0" t="s">
         <v>300</v>
@@ -7287,10 +7253,10 @@
         <v>312</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E360" s="0" t="s">
         <v>300</v>
@@ -7304,10 +7270,10 @@
         <v>312</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E361" s="0" t="s">
         <v>300</v>
@@ -7321,10 +7287,10 @@
         <v>312</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E362" s="0" t="s">
         <v>300</v>
@@ -7338,10 +7304,10 @@
         <v>312</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E363" s="0" t="s">
         <v>300</v>
@@ -7355,10 +7321,10 @@
         <v>312</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E364" s="0" t="s">
         <v>300</v>
@@ -7372,10 +7338,10 @@
         <v>312</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E365" s="0" t="s">
         <v>300</v>
@@ -7389,10 +7355,10 @@
         <v>312</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E366" s="0" t="s">
         <v>300</v>
@@ -7406,10 +7372,10 @@
         <v>312</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E367" s="0" t="s">
         <v>300</v>
@@ -7423,10 +7389,10 @@
         <v>312</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E368" s="0" t="s">
         <v>300</v>
@@ -7437,13 +7403,13 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E369" s="0" t="s">
         <v>300</v>
@@ -7454,13 +7420,13 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="0" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E370" s="0" t="s">
         <v>300</v>
@@ -7470,88 +7436,88 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
-        <v>458</v>
-      </c>
       <c r="B371" s="0" t="s">
         <v>321</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E371" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>461</v>
+        <v>301</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
-        <v>458</v>
-      </c>
       <c r="B372" s="0" t="s">
         <v>321</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>428</v>
+        <v>456</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>457</v>
       </c>
       <c r="E372" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>461</v>
+        <v>301</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>458</v>
+      </c>
       <c r="B373" s="0" t="s">
-        <v>463</v>
+        <v>321</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>307</v>
+        <v>459</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>308</v>
+        <v>460</v>
       </c>
       <c r="E373" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>301</v>
+        <v>461</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>458</v>
+      </c>
       <c r="B374" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="D374" s="0" t="s">
-        <v>465</v>
+        <v>462</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="E374" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>301</v>
+        <v>461</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="0" t="s">
-        <v>321</v>
+        <v>463</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>466</v>
+        <v>307</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>467</v>
+        <v>308</v>
       </c>
       <c r="E375" s="0" t="s">
         <v>300</v>
@@ -7565,10 +7531,10 @@
         <v>312</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E376" s="0" t="s">
         <v>300</v>
@@ -7579,13 +7545,13 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E377" s="0" t="s">
         <v>300</v>
@@ -7599,10 +7565,10 @@
         <v>312</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E378" s="0" t="s">
         <v>300</v>
@@ -7616,10 +7582,10 @@
         <v>312</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E379" s="0" t="s">
         <v>300</v>
@@ -7633,10 +7599,10 @@
         <v>312</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E380" s="0" t="s">
         <v>300</v>
@@ -7650,10 +7616,10 @@
         <v>312</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E381" s="0" t="s">
         <v>300</v>
@@ -7667,10 +7633,10 @@
         <v>312</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E382" s="0" t="s">
         <v>300</v>
@@ -7684,10 +7650,10 @@
         <v>312</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E383" s="0" t="s">
         <v>300</v>
@@ -7701,10 +7667,10 @@
         <v>312</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E384" s="0" t="s">
         <v>300</v>
@@ -7718,10 +7684,10 @@
         <v>312</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E385" s="0" t="s">
         <v>300</v>
@@ -7735,10 +7701,10 @@
         <v>312</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E386" s="0" t="s">
         <v>300</v>
@@ -7752,10 +7718,10 @@
         <v>312</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E387" s="0" t="s">
         <v>300</v>
@@ -7769,10 +7735,10 @@
         <v>312</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E388" s="0" t="s">
         <v>300</v>
@@ -7782,52 +7748,52 @@
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="3" t="s">
+      <c r="B389" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E389" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F389" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F390" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B389" s="3"/>
-      <c r="C389" s="3" t="s">
+      <c r="B391" s="3"/>
+      <c r="C391" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E389" s="0" t="s">
+      <c r="E391" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="F389" s="0" t="s">
+      <c r="F391" s="0" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B391" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C391" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="D391" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="E391" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F391" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B392" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C392" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="D392" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="E392" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F392" s="0" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7835,10 +7801,10 @@
         <v>312</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="E393" s="0" t="s">
         <v>300</v>
@@ -7852,10 +7818,10 @@
         <v>312</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E394" s="0" t="s">
         <v>300</v>
@@ -7869,10 +7835,10 @@
         <v>312</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>503</v>
+        <v>432</v>
       </c>
       <c r="E395" s="0" t="s">
         <v>300</v>
@@ -7881,15 +7847,32 @@
         <v>301</v>
       </c>
     </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="E396" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F396" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="0" t="s">
-        <v>504</v>
+        <v>312</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>307</v>
+        <v>470</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>308</v>
+        <v>503</v>
       </c>
       <c r="E397" s="0" t="s">
         <v>300</v>
@@ -7900,35 +7883,18 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="E399" s="0" t="s">
         <v>300</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="C400" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="D400" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="E400" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F400" s="0" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7937,10 +7903,10 @@
         <v>505</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="D401" s="0" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="E401" s="0" t="s">
         <v>300</v>
@@ -7954,10 +7920,10 @@
         <v>505</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>506</v>
+        <v>390</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="E402" s="0" t="s">
         <v>300</v>
@@ -7971,10 +7937,10 @@
         <v>505</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
       <c r="D403" s="0" t="s">
-        <v>509</v>
+        <v>393</v>
       </c>
       <c r="E403" s="0" t="s">
         <v>300</v>
@@ -7988,10 +7954,10 @@
         <v>505</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>298</v>
+        <v>506</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="E404" s="0" t="s">
         <v>300</v>
@@ -8005,10 +7971,10 @@
         <v>505</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="E405" s="0" t="s">
         <v>300</v>
@@ -8017,15 +7983,32 @@
         <v>301</v>
       </c>
     </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E406" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F406" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="E407" s="0" t="s">
         <v>300</v>
@@ -8034,20 +8017,20 @@
         <v>301</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="0" t="s">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="C408" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="D408" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="E408" s="0" t="s">
+      <c r="C409" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E409" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="F408" s="0" t="s">
+      <c r="F409" s="0" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8056,32 +8039,15 @@
         <v>312</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>516</v>
+        <v>300</v>
       </c>
       <c r="F410" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B411" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C411" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="D411" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="E411" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="F411" s="0" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8090,13 +8056,13 @@
         <v>312</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F412" s="0" t="s">
         <v>301</v>
@@ -8104,16 +8070,16 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="0" t="s">
-        <v>523</v>
+        <v>312</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>299</v>
+        <v>518</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F413" s="0" t="s">
         <v>301</v>
@@ -8121,16 +8087,16 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="0" t="s">
-        <v>523</v>
+        <v>312</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>303</v>
+        <v>521</v>
       </c>
       <c r="E414" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F414" s="0" t="s">
         <v>301</v>
@@ -8138,13 +8104,13 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="0" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>529</v>
+        <v>299</v>
       </c>
       <c r="E415" s="0" t="s">
         <v>525</v>
@@ -8155,13 +8121,13 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="0" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>529</v>
+        <v>303</v>
       </c>
       <c r="E416" s="0" t="s">
         <v>525</v>
@@ -8172,13 +8138,13 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>305</v>
+        <v>529</v>
       </c>
       <c r="E417" s="0" t="s">
         <v>525</v>
@@ -8189,13 +8155,13 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D418" s="0" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E418" s="0" t="s">
         <v>525</v>
@@ -8206,13 +8172,13 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="0" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D419" s="0" t="s">
-        <v>534</v>
+        <v>305</v>
       </c>
       <c r="E419" s="0" t="s">
         <v>525</v>
@@ -8221,32 +8187,38 @@
         <v>301</v>
       </c>
     </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E420" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="F420" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
-        <v>458</v>
+      <c r="B421" s="0" t="s">
+        <v>530</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>534</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C422" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="E422" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="F422" s="0" t="s">
-        <v>496</v>
+        <v>301</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,7 +8226,7 @@
         <v>458</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E423" s="0" t="s">
         <v>537</v>
@@ -8268,7 +8240,7 @@
         <v>458</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>537</v>
@@ -8279,13 +8251,13 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F425" s="0" t="s">
         <v>496</v>
@@ -8293,13 +8265,13 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F426" s="0" t="s">
         <v>496</v>
@@ -8310,10 +8282,10 @@
         <v>541</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="F427" s="0" t="s">
         <v>496</v>
@@ -8324,7 +8296,7 @@
         <v>541</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E428" s="0" t="s">
         <v>543</v>
@@ -8338,10 +8310,10 @@
         <v>541</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F429" s="0" t="s">
         <v>496</v>
@@ -8352,12 +8324,26 @@
         <v>541</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E430" s="0" t="s">
         <v>543</v>
       </c>
       <c r="F430" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E431" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="F431" s="0" t="s">
         <v>496</v>
       </c>
     </row>
@@ -8366,89 +8352,81 @@
         <v>541</v>
       </c>
       <c r="C432" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E432" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="F432" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C434" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="E432" s="4" t="s">
+      <c r="E434" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="F432" s="4" t="s">
+      <c r="F434" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="G432" s="4"/>
-      <c r="H432" s="4"/>
-    </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
+      <c r="G434" s="4"/>
+      <c r="H434" s="4"/>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="C433" s="0" t="s">
+      <c r="C435" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="E433" s="0" t="s">
+      <c r="E435" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="F433" s="0" t="s">
+      <c r="F435" s="0" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="E435" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="F435" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="E436" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="F436" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="0" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E437" s="0" t="s">
         <v>555</v>
       </c>
       <c r="F437" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C438" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="E438" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="F438" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E439" s="0" t="s">
         <v>555</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="E440" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="F440" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E441" s="0" t="s">
         <v>555</v>
@@ -8459,7 +8437,7 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E442" s="0" t="s">
         <v>555</v>
@@ -8470,7 +8448,7 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="0" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E443" s="0" t="s">
         <v>555</v>
@@ -8481,7 +8459,7 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E444" s="0" t="s">
         <v>555</v>
@@ -8492,7 +8470,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E445" s="0" t="s">
         <v>555</v>
@@ -8503,7 +8481,7 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E446" s="0" t="s">
         <v>555</v>
@@ -8514,7 +8492,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E447" s="0" t="s">
         <v>555</v>
@@ -8525,7 +8503,7 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E448" s="0" t="s">
         <v>555</v>
@@ -8536,7 +8514,7 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E449" s="0" t="s">
         <v>555</v>
@@ -8547,7 +8525,7 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E450" s="0" t="s">
         <v>555</v>
@@ -8558,7 +8536,7 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E451" s="0" t="s">
         <v>555</v>
@@ -8569,7 +8547,7 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E452" s="0" t="s">
         <v>555</v>
@@ -8580,7 +8558,7 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E453" s="0" t="s">
         <v>555</v>
@@ -8591,7 +8569,7 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E454" s="0" t="s">
         <v>555</v>
@@ -8602,7 +8580,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E455" s="0" t="s">
         <v>555</v>
@@ -8613,7 +8591,7 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E456" s="0" t="s">
         <v>555</v>
@@ -8624,7 +8602,7 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E457" s="0" t="s">
         <v>555</v>
@@ -8635,7 +8613,7 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E458" s="0" t="s">
         <v>555</v>
@@ -8646,7 +8624,7 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E459" s="0" t="s">
         <v>555</v>
@@ -8657,7 +8635,7 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E460" s="0" t="s">
         <v>555</v>
@@ -8668,7 +8646,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E461" s="0" t="s">
         <v>555</v>
@@ -8679,7 +8657,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E462" s="0" t="s">
         <v>555</v>
@@ -8690,7 +8668,7 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E463" s="0" t="s">
         <v>555</v>
@@ -8701,7 +8679,7 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E464" s="0" t="s">
         <v>555</v>
@@ -8712,7 +8690,7 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E465" s="0" t="s">
         <v>555</v>
@@ -8723,7 +8701,7 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E466" s="0" t="s">
         <v>555</v>
@@ -8734,7 +8712,7 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E467" s="0" t="s">
         <v>555</v>
@@ -8745,7 +8723,7 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E468" s="0" t="s">
         <v>555</v>
@@ -8756,7 +8734,7 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E469" s="0" t="s">
         <v>555</v>
@@ -8767,7 +8745,7 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E470" s="0" t="s">
         <v>555</v>
@@ -8778,7 +8756,7 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E471" s="0" t="s">
         <v>555</v>
@@ -8789,7 +8767,7 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E472" s="0" t="s">
         <v>555</v>
@@ -8800,7 +8778,7 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E473" s="0" t="s">
         <v>555</v>
@@ -8811,7 +8789,7 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E474" s="0" t="s">
         <v>555</v>
@@ -8822,7 +8800,7 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E475" s="0" t="s">
         <v>555</v>
@@ -8833,7 +8811,7 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E476" s="0" t="s">
         <v>555</v>
@@ -8844,7 +8822,7 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E477" s="0" t="s">
         <v>555</v>
@@ -8855,7 +8833,7 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E478" s="0" t="s">
         <v>555</v>
@@ -8866,7 +8844,7 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E479" s="0" t="s">
         <v>555</v>
@@ -8877,7 +8855,7 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E480" s="0" t="s">
         <v>555</v>
@@ -8888,7 +8866,7 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E481" s="0" t="s">
         <v>555</v>
@@ -8899,7 +8877,7 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E482" s="0" t="s">
         <v>555</v>
@@ -8910,7 +8888,7 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E483" s="0" t="s">
         <v>555</v>
@@ -8921,7 +8899,7 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E484" s="0" t="s">
         <v>555</v>
@@ -8932,7 +8910,7 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E485" s="0" t="s">
         <v>555</v>
@@ -8943,7 +8921,7 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E486" s="0" t="s">
         <v>555</v>
@@ -8954,7 +8932,7 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E487" s="0" t="s">
         <v>555</v>
@@ -8965,7 +8943,7 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E488" s="0" t="s">
         <v>555</v>
@@ -8976,7 +8954,7 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E489" s="0" t="s">
         <v>555</v>
@@ -8987,7 +8965,7 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E490" s="0" t="s">
         <v>555</v>
@@ -8998,7 +8976,7 @@
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="0" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E491" s="0" t="s">
         <v>555</v>
@@ -9009,7 +8987,7 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="0" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E492" s="0" t="s">
         <v>555</v>
@@ -9020,7 +8998,7 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E493" s="0" t="s">
         <v>555</v>
@@ -9031,7 +9009,7 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E494" s="0" t="s">
         <v>555</v>
@@ -9042,7 +9020,7 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E495" s="0" t="s">
         <v>555</v>
@@ -9053,7 +9031,7 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E496" s="0" t="s">
         <v>555</v>
@@ -9064,7 +9042,7 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E497" s="0" t="s">
         <v>555</v>
@@ -9075,7 +9053,7 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E498" s="0" t="s">
         <v>555</v>
@@ -9086,7 +9064,7 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E499" s="0" t="s">
         <v>555</v>
@@ -9097,7 +9075,7 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E500" s="0" t="s">
         <v>555</v>
@@ -9108,7 +9086,7 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E501" s="0" t="s">
         <v>555</v>
@@ -9119,7 +9097,7 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E502" s="0" t="s">
         <v>555</v>
@@ -9130,7 +9108,7 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E503" s="0" t="s">
         <v>555</v>
@@ -9141,7 +9119,7 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E504" s="0" t="s">
         <v>555</v>
@@ -9152,7 +9130,7 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E505" s="0" t="s">
         <v>555</v>
@@ -9163,7 +9141,7 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="0" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E506" s="0" t="s">
         <v>555</v>
@@ -9174,7 +9152,7 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E507" s="0" t="s">
         <v>555</v>
@@ -9185,7 +9163,7 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E508" s="0" t="s">
         <v>555</v>
@@ -9196,7 +9174,7 @@
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E509" s="0" t="s">
         <v>555</v>
@@ -9207,7 +9185,7 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="0" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E510" s="0" t="s">
         <v>555</v>
@@ -9218,7 +9196,7 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E511" s="0" t="s">
         <v>555</v>
@@ -9229,7 +9207,7 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="0" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E512" s="0" t="s">
         <v>555</v>
@@ -9240,7 +9218,7 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E513" s="0" t="s">
         <v>555</v>
@@ -9251,7 +9229,7 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="0" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E514" s="0" t="s">
         <v>555</v>
@@ -9262,7 +9240,7 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E515" s="0" t="s">
         <v>555</v>
@@ -9273,7 +9251,7 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E516" s="0" t="s">
         <v>555</v>
@@ -9284,7 +9262,7 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E517" s="0" t="s">
         <v>555</v>
@@ -9295,7 +9273,7 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="0" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E518" s="0" t="s">
         <v>555</v>
@@ -9306,7 +9284,7 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E519" s="0" t="s">
         <v>555</v>
@@ -9317,7 +9295,7 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E520" s="0" t="s">
         <v>555</v>
@@ -9328,7 +9306,7 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E521" s="0" t="s">
         <v>555</v>
@@ -9339,7 +9317,7 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E522" s="0" t="s">
         <v>555</v>
@@ -9350,7 +9328,7 @@
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E523" s="0" t="s">
         <v>555</v>
@@ -9361,7 +9339,7 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="0" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E524" s="0" t="s">
         <v>555</v>
@@ -9372,7 +9350,7 @@
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="0" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E525" s="0" t="s">
         <v>555</v>
@@ -9383,7 +9361,7 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="0" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E526" s="0" t="s">
         <v>555</v>
@@ -9394,7 +9372,7 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E527" s="0" t="s">
         <v>555</v>
@@ -9405,7 +9383,7 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E528" s="0" t="s">
         <v>555</v>
@@ -9416,7 +9394,7 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E529" s="0" t="s">
         <v>555</v>
@@ -9427,73 +9405,73 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E530" s="0" t="s">
         <v>555</v>
       </c>
       <c r="F530" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C531" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="E531" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="F531" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E532" s="0" t="s">
         <v>555</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="E533" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="F533" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="0" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="E534" s="0" t="s">
         <v>555</v>
       </c>
       <c r="F534" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C535" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="E535" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="F535" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="0" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E536" s="0" t="s">
         <v>555</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C537" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="E537" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="F537" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="0" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E538" s="0" t="s">
         <v>555</v>
@@ -9504,7 +9482,7 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E539" s="0" t="s">
         <v>555</v>
@@ -9515,7 +9493,7 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E540" s="0" t="s">
         <v>555</v>
@@ -9526,7 +9504,7 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E541" s="0" t="s">
         <v>555</v>
@@ -9537,7 +9515,7 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E542" s="0" t="s">
         <v>555</v>
@@ -9548,7 +9526,7 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="0" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E543" s="0" t="s">
         <v>555</v>
@@ -9559,7 +9537,7 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="0" t="s">
-        <v>558</v>
+        <v>658</v>
       </c>
       <c r="E544" s="0" t="s">
         <v>555</v>
@@ -9570,7 +9548,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E545" s="0" t="s">
         <v>555</v>
@@ -9581,7 +9559,7 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>661</v>
+        <v>558</v>
       </c>
       <c r="E546" s="0" t="s">
         <v>555</v>
@@ -9592,10 +9570,10 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="0" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>663</v>
+        <v>555</v>
       </c>
       <c r="F547" s="0" t="s">
         <v>556</v>
@@ -9603,7 +9581,7 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E548" s="0" t="s">
         <v>555</v>
@@ -9614,10 +9592,10 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="0" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>555</v>
+        <v>663</v>
       </c>
       <c r="F549" s="0" t="s">
         <v>556</v>
@@ -9625,7 +9603,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E550" s="0" t="s">
         <v>555</v>
@@ -9636,7 +9614,7 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="0" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E551" s="0" t="s">
         <v>555</v>
@@ -9647,7 +9625,7 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E552" s="0" t="s">
         <v>555</v>
@@ -9658,7 +9636,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="0" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E553" s="0" t="s">
         <v>555</v>
@@ -9669,7 +9647,7 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="0" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E554" s="0" t="s">
         <v>555</v>
@@ -9680,7 +9658,7 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="0" t="s">
-        <v>554</v>
+        <v>669</v>
       </c>
       <c r="E555" s="0" t="s">
         <v>555</v>
@@ -9691,7 +9669,7 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E556" s="0" t="s">
         <v>555</v>
@@ -9702,7 +9680,7 @@
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="0" t="s">
-        <v>672</v>
+        <v>554</v>
       </c>
       <c r="E557" s="0" t="s">
         <v>555</v>
@@ -9713,7 +9691,7 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="0" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E558" s="0" t="s">
         <v>555</v>
@@ -9724,7 +9702,7 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="0" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E559" s="0" t="s">
         <v>555</v>
@@ -9735,7 +9713,7 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="0" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E560" s="0" t="s">
         <v>555</v>
@@ -9746,7 +9724,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="0" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E561" s="0" t="s">
         <v>555</v>
@@ -9757,7 +9735,7 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="0" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E562" s="0" t="s">
         <v>555</v>
@@ -9768,7 +9746,7 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="0" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E563" s="0" t="s">
         <v>555</v>
@@ -9779,7 +9757,7 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="0" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E564" s="0" t="s">
         <v>555</v>
@@ -9790,7 +9768,7 @@
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="0" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E565" s="0" t="s">
         <v>555</v>
@@ -9801,7 +9779,7 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="0" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E566" s="0" t="s">
         <v>555</v>
@@ -9812,7 +9790,7 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="0" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E567" s="0" t="s">
         <v>555</v>
@@ -9823,7 +9801,7 @@
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="0" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E568" s="0" t="s">
         <v>555</v>
@@ -9834,7 +9812,7 @@
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="0" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E569" s="0" t="s">
         <v>555</v>
@@ -9845,7 +9823,7 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="0" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E570" s="0" t="s">
         <v>555</v>
@@ -9856,40 +9834,40 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="0" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E571" s="0" t="s">
         <v>555</v>
       </c>
       <c r="F571" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C572" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="E572" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="F572" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="0" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E573" s="0" t="s">
         <v>555</v>
       </c>
       <c r="F573" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C574" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="E574" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="F574" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C575" s="0" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E575" s="0" t="s">
         <v>555</v>
@@ -9900,43 +9878,43 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="0" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E576" s="0" t="s">
         <v>555</v>
       </c>
       <c r="F576" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C577" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="E577" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="F577" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="0" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>692</v>
+        <v>555</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C579" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="E579" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="F579" s="0" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="0" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F580" s="0" t="s">
         <v>556</v>
@@ -9944,10 +9922,10 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="0" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F581" s="0" t="s">
         <v>556</v>
@@ -9955,10 +9933,10 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="0" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F582" s="0" t="s">
         <v>556</v>
@@ -9966,10 +9944,10 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="0" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F583" s="0" t="s">
         <v>556</v>
@@ -9977,10 +9955,10 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="0" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F584" s="0" t="s">
         <v>556</v>
@@ -9988,56 +9966,46 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C585" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="E585" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="F585" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C586" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E586" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="F586" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C587" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="E585" s="0" t="s">
+      <c r="E587" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="F585" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="C586" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="E586" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="F586" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="G586" s="4"/>
-      <c r="H586" s="5"/>
-    </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="C587" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="E587" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="F587" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="G587" s="4"/>
-      <c r="H587" s="5"/>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
         <v>706</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E588" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F588" s="0" t="s">
         <v>556</v>
@@ -10050,10 +10018,10 @@
         <v>706</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="E589" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F589" s="0" t="s">
         <v>556</v>
@@ -10061,48 +10029,58 @@
       <c r="G589" s="4"/>
       <c r="H589" s="5"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
         <v>706</v>
       </c>
       <c r="C590" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E590" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F590" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="G590" s="4"/>
+      <c r="H590" s="5"/>
+    </row>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="E591" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="F591" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="G591" s="4"/>
+      <c r="H591" s="5"/>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C592" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="E590" s="0" t="s">
+      <c r="E592" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="F590" s="0" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E593" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F593" s="0" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="E594" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="F594" s="0" t="s">
-        <v>716</v>
+      <c r="F592" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C595" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E595" s="0" t="s">
-        <v>718</v>
+        <v>142</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="F595" s="0" t="s">
         <v>716</v>
@@ -10110,10 +10088,10 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C596" s="0" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="E596" s="0" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F596" s="0" t="s">
         <v>716</v>
@@ -10121,92 +10099,92 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C597" s="0" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="E597" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F597" s="0" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="599" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="2" t="s">
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C598" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E598" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="F598" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C599" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E599" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="F599" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="601" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C599" s="2" t="s">
+      <c r="C601" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="E599" s="4" t="s">
+      <c r="E601" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="F599" s="4" t="s">
+      <c r="F601" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="G599" s="4"/>
-      <c r="H599" s="4"/>
-    </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="2" t="s">
+      <c r="G601" s="4"/>
+      <c r="H601" s="4"/>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C603" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="E601" s="4" t="s">
+      <c r="E603" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="F601" s="6" t="s">
+      <c r="F603" s="6" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="0" t="s">
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C604" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="E602" s="4" t="s">
+      <c r="E604" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="F602" s="6" t="s">
+      <c r="F604" s="6" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="0" t="s">
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C605" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="E603" s="4" t="s">
+      <c r="E605" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="F603" s="6" t="s">
+      <c r="F605" s="6" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C609" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="E609" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="F609" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C610" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="E610" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="F610" s="4" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C611" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="E611" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
+      </c>
+      <c r="E611" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="F611" s="4" t="s">
         <v>733</v>
@@ -10214,10 +10192,10 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C612" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="E612" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
+      </c>
+      <c r="E612" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="F612" s="4" t="s">
         <v>733</v>
@@ -10225,10 +10203,10 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C613" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="E613" s="4" t="s">
-        <v>741</v>
+        <v>736</v>
+      </c>
+      <c r="E613" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="F613" s="4" t="s">
         <v>733</v>
@@ -10236,10 +10214,10 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C614" s="0" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E614" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F614" s="4" t="s">
         <v>733</v>
@@ -10247,59 +10225,49 @@
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C615" s="0" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E615" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F615" s="4" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E619" s="8"/>
-    </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="0" t="s">
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C616" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E616" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="F616" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C617" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="E617" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F617" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E621" s="8"/>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="C620" s="0" t="s">
+      <c r="C622" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="E620" s="8" t="s">
+      <c r="E622" s="8" t="s">
         <v>748</v>
-      </c>
-      <c r="F620" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="G620" s="8"/>
-      <c r="H620" s="6"/>
-    </row>
-    <row r="621" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="C621" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="E621" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="F621" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="G621" s="8"/>
-      <c r="H621" s="6"/>
-    </row>
-    <row r="622" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="C622" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="E622" s="8" t="s">
-        <v>753</v>
       </c>
       <c r="F622" s="6" t="s">
         <v>749</v>
@@ -10307,116 +10275,116 @@
       <c r="G622" s="8"/>
       <c r="H622" s="6"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="C623" s="0" t="s">
-        <v>755</v>
+        <v>706</v>
+      </c>
+      <c r="C623" s="9" t="s">
+        <v>750</v>
       </c>
       <c r="E623" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="F623" s="4" t="s">
-        <v>496</v>
+        <v>751</v>
+      </c>
+      <c r="F623" s="6" t="s">
+        <v>749</v>
       </c>
       <c r="G623" s="8"/>
-      <c r="H623" s="4"/>
-    </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H623" s="6"/>
+    </row>
+    <row r="624" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="C624" s="0" t="s">
-        <v>757</v>
+        <v>706</v>
+      </c>
+      <c r="C624" s="9" t="s">
+        <v>752</v>
       </c>
       <c r="E624" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="F624" s="4" t="s">
-        <v>496</v>
+        <v>753</v>
+      </c>
+      <c r="F624" s="6" t="s">
+        <v>749</v>
       </c>
       <c r="G624" s="8"/>
-      <c r="H624" s="4"/>
+      <c r="H624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>541</v>
+        <v>754</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E625" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="F625" s="6" t="s">
-        <v>749</v>
+        <v>756</v>
+      </c>
+      <c r="F625" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="G625" s="8"/>
-      <c r="H625" s="6"/>
+      <c r="H625" s="4"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
         <v>541</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E626" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="F626" s="6" t="s">
-        <v>749</v>
+        <v>758</v>
+      </c>
+      <c r="F626" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="G626" s="8"/>
-      <c r="H626" s="6"/>
+      <c r="H626" s="4"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
         <v>541</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E627" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="F627" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="F627" s="6" t="s">
         <v>749</v>
       </c>
       <c r="G627" s="8"/>
-      <c r="H627" s="4"/>
+      <c r="H627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
         <v>541</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E628" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="F628" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="F628" s="6" t="s">
         <v>749</v>
       </c>
       <c r="G628" s="8"/>
-      <c r="H628" s="4"/>
+      <c r="H628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
         <v>541</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="E629" s="10" t="s">
-        <v>768</v>
+        <v>763</v>
+      </c>
+      <c r="E629" s="8" t="s">
+        <v>764</v>
       </c>
       <c r="F629" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="G629" s="10"/>
+      <c r="G629" s="8"/>
       <c r="H629" s="4"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10424,58 +10392,58 @@
         <v>541</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="E630" s="10" t="s">
-        <v>770</v>
+        <v>765</v>
+      </c>
+      <c r="E630" s="8" t="s">
+        <v>766</v>
       </c>
       <c r="F630" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="G630" s="10"/>
+      <c r="G630" s="8"/>
       <c r="H630" s="4"/>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C631" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="E631" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F631" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="G631" s="10"/>
+      <c r="H631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>458</v>
+        <v>541</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="E632" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
+      </c>
+      <c r="E632" s="10" t="s">
+        <v>770</v>
       </c>
       <c r="F632" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G632" s="4"/>
+        <v>749</v>
+      </c>
+      <c r="G632" s="10"/>
       <c r="H632" s="4"/>
-    </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C633" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="E633" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="F633" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G633" s="4"/>
-      <c r="H633" s="4"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
         <v>458</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E634" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F634" s="4" t="s">
         <v>496</v>
@@ -10488,10 +10456,10 @@
         <v>458</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E635" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F635" s="4" t="s">
         <v>496</v>
@@ -10501,13 +10469,13 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>746</v>
+        <v>458</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E636" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F636" s="4" t="s">
         <v>496</v>
@@ -10517,13 +10485,13 @@
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>746</v>
+        <v>458</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F637" s="4" t="s">
         <v>496</v>
@@ -10531,48 +10499,47 @@
       <c r="G637" s="4"/>
       <c r="H637" s="4"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="C640" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="E640" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="F640" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="G640" s="4"/>
-      <c r="H640" s="4"/>
-    </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="C641" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="E641" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="F641" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="G641" s="4"/>
-      <c r="H641" s="4"/>
-      <c r="I641" s="4"/>
-    </row>
-    <row r="642" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="C638" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="E638" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="F638" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G638" s="4"/>
+      <c r="H638" s="4"/>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="C639" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="E639" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F639" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G639" s="4"/>
+      <c r="H639" s="4"/>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
         <v>781</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E642" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F642" s="4" t="s">
         <v>726</v>
@@ -10585,26 +10552,27 @@
         <v>781</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E643" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F643" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
-    </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I643" s="4"/>
+    </row>
+    <row r="644" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
         <v>781</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F644" s="4" t="s">
         <v>726</v>
@@ -10617,10 +10585,10 @@
         <v>781</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E645" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F645" s="4" t="s">
         <v>726</v>
@@ -10633,10 +10601,10 @@
         <v>781</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E646" s="4" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F646" s="4" t="s">
         <v>726</v>
@@ -10649,27 +10617,26 @@
         <v>781</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E647" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F647" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
-      <c r="I647" s="4"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
         <v>781</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E648" s="4" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F648" s="4" t="s">
         <v>726</v>
@@ -10682,26 +10649,27 @@
         <v>781</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E649" s="4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F649" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
+      <c r="I649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
         <v>781</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E650" s="4" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F650" s="4" t="s">
         <v>726</v>
@@ -10714,27 +10682,26 @@
         <v>781</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E651" s="4" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F651" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
-      <c r="I651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
         <v>781</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E652" s="4" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F652" s="4" t="s">
         <v>726</v>
@@ -10747,45 +10714,46 @@
         <v>781</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E653" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F653" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
+      <c r="I653" s="4"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>810</v>
+        <v>781</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E654" s="4" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F654" s="4" t="s">
-        <v>813</v>
+        <v>726</v>
       </c>
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>810</v>
+        <v>781</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E655" s="4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F655" s="4" t="s">
-        <v>813</v>
+        <v>726</v>
       </c>
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
@@ -10795,10 +10763,10 @@
         <v>810</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E656" s="4" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F656" s="4" t="s">
         <v>813</v>
@@ -10811,10 +10779,10 @@
         <v>810</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F657" s="4" t="s">
         <v>813</v>
@@ -10827,10 +10795,10 @@
         <v>810</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E658" s="4" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F658" s="4" t="s">
         <v>813</v>
@@ -10840,61 +10808,61 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="E659" s="4" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="F659" s="4" t="s">
-        <v>496</v>
+        <v>813</v>
       </c>
       <c r="G659" s="4"/>
       <c r="H659" s="4"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E660" s="4" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F660" s="4" t="s">
-        <v>496</v>
+        <v>813</v>
       </c>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>458</v>
+        <v>822</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="E661" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="F661" s="6" t="s">
-        <v>749</v>
+        <v>815</v>
+      </c>
+      <c r="F661" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="G661" s="4"/>
-      <c r="H661" s="6"/>
+      <c r="H661" s="4"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>458</v>
+        <v>823</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E662" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F662" s="4" t="s">
         <v>496</v>
@@ -10907,137 +10875,137 @@
         <v>458</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="E663" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G663" s="11"/>
+        <v>826</v>
+      </c>
+      <c r="E663" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="F663" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G663" s="4"/>
+      <c r="H663" s="6"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>706</v>
+        <v>458</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E664" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="F664" s="6" t="s">
-        <v>749</v>
+        <v>829</v>
+      </c>
+      <c r="F664" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="G664" s="4"/>
-      <c r="H664" s="6"/>
+      <c r="H664" s="4"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="E665" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="F665" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="G665" s="4"/>
-      <c r="H665" s="4"/>
+        <v>830</v>
+      </c>
+      <c r="E665" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="G665" s="11"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C666" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="E666" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="F666" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G666" s="4"/>
+      <c r="H666" s="6"/>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="C666" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="E666" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="F666" s="4" t="s">
+      <c r="C667" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="E667" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="F667" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="G666" s="4"/>
-      <c r="H666" s="4"/>
+      <c r="G667" s="4"/>
+      <c r="H667" s="4"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>838</v>
+        <v>541</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E668" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F668" s="4" t="s">
-        <v>841</v>
+        <v>749</v>
       </c>
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
-    </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="C669" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="E669" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="F669" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="G669" s="4"/>
-      <c r="H669" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
         <v>838</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E670" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F670" s="4" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="G670" s="4"/>
       <c r="H670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>781</v>
+        <v>838</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E671" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F671" s="4" t="s">
-        <v>726</v>
+        <v>841</v>
       </c>
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
     </row>
-    <row r="672" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>781</v>
+        <v>838</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E672" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F672" s="4" t="s">
-        <v>726</v>
+        <v>749</v>
       </c>
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
@@ -11047,10 +11015,10 @@
         <v>781</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E673" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F673" s="4" t="s">
         <v>726</v>
@@ -11058,15 +11026,15 @@
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
         <v>781</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E674" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F674" s="4" t="s">
         <v>726</v>
@@ -11076,93 +11044,93 @@
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>810</v>
+        <v>781</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E675" s="4" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F675" s="4" t="s">
-        <v>813</v>
+        <v>726</v>
       </c>
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>856</v>
+        <v>781</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E676" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="F676" s="6" t="s">
-        <v>749</v>
+        <v>853</v>
+      </c>
+      <c r="F676" s="4" t="s">
+        <v>726</v>
       </c>
       <c r="G676" s="4"/>
-      <c r="H676" s="6"/>
+      <c r="H676" s="4"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C677" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="E677" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="F677" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G677" s="4"/>
+      <c r="H677" s="4"/>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="s">
         <v>856</v>
       </c>
-      <c r="C677" s="0" t="s">
+      <c r="C678" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="E678" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="F678" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G678" s="4"/>
+      <c r="H678" s="6"/>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="C679" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="E677" s="4" t="s">
+      <c r="E679" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="F677" s="6" t="s">
+      <c r="F679" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="G677" s="4"/>
-      <c r="H677" s="6"/>
-    </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="C681" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="E681" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="F681" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="G681" s="4"/>
-      <c r="H681" s="4"/>
-    </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="C682" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="E682" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="F682" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="G682" s="4"/>
-      <c r="H682" s="4"/>
+      <c r="G679" s="4"/>
+      <c r="H679" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
         <v>838</v>
       </c>
       <c r="C683" s="0" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E683" s="4" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F683" s="4" t="s">
         <v>841</v>
@@ -11175,10 +11143,10 @@
         <v>838</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E684" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F684" s="4" t="s">
         <v>841</v>
@@ -11191,10 +11159,10 @@
         <v>838</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E685" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F685" s="4" t="s">
         <v>841</v>
@@ -11202,8 +11170,38 @@
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C686" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="E686" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="F686" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G686" s="4"/>
+      <c r="H686" s="4"/>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C687" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="E687" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F687" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G687" s="4"/>
+      <c r="H687" s="4"/>
+    </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1125">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -2380,7 +2380,39 @@
     <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. Maybe sum the land use in LPJ-GUESS + fossil fuel from CEDS? This means it then has to be added in an additional post processing step.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Available in LPJ-GUESS, will be cmorized by Peter Anthoni &amp; Lars Nieradzik.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Previous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. Maybe sum the land use in LPJ-GUESS + fossil fuel from CEDS? This means it then has to be added in an additional post processing step.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warlind, Tommi Bergman</t>
   </si>
   <si>
     <t xml:space="preserve">fco2fos</t>
@@ -2398,7 +2430,36 @@
     <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
   </si>
   <si>
-    <t xml:space="preserve">Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. It is not clear to us if this variable includes the contribution from land use. This variable can be calculated from the total CO2 flux provided by TM5 and the contributions from CEDS and land use from LPJ-GUESS. This "Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources" could be provided by LPJ-GUESS but its definition is very vague... Should we include emissions from managed forests? Cropland? Pasture? Any managed land? If a land has a history of being managed, but now is "natural"?</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Available in LPJ-GUESS, will be cmorized by Peter Anthoni &amp; Lars Nieradzik.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Previous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. It is not clear to us if this variable includes the contribution from land use. This variable can be calculated from the total CO2 flux provided by TM5 and the contributions from CEDS and land use from LPJ-GUESS. This "Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources" could be provided by LPJ-GUESS but its definition is very vague... Should we include emissions from managed forests? Cropland? Pasture? Any managed land? If a land has a history of being managed, but now is "natural"?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">longitude latitude plev19 time2</t>
@@ -3802,13 +3863,13 @@
   </sheetPr>
   <dimension ref="A1:I687"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B255" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:C269"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C403" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C414" activeCellId="0" sqref="414:414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.66"/>
@@ -8813,7 +8874,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="0" t="s">
         <v>566</v>
       </c>
@@ -8827,7 +8888,7 @@
         <v>770</v>
       </c>
       <c r="F412" s="0" t="s">
-        <v>555</v>
+        <v>771</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,47 +8896,47 @@
         <v>566</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F413" s="0" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="0" t="s">
         <v>566</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E414" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F414" s="0" t="s">
-        <v>555</v>
+        <v>771</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>553</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F415" s="0" t="s">
         <v>555</v>
@@ -8883,16 +8944,16 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>557</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F416" s="0" t="s">
         <v>555</v>
@@ -8900,16 +8961,16 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E417" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F417" s="0" t="s">
         <v>555</v>
@@ -8917,16 +8978,16 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="D418" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="C418" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="D418" s="0" t="s">
-        <v>783</v>
-      </c>
       <c r="E418" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F418" s="0" t="s">
         <v>555</v>
@@ -8934,16 +8995,16 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D419" s="0" t="s">
         <v>559</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F419" s="0" t="s">
         <v>555</v>
@@ -8951,16 +9012,16 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D420" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F420" s="0" t="s">
         <v>555</v>
@@ -8968,16 +9029,16 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C421" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="D421" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="D421" s="0" t="s">
-        <v>788</v>
-      </c>
       <c r="E421" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F421" s="0" t="s">
         <v>555</v>
@@ -8988,10 +9049,10 @@
         <v>712</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F423" s="0" t="s">
         <v>750</v>
@@ -9002,10 +9063,10 @@
         <v>712</v>
       </c>
       <c r="C424" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="E424" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="E424" s="0" t="s">
-        <v>791</v>
       </c>
       <c r="F424" s="0" t="s">
         <v>750</v>
@@ -9016,10 +9077,10 @@
         <v>712</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F425" s="0" t="s">
         <v>750</v>
@@ -9030,10 +9091,10 @@
         <v>712</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F426" s="0" t="s">
         <v>750</v>
@@ -9041,13 +9102,13 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F427" s="0" t="s">
         <v>750</v>
@@ -9055,13 +9116,13 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C428" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="E428" s="0" t="s">
         <v>798</v>
-      </c>
-      <c r="E428" s="0" t="s">
-        <v>797</v>
       </c>
       <c r="F428" s="0" t="s">
         <v>750</v>
@@ -9069,13 +9130,13 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F429" s="0" t="s">
         <v>750</v>
@@ -9083,13 +9144,13 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F430" s="0" t="s">
         <v>750</v>
@@ -9097,13 +9158,13 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E431" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F431" s="0" t="s">
         <v>750</v>
@@ -9111,13 +9172,13 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F432" s="0" t="s">
         <v>750</v>
@@ -9125,13 +9186,13 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F434" s="4" t="s">
         <v>750</v>
@@ -9141,1700 +9202,1700 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F447" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F448" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F449" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E509" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E510" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E524" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F535" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F541" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F548" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F550" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F552" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F555" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F556" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F559" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F560" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F561" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F562" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F563" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F564" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F565" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F566" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F570" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F571" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F572" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F573" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C575" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F575" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F580" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="E582" s="0" t="s">
         <v>949</v>
       </c>
-      <c r="E582" s="0" t="s">
-        <v>948</v>
-      </c>
       <c r="F582" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C585" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F585" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C586" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C587" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E587" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F587" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E588" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G588" s="4"/>
       <c r="H588" s="5"/>
     </row>
     <row r="589" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E589" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G589" s="4"/>
       <c r="H589" s="5"/>
     </row>
     <row r="590" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E590" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G590" s="4"/>
       <c r="H590" s="5"/>
     </row>
     <row r="591" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E591" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F591" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G591" s="4"/>
       <c r="H591" s="5"/>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F592" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10842,10 +10903,10 @@
         <v>268</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F595" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10853,10 +10914,10 @@
         <v>270</v>
       </c>
       <c r="E596" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="F596" s="0" t="s">
         <v>971</v>
-      </c>
-      <c r="F596" s="0" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10864,10 +10925,10 @@
         <v>266</v>
       </c>
       <c r="E597" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F597" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10875,10 +10936,10 @@
         <v>371</v>
       </c>
       <c r="E598" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F598" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10886,37 +10947,37 @@
         <v>372</v>
       </c>
       <c r="E599" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F599" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="601" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E601" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F601" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G601" s="4"/>
       <c r="H601" s="4"/>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C603" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E603" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F603" s="6" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10924,98 +10985,98 @@
         <v>540</v>
       </c>
       <c r="E604" s="4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C605" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="E605" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="F605" s="6" t="s">
         <v>983</v>
-      </c>
-      <c r="E605" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="F605" s="6" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C611" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E611" s="4" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F611" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C612" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="E612" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="F612" s="4" t="s">
         <v>988</v>
-      </c>
-      <c r="E612" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="F612" s="4" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C613" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E613" s="7" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F613" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C614" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E614" s="4" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F614" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C615" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E615" s="4" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F615" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C616" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E616" s="4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F616" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C617" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E617" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F617" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11023,61 +11084,61 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E622" s="8" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G622" s="8"/>
       <c r="H622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C623" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E623" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F623" s="6" t="s">
         <v>1004</v>
-      </c>
-      <c r="E623" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F623" s="6" t="s">
-        <v>1003</v>
       </c>
       <c r="G623" s="8"/>
       <c r="H623" s="6"/>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C624" s="9" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E624" s="8" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G624" s="8"/>
       <c r="H624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E625" s="8" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F625" s="4" t="s">
         <v>750</v>
@@ -11087,13 +11148,13 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E626" s="8" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F626" s="4" t="s">
         <v>750</v>
@@ -11103,96 +11164,96 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E627" s="8" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G627" s="8"/>
       <c r="H627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E628" s="8" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G628" s="8"/>
       <c r="H628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E629" s="8" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F629" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G629" s="8"/>
       <c r="H629" s="4"/>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E630" s="8" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F630" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G630" s="8"/>
       <c r="H630" s="4"/>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E631" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F631" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G631" s="10"/>
       <c r="H631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E632" s="10" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F632" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G632" s="10"/>
       <c r="H632" s="4"/>
@@ -11202,10 +11263,10 @@
         <v>712</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E634" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F634" s="4" t="s">
         <v>750</v>
@@ -11218,10 +11279,10 @@
         <v>712</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E635" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F635" s="4" t="s">
         <v>750</v>
@@ -11234,10 +11295,10 @@
         <v>712</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E636" s="4" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F636" s="4" t="s">
         <v>750</v>
@@ -11250,10 +11311,10 @@
         <v>712</v>
       </c>
       <c r="C637" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E637" s="4" t="s">
         <v>1031</v>
-      </c>
-      <c r="E637" s="4" t="s">
-        <v>1030</v>
       </c>
       <c r="F637" s="4" t="s">
         <v>750</v>
@@ -11263,13 +11324,13 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E638" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F638" s="4" t="s">
         <v>750</v>
@@ -11279,13 +11340,13 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E639" s="4" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F639" s="4" t="s">
         <v>750</v>
@@ -11295,32 +11356,32 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E642" s="4" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F642" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E643" s="4" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F643" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
@@ -11328,96 +11389,96 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F644" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E645" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F645" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G645" s="4"/>
       <c r="H645" s="4"/>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E646" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F646" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G646" s="4"/>
       <c r="H646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E647" s="4" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F647" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E648" s="4" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F648" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E649" s="4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="F649" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
@@ -11425,64 +11486,64 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E650" s="4" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F650" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E651" s="4" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F651" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E652" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F652" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E653" s="4" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F653" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
@@ -11490,125 +11551,125 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E654" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F654" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E655" s="4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F655" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E656" s="4" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F656" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C657" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E657" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F657" s="4" t="s">
         <v>1068</v>
-      </c>
-      <c r="E657" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F657" s="4" t="s">
-        <v>1067</v>
       </c>
       <c r="G657" s="4"/>
       <c r="H657" s="4"/>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E658" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F658" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E659" s="4" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F659" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G659" s="4"/>
       <c r="H659" s="4"/>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E660" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F660" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E661" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F661" s="4" t="s">
         <v>750</v>
@@ -11618,13 +11679,13 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E662" s="4" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F662" s="4" t="s">
         <v>750</v>
@@ -11637,13 +11698,13 @@
         <v>712</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E663" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F663" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G663" s="4"/>
       <c r="H663" s="6"/>
@@ -11653,10 +11714,10 @@
         <v>712</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E664" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F664" s="4" t="s">
         <v>750</v>
@@ -11669,297 +11730,297 @@
         <v>712</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E665" s="11" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="G665" s="11"/>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E666" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="F666" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G666" s="4"/>
       <c r="H666" s="6"/>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E667" s="4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F667" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E668" s="4" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F668" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E670" s="4" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F670" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G670" s="4"/>
       <c r="H670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C671" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E671" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F671" s="4" t="s">
         <v>1096</v>
-      </c>
-      <c r="E671" s="4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F671" s="4" t="s">
-        <v>1095</v>
       </c>
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E672" s="4" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F672" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E673" s="4" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F673" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E674" s="4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F674" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G674" s="4"/>
       <c r="H674" s="4"/>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E675" s="4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="F675" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E676" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F676" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G676" s="4"/>
       <c r="H676" s="4"/>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E677" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="F677" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E678" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F678" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G678" s="4"/>
       <c r="H678" s="6"/>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C679" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E679" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="E679" s="4" t="s">
-        <v>1112</v>
-      </c>
       <c r="F679" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G679" s="4"/>
       <c r="H679" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C683" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E683" s="4" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F683" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E684" s="4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F684" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G684" s="4"/>
       <c r="H684" s="4"/>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E685" s="4" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F685" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E686" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F686" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G686" s="4"/>
       <c r="H686" s="4"/>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E687" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F687" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G687" s="4"/>
       <c r="H687" s="4"/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="1108">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -1753,12 +1753,6 @@
     <t xml:space="preserve">Tommi Bergman</t>
   </si>
   <si>
-    <t xml:space="preserve">co2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mole Fraction of CO2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ch4</t>
   </si>
   <si>
@@ -1876,9 +1870,6 @@
     <t xml:space="preserve">CO volume mixing ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2 volume mixing ratio</t>
-  </si>
-  <si>
     <t xml:space="preserve">dms</t>
   </si>
   <si>
@@ -2017,12 +2008,6 @@
     <t xml:space="preserve">total emission rate of seasalt</t>
   </si>
   <si>
-    <t xml:space="preserve">h2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Water</t>
-  </si>
-  <si>
     <t xml:space="preserve">hno3</t>
   </si>
   <si>
@@ -2113,12 +2098,6 @@
     <t xml:space="preserve">Sea Salt mass mixing ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">nh50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial tracer with 50 day lifetime</t>
-  </si>
-  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
@@ -2158,9 +2137,6 @@
     <t xml:space="preserve">black carbon aod@550nm</t>
   </si>
   <si>
-    <t xml:space="preserve">od550csaer</t>
-  </si>
-  <si>
     <t xml:space="preserve">od550dust</t>
   </si>
   <si>
@@ -2389,94 +2365,6 @@
     <t xml:space="preserve">total emission rate of nmvoc</t>
   </si>
   <si>
-    <t xml:space="preserve">fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Available in LPJ-GUESS, will be cmorized by Peter Anthoni &amp; Lars Nieradzik.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Previous</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. Maybe sum the land use in LPJ-GUESS + fossil fuel from CEDS? This means it then has to be added in an additional post processing step.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">David Warlind, Tommi Bergman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2fos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Fossil Fuel Emissions of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. Fossil fuel emissions are based on CEDS, and can therefore be constructed from the forcing data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Available in LPJ-GUESS, will be cmorized by Peter Anthoni &amp; Lars Nieradzik.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Previous</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: Not available in the AOGCM, neither in TM5. TM5 can only provide total fluxes. It is not clear to us if this variable includes the contribution from land use. This variable can be calculated from the total CO2 flux provided by TM5 and the contributions from CEDS and land use from LPJ-GUESS. This "Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources" could be provided by LPJ-GUESS but its definition is very vague... Should we include emissions from managed forests? Cropland? Pasture? Any managed land? If a land has a history of being managed, but now is "natural"?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">o3Clim</t>
   </si>
   <si>
@@ -2486,34 +2374,22 @@
     <t xml:space="preserve">Not available in the AOGCM, but will be added by Tommi  in the ESM in TM5 with its cmor name.</t>
   </si>
   <si>
-    <t xml:space="preserve">co2Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2mass</t>
+    <t xml:space="preserve">ch4Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4global</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Atmospheric Mass of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2massClim</t>
+    <t xml:space="preserve">Global Mean Mole Fraction of CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4globalClim</t>
   </si>
   <si>
     <t xml:space="preserve">time2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch4Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch4global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Mean Mole Fraction of CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch4globalClim</t>
   </si>
   <si>
     <t xml:space="preserve">lossch4</t>
@@ -3608,7 +3484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3638,13 +3514,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3757,16 +3626,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="